--- a/Predictions/PV_typical_cnn.xlsx
+++ b/Predictions/PV_typical_cnn.xlsx
@@ -483,1218 +483,1218 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.498321533203125</v>
+        <v>8.572049140930176</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.772096157073975</v>
+        <v>-6.702195167541504</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.752816677093506</v>
+        <v>-3.968141317367554</v>
       </c>
       <c r="F2" t="n">
-        <v>8.497658729553223</v>
+        <v>7.498403549194336</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.15736198425293</v>
+        <v>-7.350876331329346</v>
       </c>
       <c r="H2" t="n">
-        <v>-5.32224702835083</v>
+        <v>-4.069616794586182</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.01953117176890373</v>
+        <v>-0.01072417106479406</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.003976055420935154</v>
+        <v>0.001694849692285061</v>
       </c>
       <c r="C3" t="n">
-        <v>10.47689723968506</v>
+        <v>9.075502395629883</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.766039609909058</v>
+        <v>-5.086697578430176</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.764273643493652</v>
+        <v>-4.605206966400146</v>
       </c>
       <c r="F3" t="n">
-        <v>8.683660507202148</v>
+        <v>7.424480438232422</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.226328372955322</v>
+        <v>-5.81411600112915</v>
       </c>
       <c r="H3" t="n">
-        <v>-6.223936080932617</v>
+        <v>-4.783413410186768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.01897537522017956</v>
+        <v>-0.01017600670456886</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003803833154961467</v>
+        <v>0.002298741368576884</v>
       </c>
       <c r="C4" t="n">
-        <v>10.449049949646</v>
+        <v>9.049768447875977</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6418838500976562</v>
+        <v>-3.272670269012451</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.711835384368896</v>
+        <v>-4.611876010894775</v>
       </c>
       <c r="F4" t="n">
-        <v>8.319713592529297</v>
+        <v>7.398140907287598</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.395304441452026</v>
+        <v>-4.10088062286377</v>
       </c>
       <c r="H4" t="n">
-        <v>-6.455113887786865</v>
+        <v>-5.138786792755127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.006259995978325605</v>
+        <v>0.006905220914632082</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01717807352542877</v>
+        <v>0.01266794838011265</v>
       </c>
       <c r="C5" t="n">
-        <v>9.811967849731445</v>
+        <v>8.247879028320312</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8635034561157227</v>
+        <v>-1.858786582946777</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.360398769378662</v>
+        <v>-4.283288955688477</v>
       </c>
       <c r="F5" t="n">
-        <v>7.694060325622559</v>
+        <v>6.945874214172363</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2822364866733551</v>
+        <v>-2.96326470375061</v>
       </c>
       <c r="H5" t="n">
-        <v>-5.519832134246826</v>
+        <v>-4.741642475128174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.02404695190489292</v>
+        <v>0.02774642594158649</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03549627959728241</v>
+        <v>0.03489149361848831</v>
       </c>
       <c r="C6" t="n">
-        <v>8.293490409851074</v>
+        <v>7.269474983215332</v>
       </c>
       <c r="D6" t="n">
-        <v>1.28865122795105</v>
+        <v>-1.177048563957214</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.608523845672607</v>
+        <v>-3.287347316741943</v>
       </c>
       <c r="F6" t="n">
-        <v>6.837125778198242</v>
+        <v>5.976564884185791</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1574308127164841</v>
+        <v>-1.985633492469788</v>
       </c>
       <c r="H6" t="n">
-        <v>-4.12055778503418</v>
+        <v>-3.615015745162964</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.05546609684824944</v>
+        <v>0.05781544372439384</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05317907407879829</v>
+        <v>0.04706338047981262</v>
       </c>
       <c r="C7" t="n">
-        <v>6.719288349151611</v>
+        <v>5.857865333557129</v>
       </c>
       <c r="D7" t="n">
-        <v>0.573358416557312</v>
+        <v>-0.8428590893745422</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.290476560592651</v>
+        <v>-1.873011946678162</v>
       </c>
       <c r="F7" t="n">
-        <v>6.009916305541992</v>
+        <v>5.445672035217285</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4250750839710236</v>
+        <v>-1.621139407157898</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.804137706756592</v>
+        <v>-2.29055643081665</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.08516474813222885</v>
+        <v>0.07975044846534729</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08190077543258667</v>
+        <v>0.0726158618927002</v>
       </c>
       <c r="C8" t="n">
-        <v>5.231288909912109</v>
+        <v>4.828112125396729</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04152035713195801</v>
+        <v>-1.241245985031128</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.107965350151062</v>
+        <v>-0.6370965838432312</v>
       </c>
       <c r="F8" t="n">
-        <v>4.666301250457764</v>
+        <v>4.331166744232178</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1176416054368019</v>
+        <v>-1.689298152923584</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.6130450963974</v>
+        <v>-0.9081511497497559</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1128219813108444</v>
+        <v>0.1137286424636841</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1058204025030136</v>
+        <v>0.1057532280683517</v>
       </c>
       <c r="C9" t="n">
-        <v>3.845570802688599</v>
+        <v>3.232983350753784</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.8179521560668945</v>
+        <v>-1.754555344581604</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.3319493234157562</v>
+        <v>0.1716520190238953</v>
       </c>
       <c r="F9" t="n">
-        <v>3.547329902648926</v>
+        <v>2.885836839675903</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.653298020362854</v>
+        <v>-1.955471634864807</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.4221070408821106</v>
+        <v>0.007039962336421013</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1393931359052658</v>
+        <v>0.1435087323188782</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1364796310663223</v>
+        <v>0.1296347826719284</v>
       </c>
       <c r="C10" t="n">
-        <v>2.514268398284912</v>
+        <v>1.834938287734985</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.827610373497009</v>
+        <v>-2.710058927536011</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3966047167778015</v>
+        <v>0.8139083385467529</v>
       </c>
       <c r="F10" t="n">
-        <v>2.113076448440552</v>
+        <v>1.844211101531982</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.710825443267822</v>
+        <v>-2.814639329910278</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3727455735206604</v>
+        <v>0.8373358249664307</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1678135693073273</v>
+        <v>0.1665700525045395</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1615615487098694</v>
+        <v>0.1584353595972061</v>
       </c>
       <c r="C11" t="n">
-        <v>1.090311884880066</v>
+        <v>0.7523091435432434</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.752997159957886</v>
+        <v>-3.64863920211792</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9124981164932251</v>
+        <v>1.35856032371521</v>
       </c>
       <c r="F11" t="n">
-        <v>0.939732551574707</v>
+        <v>0.5880354642868042</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.306358337402344</v>
+        <v>-3.52549934387207</v>
       </c>
       <c r="H11" t="n">
-        <v>0.941116988658905</v>
+        <v>1.391335129737854</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1944737136363983</v>
+        <v>0.1932838559150696</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1872708797454834</v>
+        <v>0.1812830567359924</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2454486191272736</v>
+        <v>-0.5017885565757751</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.890899896621704</v>
+        <v>-4.815656661987305</v>
       </c>
       <c r="E12" t="n">
-        <v>1.458390712738037</v>
+        <v>1.917055130004883</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2629623413085938</v>
+        <v>-0.4084962010383606</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.559590578079224</v>
+        <v>-4.486754417419434</v>
       </c>
       <c r="H12" t="n">
-        <v>1.460858345031738</v>
+        <v>1.958553433418274</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2184427678585052</v>
+        <v>0.2197635024785995</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2090181708335876</v>
+        <v>0.2059673517942429</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.446376442909241</v>
+        <v>-1.744892358779907</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.781629085540771</v>
+        <v>-5.370223522186279</v>
       </c>
       <c r="E13" t="n">
-        <v>1.94301700592041</v>
+        <v>2.361146211624146</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.280310392379761</v>
+        <v>-1.485135078430176</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.675072193145752</v>
+        <v>-5.286198139190674</v>
       </c>
       <c r="H13" t="n">
-        <v>1.784743547439575</v>
+        <v>2.457864999771118</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2429860383272171</v>
+        <v>0.2408646494150162</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2335801124572754</v>
+        <v>0.2281259298324585</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.676074743270874</v>
+        <v>-2.735498905181885</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.258124828338623</v>
+        <v>-6.436023712158203</v>
       </c>
       <c r="E14" t="n">
-        <v>2.749987363815308</v>
+        <v>2.768818616867065</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.429331064224243</v>
+        <v>-2.451610326766968</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.715495109558105</v>
+        <v>-6.07979154586792</v>
       </c>
       <c r="H14" t="n">
-        <v>2.40059757232666</v>
+        <v>3.185124158859253</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2669841647148132</v>
+        <v>0.2597577571868896</v>
       </c>
       <c r="B15" t="n">
-        <v>0.261347770690918</v>
+        <v>0.2558241188526154</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.878459215164185</v>
+        <v>-3.622448682785034</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.634868621826172</v>
+        <v>-7.407967090606689</v>
       </c>
       <c r="E15" t="n">
-        <v>3.142235279083252</v>
+        <v>3.125966310501099</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.728315353393555</v>
+        <v>-3.659703254699707</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.018632411956787</v>
+        <v>-6.713381767272949</v>
       </c>
       <c r="H15" t="n">
-        <v>2.711791753768921</v>
+        <v>3.673404216766357</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2890568375587463</v>
+        <v>0.2793869078159332</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2838459610939026</v>
+        <v>0.2786677777767181</v>
       </c>
       <c r="C16" t="n">
-        <v>-4.984373092651367</v>
+        <v>-4.543951988220215</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.699080944061279</v>
+        <v>-8.004816055297852</v>
       </c>
       <c r="E16" t="n">
-        <v>3.816113471984863</v>
+        <v>3.433015584945679</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.780791759490967</v>
+        <v>-4.656060218811035</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.719921588897705</v>
+        <v>-7.604918003082275</v>
       </c>
       <c r="H16" t="n">
-        <v>3.470317602157593</v>
+        <v>4.176784515380859</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3117965459823608</v>
+        <v>0.3041667938232422</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3088357150554657</v>
+        <v>0.3017562925815582</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.123706817626953</v>
+        <v>-5.707259178161621</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.465511322021484</v>
+        <v>-8.929826736450195</v>
       </c>
       <c r="E17" t="n">
-        <v>4.443871021270752</v>
+        <v>3.87780237197876</v>
       </c>
       <c r="F17" t="n">
-        <v>-5.949824810028076</v>
+        <v>-5.663096904754639</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.642176628112793</v>
+        <v>-8.586331367492676</v>
       </c>
       <c r="H17" t="n">
-        <v>4.197314739227295</v>
+        <v>4.705395221710205</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.3316750228404999</v>
+        <v>0.3277668058872223</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3352544903755188</v>
+        <v>0.3230309784412384</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.119683742523193</v>
+        <v>-6.815179347991943</v>
       </c>
       <c r="D18" t="n">
-        <v>-9.047483444213867</v>
+        <v>-9.680630683898926</v>
       </c>
       <c r="E18" t="n">
-        <v>5.397156715393066</v>
+        <v>4.441716194152832</v>
       </c>
       <c r="F18" t="n">
-        <v>-7.18570613861084</v>
+        <v>-6.591019153594971</v>
       </c>
       <c r="G18" t="n">
-        <v>-9.411653518676758</v>
+        <v>-9.341836929321289</v>
       </c>
       <c r="H18" t="n">
-        <v>4.838180541992188</v>
+        <v>5.157776355743408</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3521264493465424</v>
+        <v>0.3470532298088074</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3509260714054108</v>
+        <v>0.3508919179439545</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.144366264343262</v>
+        <v>-7.720591068267822</v>
       </c>
       <c r="D19" t="n">
-        <v>-10.11765956878662</v>
+        <v>-10.21212387084961</v>
       </c>
       <c r="E19" t="n">
-        <v>6.203707695007324</v>
+        <v>5.249733448028564</v>
       </c>
       <c r="F19" t="n">
-        <v>-7.918830394744873</v>
+        <v>-7.806211948394775</v>
       </c>
       <c r="G19" t="n">
-        <v>-10.11873626708984</v>
+        <v>-10.05979633331299</v>
       </c>
       <c r="H19" t="n">
-        <v>5.699583530426025</v>
+        <v>5.851753234863281</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.3715644180774689</v>
+        <v>0.375340461730957</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3771204054355621</v>
+        <v>0.377426415681839</v>
       </c>
       <c r="C20" t="n">
-        <v>-9.118274688720703</v>
+        <v>-9.048554420471191</v>
       </c>
       <c r="D20" t="n">
-        <v>-10.27869510650635</v>
+        <v>-11.11871814727783</v>
       </c>
       <c r="E20" t="n">
-        <v>6.890618801116943</v>
+        <v>5.919985294342041</v>
       </c>
       <c r="F20" t="n">
-        <v>-9.144214630126953</v>
+        <v>-8.963549613952637</v>
       </c>
       <c r="G20" t="n">
-        <v>-10.89091014862061</v>
+        <v>-10.67965316772461</v>
       </c>
       <c r="H20" t="n">
-        <v>6.445650577545166</v>
+        <v>6.361133098602295</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.3977943956851959</v>
+        <v>0.3885405659675598</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3907019197940826</v>
+        <v>0.398687481880188</v>
       </c>
       <c r="C21" t="n">
-        <v>-10.43248176574707</v>
+        <v>-9.668241500854492</v>
       </c>
       <c r="D21" t="n">
-        <v>-10.96992301940918</v>
+        <v>-11.69572925567627</v>
       </c>
       <c r="E21" t="n">
-        <v>7.823203086853027</v>
+        <v>6.834840297698975</v>
       </c>
       <c r="F21" t="n">
-        <v>-9.77956485748291</v>
+        <v>-9.890878677368164</v>
       </c>
       <c r="G21" t="n">
-        <v>-11.28566360473633</v>
+        <v>-11.26133632659912</v>
       </c>
       <c r="H21" t="n">
-        <v>7.179315567016602</v>
+        <v>7.101490020751953</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4248324930667877</v>
+        <v>0.4107710123062134</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4101162254810333</v>
+        <v>0.4185643494129181</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.7871789932251</v>
+        <v>-10.71186256408691</v>
       </c>
       <c r="D22" t="n">
-        <v>-11.44366073608398</v>
+        <v>-12.01049423217773</v>
       </c>
       <c r="E22" t="n">
-        <v>8.702371597290039</v>
+        <v>7.509263038635254</v>
       </c>
       <c r="F22" t="n">
-        <v>-10.68777370452881</v>
+        <v>-10.75783348083496</v>
       </c>
       <c r="G22" t="n">
-        <v>-11.41545486450195</v>
+        <v>-11.63236331939697</v>
       </c>
       <c r="H22" t="n">
-        <v>8.327300071716309</v>
+        <v>7.909316062927246</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4498292505741119</v>
+        <v>0.4429667592048645</v>
       </c>
       <c r="B23" t="n">
-        <v>0.434869110584259</v>
+        <v>0.4400371909141541</v>
       </c>
       <c r="C23" t="n">
-        <v>-13.03959846496582</v>
+        <v>-12.22331428527832</v>
       </c>
       <c r="D23" t="n">
-        <v>-11.66528701782227</v>
+        <v>-12.10414600372314</v>
       </c>
       <c r="E23" t="n">
-        <v>9.78068733215332</v>
+        <v>8.509313583374023</v>
       </c>
       <c r="F23" t="n">
-        <v>-11.84572696685791</v>
+        <v>-11.69440078735352</v>
       </c>
       <c r="G23" t="n">
-        <v>-11.23368644714355</v>
+        <v>-11.602614402771</v>
       </c>
       <c r="H23" t="n">
-        <v>9.249776840209961</v>
+        <v>8.712207794189453</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4613224565982819</v>
+        <v>0.4684711396694183</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4607324004173279</v>
+        <v>0.4600645899772644</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.61544609069824</v>
+        <v>-13.42063331604004</v>
       </c>
       <c r="D24" t="n">
-        <v>-11.31716060638428</v>
+        <v>-11.7427864074707</v>
       </c>
       <c r="E24" t="n">
-        <v>10.50677871704102</v>
+        <v>9.497760772705078</v>
       </c>
       <c r="F24" t="n">
-        <v>-13.05562305450439</v>
+        <v>-12.56792163848877</v>
       </c>
       <c r="G24" t="n">
-        <v>-10.96796131134033</v>
+        <v>-11.30376148223877</v>
       </c>
       <c r="H24" t="n">
-        <v>10.12473392486572</v>
+        <v>9.535971641540527</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4764228761196136</v>
+        <v>0.4929470121860504</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4805237650871277</v>
+        <v>0.4827878475189209</v>
       </c>
       <c r="C25" t="n">
-        <v>-14.3720235824585</v>
+        <v>-14.56966972351074</v>
       </c>
       <c r="D25" t="n">
-        <v>-11.07819080352783</v>
+        <v>-11.39796733856201</v>
       </c>
       <c r="E25" t="n">
-        <v>10.94845294952393</v>
+        <v>10.0350923538208</v>
       </c>
       <c r="F25" t="n">
-        <v>-13.98147010803223</v>
+        <v>-13.55902576446533</v>
       </c>
       <c r="G25" t="n">
-        <v>-10.42678928375244</v>
+        <v>-11.00224685668945</v>
       </c>
       <c r="H25" t="n">
-        <v>10.54619693756104</v>
+        <v>9.799697875976562</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.5024160146713257</v>
+        <v>0.5074989199638367</v>
       </c>
       <c r="B26" t="n">
-        <v>0.492712140083313</v>
+        <v>0.497650682926178</v>
       </c>
       <c r="C26" t="n">
-        <v>-15.67436790466309</v>
+        <v>-15.25282001495361</v>
       </c>
       <c r="D26" t="n">
-        <v>-10.35477542877197</v>
+        <v>-10.85422992706299</v>
       </c>
       <c r="E26" t="n">
-        <v>10.97910976409912</v>
+        <v>10.31155300140381</v>
       </c>
       <c r="F26" t="n">
-        <v>-14.55164909362793</v>
+        <v>-14.20728874206543</v>
       </c>
       <c r="G26" t="n">
-        <v>-9.797550201416016</v>
+        <v>-9.907208442687988</v>
       </c>
       <c r="H26" t="n">
-        <v>11.11991882324219</v>
+        <v>10.17645931243896</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5151104331016541</v>
+        <v>0.5257986187934875</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5099438428878784</v>
+        <v>0.5117778778076172</v>
       </c>
       <c r="C27" t="n">
-        <v>-16.31040000915527</v>
+        <v>-16.11191177368164</v>
       </c>
       <c r="D27" t="n">
-        <v>-9.415219306945801</v>
+        <v>-9.519522666931152</v>
       </c>
       <c r="E27" t="n">
-        <v>10.04311561584473</v>
+        <v>9.430885314941406</v>
       </c>
       <c r="F27" t="n">
-        <v>-15.35775756835938</v>
+        <v>-14.82346630096436</v>
       </c>
       <c r="G27" t="n">
-        <v>-8.786845207214355</v>
+        <v>-8.638006210327148</v>
       </c>
       <c r="H27" t="n">
-        <v>10.51076984405518</v>
+        <v>9.611629486083984</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.5277465581893921</v>
+        <v>0.5299999713897705</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5222325921058655</v>
+        <v>0.5299999713897705</v>
       </c>
       <c r="C28" t="n">
-        <v>-16.94351005554199</v>
+        <v>-16.30914688110352</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.139212608337402</v>
+        <v>-7.897039413452148</v>
       </c>
       <c r="E28" t="n">
-        <v>8.04604434967041</v>
+        <v>7.138242721557617</v>
       </c>
       <c r="F28" t="n">
-        <v>-15.93262958526611</v>
+        <v>-15.61824703216553</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.554083347320557</v>
+        <v>-6.936316013336182</v>
       </c>
       <c r="H28" t="n">
-        <v>8.225884437561035</v>
+        <v>7.387566566467285</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.5299999713897705</v>
+        <v>0.5233431458473206</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5299999713897705</v>
+        <v>0.5285093188285828</v>
       </c>
       <c r="C29" t="n">
-        <v>-17.0564136505127</v>
+        <v>-15.99663639068604</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.329222202301025</v>
+        <v>-5.414275169372559</v>
       </c>
       <c r="E29" t="n">
-        <v>4.703318119049072</v>
+        <v>3.410062551498413</v>
       </c>
       <c r="F29" t="n">
-        <v>-16.29599380493164</v>
+        <v>-15.55323028564453</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.470011711120605</v>
+        <v>-4.47971773147583</v>
       </c>
       <c r="H29" t="n">
-        <v>5.174403190612793</v>
+        <v>3.505473375320435</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.5145514011383057</v>
+        <v>0.5028777122497559</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5124073624610901</v>
+        <v>0.5034164190292358</v>
       </c>
       <c r="C30" t="n">
-        <v>-16.28239059448242</v>
+        <v>-15.03587245941162</v>
       </c>
       <c r="D30" t="n">
-        <v>-3.672651290893555</v>
+        <v>-2.520893573760986</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.4380225241184235</v>
+        <v>-1.673664689064026</v>
       </c>
       <c r="F30" t="n">
-        <v>-15.47300052642822</v>
+        <v>-14.45877075195312</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.96608567237854</v>
+        <v>-1.349132180213928</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.5773277282714844</v>
+        <v>-2.180299520492554</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4910402595996857</v>
+        <v>0.4829756319522858</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4913730323314667</v>
+        <v>0.4715524315834045</v>
       </c>
       <c r="C31" t="n">
-        <v>-15.10440444946289</v>
+        <v>-14.1015567779541</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2923064827919006</v>
+        <v>1.210758686065674</v>
       </c>
       <c r="E31" t="n">
-        <v>-6.2784423828125</v>
+        <v>-7.456756114959717</v>
       </c>
       <c r="F31" t="n">
-        <v>-14.48900604248047</v>
+        <v>-13.06898021697998</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3333115875720978</v>
+        <v>2.50811767578125</v>
       </c>
       <c r="H31" t="n">
-        <v>-7.66596508026123</v>
+        <v>-8.549068450927734</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4552950859069824</v>
+        <v>0.4390746057033539</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4615866243839264</v>
+        <v>0.4326822757720947</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.31345272064209</v>
+        <v>-12.04059410095215</v>
       </c>
       <c r="D32" t="n">
-        <v>3.72983717918396</v>
+        <v>5.377999782562256</v>
       </c>
       <c r="E32" t="n">
-        <v>-12.1145658493042</v>
+        <v>-12.69193744659424</v>
       </c>
       <c r="F32" t="n">
-        <v>-13.09558391571045</v>
+        <v>-11.37360572814941</v>
       </c>
       <c r="G32" t="n">
-        <v>4.409002780914307</v>
+        <v>6.768969535827637</v>
       </c>
       <c r="H32" t="n">
-        <v>-12.73542881011963</v>
+        <v>-13.31330680847168</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.4058185219764709</v>
+        <v>0.3858873546123505</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4111446440219879</v>
+        <v>0.3852424621582031</v>
       </c>
       <c r="C33" t="n">
-        <v>-10.83451652526855</v>
+        <v>-9.543684959411621</v>
       </c>
       <c r="D33" t="n">
-        <v>8.783403396606445</v>
+        <v>9.97746753692627</v>
       </c>
       <c r="E33" t="n">
-        <v>-16.27742004394531</v>
+        <v>-16.20185852050781</v>
       </c>
       <c r="F33" t="n">
-        <v>-10.73588562011719</v>
+        <v>-9.304455757141113</v>
       </c>
       <c r="G33" t="n">
-        <v>9.484992027282715</v>
+        <v>11.12373924255371</v>
       </c>
       <c r="H33" t="n">
-        <v>-15.8521785736084</v>
+        <v>-16.08794593811035</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.3452010154724121</v>
+        <v>0.3297756016254425</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6100801902793478</v>
+        <v>0.620072449985154</v>
       </c>
       <c r="C34" t="n">
-        <v>-7.797379970550537</v>
+        <v>-6.909481048583984</v>
       </c>
       <c r="D34" t="n">
-        <v>13.7136344909668</v>
+        <v>14.33108901977539</v>
       </c>
       <c r="E34" t="n">
-        <v>-18.37272834777832</v>
+        <v>-16.7791748046875</v>
       </c>
       <c r="F34" t="n">
-        <v>-7.919846057891846</v>
+        <v>-6.787963390350342</v>
       </c>
       <c r="G34" t="n">
-        <v>14.10184860229492</v>
+        <v>15.18485546112061</v>
       </c>
       <c r="H34" t="n">
-        <v>-16.62444496154785</v>
+        <v>-15.93063926696777</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.6563544502675192</v>
+        <v>0.6621431504483978</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7903897267082025</v>
+        <v>0.8141469927693754</v>
       </c>
       <c r="C35" t="n">
-        <v>-4.437888622283936</v>
+        <v>-3.970439910888672</v>
       </c>
       <c r="D35" t="n">
-        <v>18.57812118530273</v>
+        <v>18.09420394897461</v>
       </c>
       <c r="E35" t="n">
-        <v>-17.42734336853027</v>
+        <v>-15.06631660461426</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.830732822418213</v>
+        <v>-3.809802055358887</v>
       </c>
       <c r="G35" t="n">
-        <v>18.39678001403809</v>
+        <v>18.99435806274414</v>
       </c>
       <c r="H35" t="n">
-        <v>-14.43742561340332</v>
+        <v>-13.93052864074707</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8634275215008456</v>
+        <v>0.8714045479316933</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9169478841636243</v>
+        <v>0.9316261169993222</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.055127859115601</v>
+        <v>-0.8982594013214111</v>
       </c>
       <c r="D36" t="n">
-        <v>22.74057388305664</v>
+        <v>21.75081253051758</v>
       </c>
       <c r="E36" t="n">
-        <v>-13.80383014678955</v>
+        <v>-12.12395286560059</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.32612133026123</v>
+        <v>-1.006033062934875</v>
       </c>
       <c r="G36" t="n">
-        <v>24.1539421081543</v>
+        <v>21.89783477783203</v>
       </c>
       <c r="H36" t="n">
-        <v>-11.39568042755127</v>
+        <v>-10.54920291900635</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9617100559070103</v>
+        <v>0.9646601393328982</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9764254277035355</v>
+        <v>0.9828218628637022</v>
       </c>
       <c r="C37" t="n">
-        <v>2.053341865539551</v>
+        <v>1.734342575073242</v>
       </c>
       <c r="D37" t="n">
-        <v>24.81100463867188</v>
+        <v>23.705078125</v>
       </c>
       <c r="E37" t="n">
-        <v>-9.821412086486816</v>
+        <v>-8.58260440826416</v>
       </c>
       <c r="F37" t="n">
-        <v>1.459912061691284</v>
+        <v>1.690616130828857</v>
       </c>
       <c r="G37" t="n">
-        <v>24.84238243103027</v>
+        <v>23.49441909790039</v>
       </c>
       <c r="H37" t="n">
-        <v>-7.420466899871826</v>
+        <v>-6.87520170211792</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9932741941730292</v>
+        <v>0.9937924492897486</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9954817206387758</v>
+        <v>0.9976087028966568</v>
       </c>
       <c r="C38" t="n">
-        <v>4.833859443664551</v>
+        <v>4.20159387588501</v>
       </c>
       <c r="D38" t="n">
-        <v>25.7573070526123</v>
+        <v>24.14481735229492</v>
       </c>
       <c r="E38" t="n">
-        <v>-5.724377632141113</v>
+        <v>-5.199169158935547</v>
       </c>
       <c r="F38" t="n">
-        <v>3.745731830596924</v>
+        <v>4.280430793762207</v>
       </c>
       <c r="G38" t="n">
-        <v>25.74201965332031</v>
+        <v>23.79098510742188</v>
       </c>
       <c r="H38" t="n">
-        <v>-4.095933437347412</v>
+        <v>-3.573977947235107</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9994101000911394</v>
+        <v>0.9994511361555696</v>
       </c>
       <c r="B39" t="n">
-        <v>0.999552985925774</v>
+        <v>0.9998919295295219</v>
       </c>
       <c r="C39" t="n">
-        <v>7.169286727905273</v>
+        <v>6.372085094451904</v>
       </c>
       <c r="D39" t="n">
-        <v>25.45415306091309</v>
+        <v>23.81054878234863</v>
       </c>
       <c r="E39" t="n">
-        <v>-2.07605504989624</v>
+        <v>-2.141520261764526</v>
       </c>
       <c r="F39" t="n">
-        <v>6.044709205627441</v>
+        <v>6.453687191009521</v>
       </c>
       <c r="G39" t="n">
-        <v>25.13247489929199</v>
+        <v>22.93790817260742</v>
       </c>
       <c r="H39" t="n">
-        <v>-1.379419922828674</v>
+        <v>-0.8498822450637817</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9999900411511947</v>
+        <v>0.9999847605211015</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9999891392100174</v>
+        <v>1.000002469855927</v>
       </c>
       <c r="C40" t="n">
-        <v>9.050017356872559</v>
+        <v>7.881210327148438</v>
       </c>
       <c r="D40" t="n">
-        <v>23.38498306274414</v>
+        <v>21.90251159667969</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6862842440605164</v>
+        <v>0.2221406400203705</v>
       </c>
       <c r="F40" t="n">
-        <v>7.895264625549316</v>
+        <v>8.026714324951172</v>
       </c>
       <c r="G40" t="n">
-        <v>21.49140357971191</v>
+        <v>21.07425880432129</v>
       </c>
       <c r="H40" t="n">
-        <v>1.111897706985474</v>
+        <v>1.21918261051178</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.000000319273276</v>
+        <v>1.000000399563842</v>
       </c>
       <c r="B41" t="n">
-        <v>0.999999932114496</v>
+        <v>0.9999998315607437</v>
       </c>
       <c r="C41" t="n">
-        <v>10.34964656829834</v>
+        <v>9.224409103393555</v>
       </c>
       <c r="D41" t="n">
-        <v>21.50604629516602</v>
+        <v>19.04966735839844</v>
       </c>
       <c r="E41" t="n">
-        <v>2.567761421203613</v>
+        <v>1.955907225608826</v>
       </c>
       <c r="F41" t="n">
-        <v>8.342685699462891</v>
+        <v>9.074913024902344</v>
       </c>
       <c r="G41" t="n">
-        <v>18.39369773864746</v>
+        <v>18.1270866394043</v>
       </c>
       <c r="H41" t="n">
-        <v>2.199570417404175</v>
+        <v>2.66318416595459</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9999999819740302</v>
+        <v>0.9999999829351396</v>
       </c>
       <c r="B42" t="n">
-        <v>1.00000000111143</v>
+        <v>1.000000017922148</v>
       </c>
       <c r="C42" t="n">
-        <v>10.99758529663086</v>
+        <v>9.634693145751953</v>
       </c>
       <c r="D42" t="n">
-        <v>16.08678245544434</v>
+        <v>15.58259677886963</v>
       </c>
       <c r="E42" t="n">
-        <v>3.6606605052948</v>
+        <v>3.351925373077393</v>
       </c>
       <c r="F42" t="n">
-        <v>8.903583526611328</v>
+        <v>9.958044052124023</v>
       </c>
       <c r="G42" t="n">
-        <v>14.47920417785645</v>
+        <v>14.06686592102051</v>
       </c>
       <c r="H42" t="n">
-        <v>3.177900552749634</v>
+        <v>3.631639719009399</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.000000001304356</v>
+        <v>1.000000001113201</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9999999999452751</v>
+        <v>0.9999999981858053</v>
       </c>
       <c r="C43" t="n">
-        <v>11.41981792449951</v>
+        <v>10.19513702392578</v>
       </c>
       <c r="D43" t="n">
-        <v>11.83554649353027</v>
+        <v>10.87835025787354</v>
       </c>
       <c r="E43" t="n">
-        <v>4.180098056793213</v>
+        <v>3.846357345581055</v>
       </c>
       <c r="F43" t="n">
-        <v>9.718456268310547</v>
+        <v>9.838418960571289</v>
       </c>
       <c r="G43" t="n">
-        <v>9.062185287475586</v>
+        <v>9.624636650085449</v>
       </c>
       <c r="H43" t="n">
-        <v>3.261294603347778</v>
+        <v>3.805459022521973</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9999999998965321</v>
+        <v>0.9999999999312089</v>
       </c>
       <c r="B44" t="n">
-        <v>1.000000000001499</v>
+        <v>1.000000000193255</v>
       </c>
       <c r="C44" t="n">
-        <v>11.60477352142334</v>
+        <v>10.10960102081299</v>
       </c>
       <c r="D44" t="n">
-        <v>6.569417476654053</v>
+        <v>6.132364749908447</v>
       </c>
       <c r="E44" t="n">
-        <v>3.863374948501587</v>
+        <v>3.993413209915161</v>
       </c>
       <c r="F44" t="n">
-        <v>9.176599502563477</v>
+        <v>9.960877418518066</v>
       </c>
       <c r="G44" t="n">
-        <v>4.124819755554199</v>
+        <v>4.757263660430908</v>
       </c>
       <c r="H44" t="n">
-        <v>2.802775382995605</v>
+        <v>3.664854288101196</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.000000000007852</v>
+        <v>1.000000000004107</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9999999999999565</v>
+        <v>0.99999999998194</v>
       </c>
       <c r="C45" t="n">
-        <v>11.51355648040771</v>
+        <v>10.05753707885742</v>
       </c>
       <c r="D45" t="n">
-        <v>1.144092798233032</v>
+        <v>0.9196810722351074</v>
       </c>
       <c r="E45" t="n">
-        <v>2.805648565292358</v>
+        <v>3.373156785964966</v>
       </c>
       <c r="F45" t="n">
-        <v>9.21791934967041</v>
+        <v>9.658696174621582</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.172632217407227</v>
+        <v>-0.3126772344112396</v>
       </c>
       <c r="H45" t="n">
-        <v>2.035981893539429</v>
+        <v>2.943789482116699</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9999999999994178</v>
+        <v>0.999999999999834</v>
       </c>
       <c r="B46" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000001249</v>
       </c>
       <c r="C46" t="n">
-        <v>11.46740531921387</v>
+        <v>9.577226638793945</v>
       </c>
       <c r="D46" t="n">
-        <v>-3.716163873672485</v>
+        <v>-3.829223155975342</v>
       </c>
       <c r="E46" t="n">
-        <v>1.633745431900024</v>
+        <v>2.763650178909302</v>
       </c>
       <c r="F46" t="n">
-        <v>8.828837394714355</v>
+        <v>9.097073554992676</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.330398082733154</v>
+        <v>-4.847123622894287</v>
       </c>
       <c r="H46" t="n">
-        <v>1.08341658115387</v>
+        <v>2.12962818145752</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.000000000000044</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0.9999999999999527</v>
       </c>
       <c r="C47" t="n">
-        <v>11.48718166351318</v>
+        <v>9.44840145111084</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.896698951721191</v>
+        <v>-7.739203929901123</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4069052040576935</v>
+        <v>2.119173765182495</v>
       </c>
       <c r="F47" t="n">
-        <v>8.362709999084473</v>
+        <v>8.372951507568359</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.949952125549316</v>
+        <v>-8.561184883117676</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4586576819419861</v>
+        <v>1.693754434585571</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9999999999999967</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>11.56182861328125</v>
+        <v>9.42139720916748</v>
       </c>
       <c r="D48" t="n">
-        <v>-10.63952541351318</v>
+        <v>-10.46474552154541</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.3659741580486298</v>
+        <v>1.359959244728088</v>
       </c>
       <c r="F48" t="n">
-        <v>8.12803840637207</v>
+        <v>8.006034851074219</v>
       </c>
       <c r="G48" t="n">
-        <v>-11.46673393249512</v>
+        <v>-11.08689785003662</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1893650740385056</v>
+        <v>1.432207822799683</v>
       </c>
     </row>
     <row r="49">
@@ -1705,22 +1705,22 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>11.48661041259766</v>
+        <v>9.213932037353516</v>
       </c>
       <c r="D49" t="n">
-        <v>-12.35976982116699</v>
+        <v>-11.95798492431641</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.458416700363159</v>
+        <v>0.6080211997032166</v>
       </c>
       <c r="F49" t="n">
-        <v>7.509262084960938</v>
+        <v>7.433582305908203</v>
       </c>
       <c r="G49" t="n">
-        <v>-12.50716304779053</v>
+        <v>-12.26488399505615</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.4976125955581665</v>
+        <v>0.9457695484161377</v>
       </c>
     </row>
     <row r="50">
@@ -1731,22 +1731,22 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>11.69865989685059</v>
+        <v>9.098282814025879</v>
       </c>
       <c r="D50" t="n">
-        <v>-12.52019882202148</v>
+        <v>-12.60151386260986</v>
       </c>
       <c r="E50" t="n">
-        <v>-2.747365474700928</v>
+        <v>-0.4911860525608063</v>
       </c>
       <c r="F50" t="n">
-        <v>6.99810791015625</v>
+        <v>7.256793975830078</v>
       </c>
       <c r="G50" t="n">
-        <v>-13.07940483093262</v>
+        <v>-12.12385749816895</v>
       </c>
       <c r="H50" t="n">
-        <v>-1.320950388908386</v>
+        <v>0.1824875921010971</v>
       </c>
     </row>
     <row r="51">
@@ -1757,22 +1757,22 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>10.72824859619141</v>
+        <v>8.805669784545898</v>
       </c>
       <c r="D51" t="n">
-        <v>-12.22888851165771</v>
+        <v>-11.58423805236816</v>
       </c>
       <c r="E51" t="n">
-        <v>-3.271193027496338</v>
+        <v>-1.295988917350769</v>
       </c>
       <c r="F51" t="n">
-        <v>7.430934906005859</v>
+        <v>7.25361442565918</v>
       </c>
       <c r="G51" t="n">
-        <v>-12.47057342529297</v>
+        <v>-11.40914535522461</v>
       </c>
       <c r="H51" t="n">
-        <v>-1.847351789474487</v>
+        <v>-0.9107251167297363</v>
       </c>
     </row>
     <row r="52">
@@ -1783,1218 +1783,1218 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>9.056585311889648</v>
+        <v>8.187589645385742</v>
       </c>
       <c r="D52" t="n">
-        <v>-11.12163734436035</v>
+        <v>-10.48991012573242</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.112370729446411</v>
+        <v>-2.509000062942505</v>
       </c>
       <c r="F52" t="n">
-        <v>8.180850028991699</v>
+        <v>7.26502513885498</v>
       </c>
       <c r="G52" t="n">
-        <v>-10.70496273040771</v>
+        <v>-10.5251407623291</v>
       </c>
       <c r="H52" t="n">
-        <v>-2.200355529785156</v>
+        <v>-2.029326438903809</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.01088217832148075</v>
+        <v>0.008609521202743053</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01071537379175425</v>
+        <v>-0.0004636052763089538</v>
       </c>
       <c r="C53" t="n">
-        <v>8.953088760375977</v>
+        <v>8.167869567871094</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.225535869598389</v>
+        <v>-6.899881839752197</v>
       </c>
       <c r="E53" t="n">
-        <v>-4.779511451721191</v>
+        <v>-3.615778923034668</v>
       </c>
       <c r="F53" t="n">
-        <v>7.99638843536377</v>
+        <v>7.518624305725098</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.419376850128174</v>
+        <v>-7.535074234008789</v>
       </c>
       <c r="H53" t="n">
-        <v>-4.62486743927002</v>
+        <v>-3.858285427093506</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.005904228426516056</v>
+        <v>0.004445326048880816</v>
       </c>
       <c r="B54" t="n">
-        <v>0.006187628023326397</v>
+        <v>-0.003938425332307816</v>
       </c>
       <c r="C54" t="n">
-        <v>9.794142723083496</v>
+        <v>8.363360404968262</v>
       </c>
       <c r="D54" t="n">
-        <v>-3.843708992004395</v>
+        <v>-5.676511287689209</v>
       </c>
       <c r="E54" t="n">
-        <v>-5.619478225708008</v>
+        <v>-4.45430326461792</v>
       </c>
       <c r="F54" t="n">
-        <v>8.208198547363281</v>
+        <v>7.670183181762695</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.257462024688721</v>
+        <v>-6.204373836517334</v>
       </c>
       <c r="H54" t="n">
-        <v>-5.549477577209473</v>
+        <v>-4.68320369720459</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.006041350774466991</v>
+        <v>0.01362253352999687</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01324598956853151</v>
+        <v>-0.002245215699076653</v>
       </c>
       <c r="C55" t="n">
-        <v>9.801012992858887</v>
+        <v>7.932530403137207</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.929100751876831</v>
+        <v>-4.034857273101807</v>
       </c>
       <c r="E55" t="n">
-        <v>-5.652854442596436</v>
+        <v>-4.454724311828613</v>
       </c>
       <c r="F55" t="n">
-        <v>7.878005027770996</v>
+        <v>7.596331596374512</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.651514053344727</v>
+        <v>-4.606580257415771</v>
       </c>
       <c r="H55" t="n">
-        <v>-5.798089981079102</v>
+        <v>-5.251265525817871</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.007786193862557411</v>
+        <v>0.02531290054321289</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02563704364001751</v>
+        <v>0.01472528837621212</v>
       </c>
       <c r="C56" t="n">
-        <v>9.108207702636719</v>
+        <v>7.383718490600586</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.4966596364974976</v>
+        <v>-2.912355422973633</v>
       </c>
       <c r="E56" t="n">
-        <v>-4.717775344848633</v>
+        <v>-4.087234020233154</v>
       </c>
       <c r="F56" t="n">
-        <v>7.298345565795898</v>
+        <v>6.856140613555908</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.412652373313904</v>
+        <v>-3.439999580383301</v>
       </c>
       <c r="H56" t="n">
-        <v>-4.951475620269775</v>
+        <v>-4.841485500335693</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.03364358469843864</v>
+        <v>0.04696096479892731</v>
       </c>
       <c r="B57" t="n">
-        <v>0.04092470556497574</v>
+        <v>0.03340841829776764</v>
       </c>
       <c r="C57" t="n">
-        <v>7.812667846679688</v>
+        <v>6.367435932159424</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1025182008743286</v>
+        <v>-2.211364507675171</v>
       </c>
       <c r="E57" t="n">
-        <v>-3.287563800811768</v>
+        <v>-3.18534255027771</v>
       </c>
       <c r="F57" t="n">
-        <v>6.583181381225586</v>
+        <v>6.041251182556152</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.7487351298332214</v>
+        <v>-2.401879787445068</v>
       </c>
       <c r="H57" t="n">
-        <v>-3.681095838546753</v>
+        <v>-3.884982585906982</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.06231456995010376</v>
+        <v>0.07175469398498535</v>
       </c>
       <c r="B58" t="n">
-        <v>0.05850784108042717</v>
+        <v>0.05058162286877632</v>
       </c>
       <c r="C58" t="n">
-        <v>6.376157283782959</v>
+        <v>5.20347785949707</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.222906231880188</v>
+        <v>-1.983508706092834</v>
       </c>
       <c r="E58" t="n">
-        <v>-2.009587049484253</v>
+        <v>-1.969829916954041</v>
       </c>
       <c r="F58" t="n">
-        <v>5.760633945465088</v>
+        <v>5.292219161987305</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.5074580311775208</v>
+        <v>-2.05130934715271</v>
       </c>
       <c r="H58" t="n">
-        <v>-2.371834516525269</v>
+        <v>-2.58233904838562</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.0903719887137413</v>
+        <v>0.09754510968923569</v>
       </c>
       <c r="B59" t="n">
-        <v>0.08280695974826813</v>
+        <v>0.07269404083490372</v>
       </c>
       <c r="C59" t="n">
-        <v>4.970388889312744</v>
+        <v>3.992729902267456</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.7108356356620789</v>
+        <v>-2.276751756668091</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.8808594942092896</v>
+        <v>-0.8726564645767212</v>
       </c>
       <c r="F59" t="n">
-        <v>4.623909473419189</v>
+        <v>4.327756881713867</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.6980689167976379</v>
+        <v>-2.269308567047119</v>
       </c>
       <c r="H59" t="n">
-        <v>-1.18192446231842</v>
+        <v>-1.266224980354309</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1165998131036758</v>
+        <v>0.1256248205900192</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1096535474061966</v>
+        <v>0.1047423407435417</v>
       </c>
       <c r="C60" t="n">
-        <v>3.656288862228394</v>
+        <v>2.67451024055481</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.403716087341309</v>
+        <v>-2.679636478424072</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.1022825986146927</v>
+        <v>-0.07437960803508759</v>
       </c>
       <c r="F60" t="n">
-        <v>3.368013381958008</v>
+        <v>2.929928064346313</v>
       </c>
       <c r="G60" t="n">
-        <v>-1.288718223571777</v>
+        <v>-2.289228200912476</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.09032315015792847</v>
+        <v>-0.2520808577537537</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.143535777926445</v>
+        <v>0.1536452770233154</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1367819905281067</v>
+        <v>0.1281338185071945</v>
       </c>
       <c r="C61" t="n">
-        <v>2.306708812713623</v>
+        <v>1.359071731567383</v>
       </c>
       <c r="D61" t="n">
-        <v>-2.299252510070801</v>
+        <v>-3.576242446899414</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5613711476325989</v>
+        <v>0.4977376163005829</v>
       </c>
       <c r="F61" t="n">
-        <v>2.098932027816772</v>
+        <v>1.909677505493164</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.223841428756714</v>
+        <v>-3.062761068344116</v>
       </c>
       <c r="H61" t="n">
-        <v>0.6889115571975708</v>
+        <v>0.6298550963401794</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.1704336106777191</v>
+        <v>0.1764942854642868</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1617265641689301</v>
+        <v>0.1589485555887222</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9590384364128113</v>
+        <v>0.2864098250865936</v>
       </c>
       <c r="D62" t="n">
-        <v>-3.379171848297119</v>
+        <v>-4.513266563415527</v>
       </c>
       <c r="E62" t="n">
-        <v>1.097473859786987</v>
+        <v>1.075377583503723</v>
       </c>
       <c r="F62" t="n">
-        <v>0.932012677192688</v>
+        <v>0.5656523704528809</v>
       </c>
       <c r="G62" t="n">
-        <v>-2.844907522201538</v>
+        <v>-3.740234375</v>
       </c>
       <c r="H62" t="n">
-        <v>1.271236658096313</v>
+        <v>1.260019183158875</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.1961118578910828</v>
+        <v>0.2020622193813324</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1874242275953293</v>
+        <v>0.181029200553894</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.3275252282619476</v>
+        <v>-0.9138935208320618</v>
       </c>
       <c r="D63" t="n">
-        <v>-4.300429344177246</v>
+        <v>-5.434281349182129</v>
       </c>
       <c r="E63" t="n">
-        <v>1.555482268333435</v>
+        <v>1.579401135444641</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.270136296749115</v>
+        <v>-0.397424191236496</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.921956539154053</v>
+        <v>-4.594600200653076</v>
       </c>
       <c r="H63" t="n">
-        <v>1.805242300033569</v>
+        <v>1.809158563613892</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.2194007933139801</v>
+        <v>0.2261325418949127</v>
       </c>
       <c r="B64" t="n">
-        <v>0.209348127245903</v>
+        <v>0.2068770974874496</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.494377613067627</v>
+        <v>-2.043890476226807</v>
       </c>
       <c r="D64" t="n">
-        <v>-5.230653762817383</v>
+        <v>-6.029993534088135</v>
       </c>
       <c r="E64" t="n">
-        <v>2.030379772186279</v>
+        <v>2.12218189239502</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.29574728012085</v>
+        <v>-1.524814605712891</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.988783359527588</v>
+        <v>-5.468724727630615</v>
       </c>
       <c r="H64" t="n">
-        <v>2.164059638977051</v>
+        <v>2.305140256881714</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.2425535470247269</v>
+        <v>0.2457579374313354</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2331991195678711</v>
+        <v>0.2277034968137741</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.65440559387207</v>
+        <v>-2.965217590332031</v>
       </c>
       <c r="D65" t="n">
-        <v>-6.503040790557861</v>
+        <v>-6.92954158782959</v>
       </c>
       <c r="E65" t="n">
-        <v>2.598983526229858</v>
+        <v>2.646018028259277</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.411507844924927</v>
+        <v>-2.43318510055542</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.865503311157227</v>
+        <v>-5.952807426452637</v>
       </c>
       <c r="H65" t="n">
-        <v>2.719961166381836</v>
+        <v>3.030996322631836</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.2630842328071594</v>
+        <v>0.2652629315853119</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2582126557826996</v>
+        <v>0.2546352744102478</v>
       </c>
       <c r="C66" t="n">
-        <v>-3.683060884475708</v>
+        <v>-3.880892753601074</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.029900074005127</v>
+        <v>-7.525463104248047</v>
       </c>
       <c r="E66" t="n">
-        <v>2.932348012924194</v>
+        <v>3.186488628387451</v>
       </c>
       <c r="F66" t="n">
-        <v>-3.581652164459229</v>
+        <v>-3.607849836349487</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.937744140625</v>
+        <v>-6.680650234222412</v>
       </c>
       <c r="H66" t="n">
-        <v>3.143197774887085</v>
+        <v>3.489705562591553</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.2858254313468933</v>
+        <v>0.2872094810009003</v>
       </c>
       <c r="B67" t="n">
-        <v>0.2821017205715179</v>
+        <v>0.2789165377616882</v>
       </c>
       <c r="C67" t="n">
-        <v>-4.822469711303711</v>
+        <v>-4.911187648773193</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.926677227020264</v>
+        <v>-8.120636940002441</v>
       </c>
       <c r="E67" t="n">
-        <v>3.558067083358765</v>
+        <v>3.684928178787231</v>
       </c>
       <c r="F67" t="n">
-        <v>-4.69919490814209</v>
+        <v>-4.666909694671631</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.69090747833252</v>
+        <v>-7.627186298370361</v>
       </c>
       <c r="H67" t="n">
-        <v>3.771667242050171</v>
+        <v>4.138972759246826</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.30679851770401</v>
+        <v>0.3096038103103638</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3044461011886597</v>
+        <v>0.3029506504535675</v>
       </c>
       <c r="C68" t="n">
-        <v>-5.873289108276367</v>
+        <v>-5.962504386901855</v>
       </c>
       <c r="D68" t="n">
-        <v>-8.776389122009277</v>
+        <v>-8.918068885803223</v>
       </c>
       <c r="E68" t="n">
-        <v>4.129162788391113</v>
+        <v>4.281188488006592</v>
       </c>
       <c r="F68" t="n">
-        <v>-5.744475364685059</v>
+        <v>-5.715188503265381</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.440351486206055</v>
+        <v>-8.448485374450684</v>
       </c>
       <c r="H68" t="n">
-        <v>4.36532735824585</v>
+        <v>4.555901050567627</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.3280415832996368</v>
+        <v>0.3340679407119751</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3290067613124847</v>
+        <v>0.3225608766078949</v>
       </c>
       <c r="C69" t="n">
-        <v>-6.937636375427246</v>
+        <v>-7.110988616943359</v>
       </c>
       <c r="D69" t="n">
-        <v>-9.297569274902344</v>
+        <v>-9.5235595703125</v>
       </c>
       <c r="E69" t="n">
-        <v>4.851490497589111</v>
+        <v>4.793889045715332</v>
       </c>
       <c r="F69" t="n">
-        <v>-6.893435478210449</v>
+        <v>-6.570515632629395</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.274051666259766</v>
+        <v>-9.19828987121582</v>
       </c>
       <c r="H69" t="n">
-        <v>4.892436504364014</v>
+        <v>5.14754056930542</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.3473321795463562</v>
+        <v>0.354163259267807</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3490047454833984</v>
+        <v>0.3510633409023285</v>
       </c>
       <c r="C70" t="n">
-        <v>-7.904159545898438</v>
+        <v>-8.054378509521484</v>
       </c>
       <c r="D70" t="n">
-        <v>-10.10732841491699</v>
+        <v>-10.04816627502441</v>
       </c>
       <c r="E70" t="n">
-        <v>5.631835460662842</v>
+        <v>5.547496795654297</v>
       </c>
       <c r="F70" t="n">
-        <v>-7.828949451446533</v>
+        <v>-7.813687324523926</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.961215972900391</v>
+        <v>-10.04995536804199</v>
       </c>
       <c r="H70" t="n">
-        <v>5.629000186920166</v>
+        <v>5.789770603179932</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.3686976730823517</v>
+        <v>0.3780784904956818</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3710459470748901</v>
+        <v>0.3776301443576813</v>
       </c>
       <c r="C71" t="n">
-        <v>-8.974640846252441</v>
+        <v>-9.177093505859375</v>
       </c>
       <c r="D71" t="n">
-        <v>-10.47457408905029</v>
+        <v>-10.8090705871582</v>
       </c>
       <c r="E71" t="n">
-        <v>6.306686401367188</v>
+        <v>6.076871871948242</v>
       </c>
       <c r="F71" t="n">
-        <v>-8.860047340393066</v>
+        <v>-8.972434997558594</v>
       </c>
       <c r="G71" t="n">
-        <v>-10.57535839080811</v>
+        <v>-10.49111366271973</v>
       </c>
       <c r="H71" t="n">
-        <v>6.252665996551514</v>
+        <v>6.27156925201416</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.390477329492569</v>
+        <v>0.3926888704299927</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3905579149723053</v>
+        <v>0.3970964252948761</v>
       </c>
       <c r="C72" t="n">
-        <v>-10.06587314605713</v>
+        <v>-9.86298656463623</v>
       </c>
       <c r="D72" t="n">
-        <v>-10.9498872756958</v>
+        <v>-11.21854496002197</v>
       </c>
       <c r="E72" t="n">
-        <v>7.17686939239502</v>
+        <v>6.923555850982666</v>
       </c>
       <c r="F72" t="n">
-        <v>-9.772826194763184</v>
+        <v>-9.82148265838623</v>
       </c>
       <c r="G72" t="n">
-        <v>-11.12265014648438</v>
+        <v>-11.19535541534424</v>
       </c>
       <c r="H72" t="n">
-        <v>6.985917568206787</v>
+        <v>7.030481338500977</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.4132997393608093</v>
+        <v>0.4117151200771332</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4101158082485199</v>
+        <v>0.4202077686786652</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.20934867858887</v>
+        <v>-10.75618648529053</v>
       </c>
       <c r="D73" t="n">
-        <v>-11.45311737060547</v>
+        <v>-11.54095077514648</v>
       </c>
       <c r="E73" t="n">
-        <v>8.018673896789551</v>
+        <v>7.417667388916016</v>
       </c>
       <c r="F73" t="n">
-        <v>-10.68775463104248</v>
+        <v>-10.82951354980469</v>
       </c>
       <c r="G73" t="n">
-        <v>-11.10530376434326</v>
+        <v>-11.51462554931641</v>
       </c>
       <c r="H73" t="n">
-        <v>7.82555627822876</v>
+        <v>7.703423500061035</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.4356846213340759</v>
+        <v>0.4416021704673767</v>
       </c>
       <c r="B74" t="n">
-        <v>0.432687371969223</v>
+        <v>0.4369017779827118</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.33090591430664</v>
+        <v>-12.15925312042236</v>
       </c>
       <c r="D74" t="n">
-        <v>-11.60212993621826</v>
+        <v>-11.27854633331299</v>
       </c>
       <c r="E74" t="n">
-        <v>8.951377868652344</v>
+        <v>8.164276123046875</v>
       </c>
       <c r="F74" t="n">
-        <v>-11.74366283416748</v>
+        <v>-11.55764484405518</v>
       </c>
       <c r="G74" t="n">
-        <v>-11.12819004058838</v>
+        <v>-11.53813362121582</v>
       </c>
       <c r="H74" t="n">
-        <v>8.577696800231934</v>
+        <v>8.459513664245605</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.4518973231315613</v>
+        <v>0.4598528742790222</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4439600110054016</v>
+        <v>0.4586324393749237</v>
       </c>
       <c r="C75" t="n">
-        <v>-13.14321613311768</v>
+        <v>-13.01604557037354</v>
       </c>
       <c r="D75" t="n">
-        <v>-11.47001647949219</v>
+        <v>-11.14871025085449</v>
       </c>
       <c r="E75" t="n">
-        <v>9.732056617736816</v>
+        <v>8.718509674072266</v>
       </c>
       <c r="F75" t="n">
-        <v>-12.2710018157959</v>
+        <v>-12.50545692443848</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.8153018951416</v>
+        <v>-11.26397037506104</v>
       </c>
       <c r="H75" t="n">
-        <v>9.348721504211426</v>
+        <v>9.070258140563965</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.4667418003082275</v>
+        <v>0.4848711490631104</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4735974073410034</v>
+        <v>0.4810874462127686</v>
       </c>
       <c r="C76" t="n">
-        <v>-13.88697242736816</v>
+        <v>-14.19054317474365</v>
       </c>
       <c r="D76" t="n">
-        <v>-10.98795509338379</v>
+        <v>-10.48124885559082</v>
       </c>
       <c r="E76" t="n">
-        <v>10.32822704315186</v>
+        <v>9.015294075012207</v>
       </c>
       <c r="F76" t="n">
-        <v>-13.65745544433594</v>
+        <v>-13.48486042022705</v>
       </c>
       <c r="G76" t="n">
-        <v>-10.31916046142578</v>
+        <v>-10.66457271575928</v>
       </c>
       <c r="H76" t="n">
-        <v>9.840558052062988</v>
+        <v>9.300577163696289</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.4924798905849457</v>
+        <v>0.4987742304801941</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4850140810012817</v>
+        <v>0.4936874508857727</v>
       </c>
       <c r="C77" t="n">
-        <v>-15.17653465270996</v>
+        <v>-14.84323215484619</v>
       </c>
       <c r="D77" t="n">
-        <v>-10.31430244445801</v>
+        <v>-10.06039810180664</v>
       </c>
       <c r="E77" t="n">
-        <v>10.18437099456787</v>
+        <v>8.780547142028809</v>
       </c>
       <c r="F77" t="n">
-        <v>-14.19153022766113</v>
+        <v>-14.03442764282227</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.650596618652344</v>
+        <v>-9.871987342834473</v>
       </c>
       <c r="H77" t="n">
-        <v>10.1307954788208</v>
+        <v>9.644302368164062</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.5026409029960632</v>
+        <v>0.5129568576812744</v>
       </c>
       <c r="B78" t="n">
-        <v>0.497942715883255</v>
+        <v>0.5061480402946472</v>
       </c>
       <c r="C78" t="n">
-        <v>-15.68563652038574</v>
+        <v>-15.50904750823975</v>
       </c>
       <c r="D78" t="n">
-        <v>-9.277006149291992</v>
+        <v>-8.539286613464355</v>
       </c>
       <c r="E78" t="n">
-        <v>9.336422920227051</v>
+        <v>7.739861965179443</v>
       </c>
       <c r="F78" t="n">
-        <v>-14.79634094238281</v>
+        <v>-14.57791233062744</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.485095977783203</v>
+        <v>-8.416652679443359</v>
       </c>
       <c r="H78" t="n">
-        <v>9.322977066040039</v>
+        <v>8.821505546569824</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.5101225972175598</v>
+        <v>0.5121310949325562</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5103893876075745</v>
+        <v>0.5225154757499695</v>
       </c>
       <c r="C79" t="n">
-        <v>-16.06049156188965</v>
+        <v>-15.47027969360352</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.780409812927246</v>
+        <v>-6.597228527069092</v>
       </c>
       <c r="E79" t="n">
-        <v>7.385205745697021</v>
+        <v>5.531155109405518</v>
       </c>
       <c r="F79" t="n">
-        <v>-15.37860012054443</v>
+        <v>-15.29180145263672</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.096146583557129</v>
+        <v>-6.689258098602295</v>
       </c>
       <c r="H79" t="n">
-        <v>6.925768852233887</v>
+        <v>6.786796092987061</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.512066662311554</v>
+        <v>0.5017396807670593</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5087376236915588</v>
+        <v>0.5200403332710266</v>
       </c>
       <c r="C80" t="n">
-        <v>-16.15789604187012</v>
+        <v>-14.98244762420654</v>
       </c>
       <c r="D80" t="n">
-        <v>-5.846349239349365</v>
+        <v>-4.147235870361328</v>
       </c>
       <c r="E80" t="n">
-        <v>3.967805862426758</v>
+        <v>1.896299600601196</v>
       </c>
       <c r="F80" t="n">
-        <v>-15.30133056640625</v>
+        <v>-15.18384265899658</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.824112415313721</v>
+        <v>-4.137887477874756</v>
       </c>
       <c r="H80" t="n">
-        <v>3.46772027015686</v>
+        <v>3.080707311630249</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.4981945157051086</v>
+        <v>0.4767193496227264</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4933000802993774</v>
+        <v>0.4962726235389709</v>
       </c>
       <c r="C81" t="n">
-        <v>-15.46285533905029</v>
+        <v>-13.80785369873047</v>
       </c>
       <c r="D81" t="n">
-        <v>-3.328449726104736</v>
+        <v>-1.068284511566162</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.7386236190795898</v>
+        <v>-2.497795343399048</v>
       </c>
       <c r="F81" t="n">
-        <v>-14.57915306091309</v>
+        <v>-14.14718437194824</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.152478933334351</v>
+        <v>-0.8505027890205383</v>
       </c>
       <c r="H81" t="n">
-        <v>-2.054099082946777</v>
+        <v>-2.290709018707275</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.4724940657615662</v>
+        <v>0.4562278687953949</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4668638706207275</v>
+        <v>0.4639301300048828</v>
       </c>
       <c r="C82" t="n">
-        <v>-14.17517757415771</v>
+        <v>-12.84586715698242</v>
       </c>
       <c r="D82" t="n">
-        <v>0.09136736392974854</v>
+        <v>2.77817440032959</v>
       </c>
       <c r="E82" t="n">
-        <v>-6.194943904876709</v>
+        <v>-7.622582912445068</v>
       </c>
       <c r="F82" t="n">
-        <v>-13.34245491027832</v>
+        <v>-12.73652267456055</v>
       </c>
       <c r="G82" t="n">
-        <v>1.100344300270081</v>
+        <v>3.048095226287842</v>
       </c>
       <c r="H82" t="n">
-        <v>-8.253890037536621</v>
+        <v>-8.260966300964355</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.4356470108032227</v>
+        <v>0.4141619503498077</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4348569214344025</v>
+        <v>0.4257180690765381</v>
       </c>
       <c r="C83" t="n">
-        <v>-12.32902050018311</v>
+        <v>-10.87105464935303</v>
       </c>
       <c r="D83" t="n">
-        <v>3.856375455856323</v>
+        <v>7.001224040985107</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.6685733795166</v>
+        <v>-11.93367385864258</v>
       </c>
       <c r="F83" t="n">
-        <v>-11.84515762329102</v>
+        <v>-11.06985282897949</v>
       </c>
       <c r="G83" t="n">
-        <v>5.11896276473999</v>
+        <v>7.288846015930176</v>
       </c>
       <c r="H83" t="n">
-        <v>-12.83859825134277</v>
+        <v>-12.76092624664307</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.3912684321403503</v>
+        <v>0.3603903949260712</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3884499967098236</v>
+        <v>0.3774036765098572</v>
       </c>
       <c r="C84" t="n">
-        <v>-10.10550880432129</v>
+        <v>-8.346714019775391</v>
       </c>
       <c r="D84" t="n">
-        <v>8.805572509765625</v>
+        <v>11.11917877197266</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.21967315673828</v>
+        <v>-14.67939758300781</v>
       </c>
       <c r="F84" t="n">
-        <v>-9.67421817779541</v>
+        <v>-8.962557792663574</v>
       </c>
       <c r="G84" t="n">
-        <v>9.953840255737305</v>
+        <v>11.42602348327637</v>
       </c>
       <c r="H84" t="n">
-        <v>-15.65602970123291</v>
+        <v>-15.09883594512939</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.3334824442863464</v>
+        <v>0.3084908127784729</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6166173212051271</v>
+        <v>0.6250046195208121</v>
       </c>
       <c r="C85" t="n">
-        <v>-7.210241794586182</v>
+        <v>-5.910253524780273</v>
       </c>
       <c r="D85" t="n">
-        <v>13.36766719818115</v>
+        <v>15.13115215301514</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.90251922607422</v>
+        <v>-14.8496208190918</v>
       </c>
       <c r="F85" t="n">
-        <v>-7.045562267303467</v>
+        <v>-6.424962997436523</v>
       </c>
       <c r="G85" t="n">
-        <v>13.97109222412109</v>
+        <v>15.33131313323975</v>
       </c>
       <c r="H85" t="n">
-        <v>-15.46090793609619</v>
+        <v>-15.12033939361572</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.6561370118214329</v>
+        <v>0.6733772542904954</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8043951620308019</v>
+        <v>0.8191057197142525</v>
       </c>
       <c r="C86" t="n">
-        <v>-4.201528072357178</v>
+        <v>-3.18016529083252</v>
       </c>
       <c r="D86" t="n">
-        <v>17.4402027130127</v>
+        <v>18.8592586517334</v>
       </c>
       <c r="E86" t="n">
-        <v>-15.87918853759766</v>
+        <v>-13.00659275054932</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.152256011962891</v>
+        <v>-3.652853488922119</v>
       </c>
       <c r="G86" t="n">
-        <v>18.04489326477051</v>
+        <v>19.06007766723633</v>
       </c>
       <c r="H86" t="n">
-        <v>-13.28994464874268</v>
+        <v>-13.1049108505249</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.8629840502662263</v>
+        <v>0.8824059043801589</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9253439630551135</v>
+        <v>0.9344047033854327</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.082701563835144</v>
+        <v>-0.3859358131885529</v>
       </c>
       <c r="D87" t="n">
-        <v>21.53231620788574</v>
+        <v>21.70723342895508</v>
       </c>
       <c r="E87" t="n">
-        <v>-12.61569976806641</v>
+        <v>-10.28587913513184</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9652761816978455</v>
+        <v>-0.8840805292129517</v>
       </c>
       <c r="G87" t="n">
-        <v>22.38997840881348</v>
+        <v>21.80535125732422</v>
       </c>
       <c r="H87" t="n">
-        <v>-10.09509468078613</v>
+        <v>-9.761637687683105</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9600806889801234</v>
+        <v>0.9702435080583781</v>
       </c>
       <c r="B88" t="n">
-        <v>0.979702493279434</v>
+        <v>0.9837600497546902</v>
       </c>
       <c r="C88" t="n">
-        <v>1.761654853820801</v>
+        <v>2.276009559631348</v>
       </c>
       <c r="D88" t="n">
-        <v>23.66265487670898</v>
+        <v>22.96648025512695</v>
       </c>
       <c r="E88" t="n">
-        <v>-9.057707786560059</v>
+        <v>-7.073385715484619</v>
       </c>
       <c r="F88" t="n">
-        <v>1.756753206253052</v>
+        <v>1.775230646133423</v>
       </c>
       <c r="G88" t="n">
-        <v>23.27258491516113</v>
+        <v>23.00635147094727</v>
       </c>
       <c r="H88" t="n">
-        <v>-6.382925987243652</v>
+        <v>-6.157810688018799</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9921597359663313</v>
+        <v>0.9950034766321425</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9962936837928028</v>
+        <v>0.9976648722317881</v>
       </c>
       <c r="C89" t="n">
-        <v>4.282897472381592</v>
+        <v>4.394155025482178</v>
       </c>
       <c r="D89" t="n">
-        <v>23.95670318603516</v>
+        <v>23.23612022399902</v>
       </c>
       <c r="E89" t="n">
-        <v>-5.38656759262085</v>
+        <v>-3.873800992965698</v>
       </c>
       <c r="F89" t="n">
-        <v>3.970348358154297</v>
+        <v>4.174481391906738</v>
       </c>
       <c r="G89" t="n">
-        <v>23.6164493560791</v>
+        <v>23.42158889770508</v>
       </c>
       <c r="H89" t="n">
-        <v>-3.339306592941284</v>
+        <v>-3.045137166976929</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9991251253183845</v>
+        <v>0.9995691573592317</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9996237383145339</v>
+        <v>0.9998680265413616</v>
       </c>
       <c r="C90" t="n">
-        <v>6.535147666931152</v>
+        <v>6.426581382751465</v>
       </c>
       <c r="D90" t="n">
-        <v>23.91377639770508</v>
+        <v>22.57576942443848</v>
       </c>
       <c r="E90" t="n">
-        <v>-2.163205146789551</v>
+        <v>-1.139428973197937</v>
       </c>
       <c r="F90" t="n">
-        <v>5.980630874633789</v>
+        <v>6.191929340362549</v>
       </c>
       <c r="G90" t="n">
-        <v>23.15325546264648</v>
+        <v>22.34326171875</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.8209611177444458</v>
+        <v>-0.4459143877029419</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9999590141391778</v>
+        <v>0.9999869297413329</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9999863931717687</v>
+        <v>1.000001847443873</v>
       </c>
       <c r="C91" t="n">
-        <v>8.254293441772461</v>
+        <v>7.817240715026855</v>
       </c>
       <c r="D91" t="n">
-        <v>21.82136726379395</v>
+        <v>20.4802417755127</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3658736944198608</v>
+        <v>1.00115692615509</v>
       </c>
       <c r="F91" t="n">
-        <v>7.601040840148926</v>
+        <v>7.822004318237305</v>
       </c>
       <c r="G91" t="n">
-        <v>20.37514305114746</v>
+        <v>20.57499885559082</v>
       </c>
       <c r="H91" t="n">
-        <v>1.263406157493591</v>
+        <v>1.650850296020508</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9999999183878986</v>
+        <v>1.000000209727216</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9999999022432249</v>
+        <v>0.9999998931098831</v>
       </c>
       <c r="C92" t="n">
-        <v>9.44544506072998</v>
+        <v>8.971296310424805</v>
       </c>
       <c r="D92" t="n">
-        <v>19.82048034667969</v>
+        <v>17.65711402893066</v>
       </c>
       <c r="E92" t="n">
-        <v>2.132761478424072</v>
+        <v>2.489660978317261</v>
       </c>
       <c r="F92" t="n">
-        <v>8.319531440734863</v>
+        <v>8.835895538330078</v>
       </c>
       <c r="G92" t="n">
-        <v>17.16122436523438</v>
+        <v>17.73083305358887</v>
       </c>
       <c r="H92" t="n">
-        <v>2.553801774978638</v>
+        <v>2.834158182144165</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.000000001888652</v>
+        <v>0.9999999936962358</v>
       </c>
       <c r="B93" t="n">
-        <v>1.000000001303039</v>
+        <v>1.000000009917619</v>
       </c>
       <c r="C93" t="n">
-        <v>10.11284637451172</v>
+        <v>9.319902420043945</v>
       </c>
       <c r="D93" t="n">
-        <v>15.48335552215576</v>
+        <v>13.95017051696777</v>
       </c>
       <c r="E93" t="n">
-        <v>3.285839319229126</v>
+        <v>3.558223247528076</v>
       </c>
       <c r="F93" t="n">
-        <v>8.828143119812012</v>
+        <v>9.643242835998535</v>
       </c>
       <c r="G93" t="n">
-        <v>13.46843719482422</v>
+        <v>13.68519496917725</v>
       </c>
       <c r="H93" t="n">
-        <v>3.363158941268921</v>
+        <v>3.751857995986938</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9999999999240973</v>
+        <v>1.000000000331167</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9999999999537782</v>
+        <v>0.9999999990403468</v>
       </c>
       <c r="C94" t="n">
-        <v>10.56552600860596</v>
+        <v>9.879177093505859</v>
       </c>
       <c r="D94" t="n">
-        <v>11.24601173400879</v>
+        <v>9.414249420166016</v>
       </c>
       <c r="E94" t="n">
-        <v>3.849436044692993</v>
+        <v>3.767772436141968</v>
       </c>
       <c r="F94" t="n">
-        <v>9.377147674560547</v>
+        <v>9.735227584838867</v>
       </c>
       <c r="G94" t="n">
-        <v>8.503617286682129</v>
+        <v>9.247241020202637</v>
       </c>
       <c r="H94" t="n">
-        <v>3.418673753738403</v>
+        <v>3.92754077911377</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.000000000003081</v>
+        <v>0.9999999999811037</v>
       </c>
       <c r="B95" t="n">
-        <v>1.0000000000011</v>
+        <v>1.000000000093626</v>
       </c>
       <c r="C95" t="n">
-        <v>10.57627010345459</v>
+        <v>9.991763114929199</v>
       </c>
       <c r="D95" t="n">
-        <v>6.494029521942139</v>
+        <v>4.746490478515625</v>
       </c>
       <c r="E95" t="n">
-        <v>3.715834617614746</v>
+        <v>3.74811053276062</v>
       </c>
       <c r="F95" t="n">
-        <v>9.08796215057373</v>
+        <v>9.75372314453125</v>
       </c>
       <c r="G95" t="n">
-        <v>3.732550144195557</v>
+        <v>4.616137504577637</v>
       </c>
       <c r="H95" t="n">
-        <v>3.026422023773193</v>
+        <v>3.701153755187988</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9999999999998825</v>
+        <v>1.000000000000955</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9999999999999846</v>
+        <v>0.9999999999911358</v>
       </c>
       <c r="C96" t="n">
-        <v>10.51084041595459</v>
+        <v>9.82887077331543</v>
       </c>
       <c r="D96" t="n">
-        <v>1.261039733886719</v>
+        <v>0.02586340717971325</v>
       </c>
       <c r="E96" t="n">
-        <v>2.932297468185425</v>
+        <v>3.009109497070312</v>
       </c>
       <c r="F96" t="n">
-        <v>8.845263481140137</v>
+        <v>9.687005996704102</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.22959291934967</v>
+        <v>-0.1888514906167984</v>
       </c>
       <c r="H96" t="n">
-        <v>2.305059194564819</v>
+        <v>2.954816818237305</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.000000000000004</v>
+        <v>0.999999999999972</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000638</v>
       </c>
       <c r="C97" t="n">
-        <v>10.38362407684326</v>
+        <v>9.300281524658203</v>
       </c>
       <c r="D97" t="n">
-        <v>-3.370313882827759</v>
+        <v>-4.450532913208008</v>
       </c>
       <c r="E97" t="n">
-        <v>1.972697734832764</v>
+        <v>2.363280534744263</v>
       </c>
       <c r="F97" t="n">
-        <v>8.381814956665039</v>
+        <v>9.161266326904297</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.253194332122803</v>
+        <v>-4.685029983520508</v>
       </c>
       <c r="H97" t="n">
-        <v>1.505268335342407</v>
+        <v>2.222557067871094</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0.9999999999999699</v>
       </c>
       <c r="C98" t="n">
-        <v>10.06575202941895</v>
+        <v>9.296442031860352</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.321645736694336</v>
+        <v>-8.139440536499023</v>
       </c>
       <c r="E98" t="n">
-        <v>1.018569231033325</v>
+        <v>1.742469072341919</v>
       </c>
       <c r="F98" t="n">
-        <v>7.962027549743652</v>
+        <v>8.589841842651367</v>
       </c>
       <c r="G98" t="n">
-        <v>-8.681679725646973</v>
+        <v>-8.072269439697266</v>
       </c>
       <c r="H98" t="n">
-        <v>1.015563726425171</v>
+        <v>1.801793932914734</v>
       </c>
     </row>
     <row r="99">
@@ -3002,25 +3002,25 @@
         <v>1</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>10.19643497467041</v>
+        <v>9.173802375793457</v>
       </c>
       <c r="D99" t="n">
-        <v>-10.12244033813477</v>
+        <v>-10.52875328063965</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3527675867080688</v>
+        <v>1.14580774307251</v>
       </c>
       <c r="F99" t="n">
-        <v>7.641582489013672</v>
+        <v>8.354396820068359</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.90052127838135</v>
+        <v>-10.55483341217041</v>
       </c>
       <c r="H99" t="n">
-        <v>0.7223342061042786</v>
+        <v>1.509975433349609</v>
       </c>
     </row>
     <row r="100">
@@ -3031,22 +3031,22 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>10.03563976287842</v>
+        <v>9.056112289428711</v>
       </c>
       <c r="D100" t="n">
-        <v>-11.68952369689941</v>
+        <v>-11.80012321472168</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.6340229511260986</v>
+        <v>0.4826394617557526</v>
       </c>
       <c r="F100" t="n">
-        <v>7.102732181549072</v>
+        <v>7.82388973236084</v>
       </c>
       <c r="G100" t="n">
-        <v>-11.75066757202148</v>
+        <v>-11.89369964599609</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1690120548009872</v>
+        <v>1.155183672904968</v>
       </c>
     </row>
     <row r="101">
@@ -3057,22 +3057,22 @@
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>10.05465507507324</v>
+        <v>8.896004676818848</v>
       </c>
       <c r="D101" t="n">
-        <v>-11.93595409393311</v>
+        <v>-12.34436798095703</v>
       </c>
       <c r="E101" t="n">
-        <v>-1.807688117027283</v>
+        <v>-0.4820385873317719</v>
       </c>
       <c r="F101" t="n">
-        <v>6.744421482086182</v>
+        <v>7.530356407165527</v>
       </c>
       <c r="G101" t="n">
-        <v>-12.04386711120605</v>
+        <v>-11.95684051513672</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.7351505756378174</v>
+        <v>0.3180213570594788</v>
       </c>
     </row>
     <row r="102">
@@ -3083,22 +3083,22 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>9.33263111114502</v>
+        <v>8.540011405944824</v>
       </c>
       <c r="D102" t="n">
-        <v>-11.56656551361084</v>
+        <v>-11.44140434265137</v>
       </c>
       <c r="E102" t="n">
-        <v>-2.529225826263428</v>
+        <v>-1.199317455291748</v>
       </c>
       <c r="F102" t="n">
-        <v>7.045464992523193</v>
+        <v>7.486276626586914</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.29003715515137</v>
+        <v>-11.38877773284912</v>
       </c>
       <c r="H102" t="n">
-        <v>-1.557703971862793</v>
+        <v>-0.84786057472229</v>
       </c>
     </row>
     <row r="103">
@@ -3109,1218 +3109,1218 @@
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>8.483401298522949</v>
+        <v>7.991903305053711</v>
       </c>
       <c r="D103" t="n">
-        <v>-10.47487545013428</v>
+        <v>-10.29647254943848</v>
       </c>
       <c r="E103" t="n">
-        <v>-2.757601022720337</v>
+        <v>-2.550689697265625</v>
       </c>
       <c r="F103" t="n">
-        <v>7.576798439025879</v>
+        <v>7.386664390563965</v>
       </c>
       <c r="G103" t="n">
-        <v>-9.831851005554199</v>
+        <v>-10.46510124206543</v>
       </c>
       <c r="H103" t="n">
-        <v>-2.312649011611938</v>
+        <v>-2.010082960128784</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.02124554105103016</v>
+        <v>0.01180225890129805</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0198889821767807</v>
+        <v>-0.001845609396696091</v>
       </c>
       <c r="C104" t="n">
-        <v>8.433850288391113</v>
+        <v>8.017984390258789</v>
       </c>
       <c r="D104" t="n">
-        <v>-6.316892623901367</v>
+        <v>-7.164803504943848</v>
       </c>
       <c r="E104" t="n">
-        <v>-4.237082004547119</v>
+        <v>-3.55590558052063</v>
       </c>
       <c r="F104" t="n">
-        <v>7.567242622375488</v>
+        <v>7.578902244567871</v>
       </c>
       <c r="G104" t="n">
-        <v>-6.512009143829346</v>
+        <v>-7.65343189239502</v>
       </c>
       <c r="H104" t="n">
-        <v>-4.233944416046143</v>
+        <v>-3.773168563842773</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.008158864453434944</v>
+        <v>0.00882198940962553</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01643868535757065</v>
+        <v>-0.006827567704021931</v>
       </c>
       <c r="C105" t="n">
-        <v>9.089535713195801</v>
+        <v>8.157895088195801</v>
       </c>
       <c r="D105" t="n">
-        <v>-4.286814212799072</v>
+        <v>-5.973134517669678</v>
       </c>
       <c r="E105" t="n">
-        <v>-4.915287971496582</v>
+        <v>-4.436624526977539</v>
       </c>
       <c r="F105" t="n">
-        <v>7.728649139404297</v>
+        <v>7.796196937561035</v>
       </c>
       <c r="G105" t="n">
-        <v>-4.683493614196777</v>
+        <v>-6.498281002044678</v>
       </c>
       <c r="H105" t="n">
-        <v>-5.03994607925415</v>
+        <v>-4.739254951477051</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.008060077205300331</v>
+        <v>0.02082722820341587</v>
       </c>
       <c r="B106" t="n">
-        <v>0.02220216020941734</v>
+        <v>-0.002852037083357573</v>
       </c>
       <c r="C106" t="n">
-        <v>9.094485282897949</v>
+        <v>7.594301223754883</v>
       </c>
       <c r="D106" t="n">
-        <v>-2.553435325622559</v>
+        <v>-4.491241455078125</v>
       </c>
       <c r="E106" t="n">
-        <v>-4.936385154724121</v>
+        <v>-4.402286529541016</v>
       </c>
       <c r="F106" t="n">
-        <v>7.459031105041504</v>
+        <v>7.622798919677734</v>
       </c>
       <c r="G106" t="n">
-        <v>-3.140146493911743</v>
+        <v>-5.087806224822998</v>
       </c>
       <c r="H106" t="n">
-        <v>-5.218971252441406</v>
+        <v>-5.361406803131104</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.02270049415528774</v>
+        <v>0.03122411482036114</v>
       </c>
       <c r="B107" t="n">
-        <v>0.03432570770382881</v>
+        <v>0.01604881510138512</v>
       </c>
       <c r="C107" t="n">
-        <v>8.360952377319336</v>
+        <v>7.106212615966797</v>
       </c>
       <c r="D107" t="n">
-        <v>-1.160677433013916</v>
+        <v>-3.502124309539795</v>
       </c>
       <c r="E107" t="n">
-        <v>-4.169197559356689</v>
+        <v>-4.074439525604248</v>
       </c>
       <c r="F107" t="n">
-        <v>6.891885757446289</v>
+        <v>6.798413276672363</v>
       </c>
       <c r="G107" t="n">
-        <v>-1.866542220115662</v>
+        <v>-3.927801847457886</v>
       </c>
       <c r="H107" t="n">
-        <v>-4.435773849487305</v>
+        <v>-5.051679134368896</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.04617488011717796</v>
+        <v>0.05709382519125938</v>
       </c>
       <c r="B108" t="n">
-        <v>0.04817119240760803</v>
+        <v>0.03504439443349838</v>
       </c>
       <c r="C108" t="n">
-        <v>7.184808731079102</v>
+        <v>5.89174222946167</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.5787804126739502</v>
+        <v>-2.845670223236084</v>
       </c>
       <c r="E108" t="n">
-        <v>-2.948805809020996</v>
+        <v>-3.205467462539673</v>
       </c>
       <c r="F108" t="n">
-        <v>6.244187355041504</v>
+        <v>5.969895839691162</v>
       </c>
       <c r="G108" t="n">
-        <v>-1.091596364974976</v>
+        <v>-3.006280422210693</v>
       </c>
       <c r="H108" t="n">
-        <v>-3.234212636947632</v>
+        <v>-4.147262573242188</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.07290953397750854</v>
+        <v>0.07886651903390884</v>
       </c>
       <c r="B109" t="n">
-        <v>0.06491229683160782</v>
+        <v>0.05374658480286598</v>
       </c>
       <c r="C109" t="n">
-        <v>5.845314979553223</v>
+        <v>4.869608879089355</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.7479902505874634</v>
+        <v>-2.641904830932617</v>
       </c>
       <c r="E109" t="n">
-        <v>-1.761860370635986</v>
+        <v>-2.135542154312134</v>
       </c>
       <c r="F109" t="n">
-        <v>5.46103048324585</v>
+        <v>5.154175281524658</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.8117491602897644</v>
+        <v>-2.607915878295898</v>
       </c>
       <c r="H109" t="n">
-        <v>-1.955366373062134</v>
+        <v>-2.928126335144043</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.09866988658905029</v>
+        <v>0.1055659577250481</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08720418810844421</v>
+        <v>0.07768683135509491</v>
       </c>
       <c r="C110" t="n">
-        <v>4.55463695526123</v>
+        <v>3.616186380386353</v>
       </c>
       <c r="D110" t="n">
-        <v>-1.19580066204071</v>
+        <v>-2.999654293060303</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.7104936242103577</v>
+        <v>-1.112065553665161</v>
       </c>
       <c r="F110" t="n">
-        <v>4.418205261230469</v>
+        <v>4.109989643096924</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.9763194918632507</v>
+        <v>-2.870408058166504</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.8007627725601196</v>
+        <v>-1.616466999053955</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.1235206127166748</v>
+        <v>0.132939875125885</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1131695210933685</v>
+        <v>0.1068694964051247</v>
       </c>
       <c r="C111" t="n">
-        <v>3.309533834457397</v>
+        <v>2.331099271774292</v>
       </c>
       <c r="D111" t="n">
-        <v>-1.792590141296387</v>
+        <v>-3.323615074157715</v>
       </c>
       <c r="E111" t="n">
-        <v>0.02008766308426857</v>
+        <v>-0.3705576956272125</v>
       </c>
       <c r="F111" t="n">
-        <v>3.203534603118896</v>
+        <v>2.837149143218994</v>
       </c>
       <c r="G111" t="n">
-        <v>-1.491431713104248</v>
+        <v>-2.812312126159668</v>
       </c>
       <c r="H111" t="n">
-        <v>0.2187500894069672</v>
+        <v>-0.5158242583274841</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.1485229879617691</v>
+        <v>0.1577001661062241</v>
       </c>
       <c r="B112" t="n">
-        <v>0.138306051492691</v>
+        <v>0.1292537748813629</v>
       </c>
       <c r="C112" t="n">
-        <v>2.056833505630493</v>
+        <v>1.16871166229248</v>
       </c>
       <c r="D112" t="n">
-        <v>-2.611853837966919</v>
+        <v>-4.134070873260498</v>
       </c>
       <c r="E112" t="n">
-        <v>0.6533048748970032</v>
+        <v>0.2968127131462097</v>
       </c>
       <c r="F112" t="n">
-        <v>2.02763557434082</v>
+        <v>1.860828876495361</v>
       </c>
       <c r="G112" t="n">
-        <v>-2.339378595352173</v>
+        <v>-3.476971864700317</v>
       </c>
       <c r="H112" t="n">
-        <v>0.9464243650436401</v>
+        <v>0.3968458771705627</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.174673393368721</v>
+        <v>0.1811744272708893</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1623234003782272</v>
+        <v>0.1592679619789124</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7466118931770325</v>
+        <v>0.06669715046882629</v>
       </c>
       <c r="D113" t="n">
-        <v>-3.600031852722168</v>
+        <v>-5.003800868988037</v>
       </c>
       <c r="E113" t="n">
-        <v>1.159865021705627</v>
+        <v>0.8476359248161316</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9040932655334473</v>
+        <v>0.5517203807830811</v>
       </c>
       <c r="G113" t="n">
-        <v>-2.966151714324951</v>
+        <v>-4.036834716796875</v>
       </c>
       <c r="H113" t="n">
-        <v>1.509834408760071</v>
+        <v>1.066233038902283</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.1988049447536469</v>
+        <v>0.2063788175582886</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1871757507324219</v>
+        <v>0.1823210269212723</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.4624575674533844</v>
+        <v>-1.116538882255554</v>
       </c>
       <c r="D114" t="n">
-        <v>-4.461723327636719</v>
+        <v>-5.725258350372314</v>
       </c>
       <c r="E114" t="n">
-        <v>1.588026881217957</v>
+        <v>1.383584260940552</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.2585124373435974</v>
+        <v>-0.4537689387798309</v>
       </c>
       <c r="G114" t="n">
-        <v>-3.929778814315796</v>
+        <v>-4.78004789352417</v>
       </c>
       <c r="H114" t="n">
-        <v>2.019821166992188</v>
+        <v>1.665096402168274</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.221157893538475</v>
+        <v>0.2293005585670471</v>
       </c>
       <c r="B115" t="n">
-        <v>0.2086362093687057</v>
+        <v>0.2081810832023621</v>
       </c>
       <c r="C115" t="n">
-        <v>-1.58241331577301</v>
+        <v>-2.192615747451782</v>
       </c>
       <c r="D115" t="n">
-        <v>-5.373770713806152</v>
+        <v>-6.401856899261475</v>
       </c>
       <c r="E115" t="n">
-        <v>2.019778251647949</v>
+        <v>1.996986508369446</v>
       </c>
       <c r="F115" t="n">
-        <v>-1.262442111968994</v>
+        <v>-1.581690311431885</v>
       </c>
       <c r="G115" t="n">
-        <v>-4.922628402709961</v>
+        <v>-5.648857116699219</v>
       </c>
       <c r="H115" t="n">
-        <v>2.386511087417603</v>
+        <v>2.205838203430176</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.2429722845554352</v>
+        <v>0.2494225353002548</v>
       </c>
       <c r="B116" t="n">
-        <v>0.2319551706314087</v>
+        <v>0.2282538115978241</v>
       </c>
       <c r="C116" t="n">
-        <v>-2.675386667251587</v>
+        <v>-3.137254476547241</v>
       </c>
       <c r="D116" t="n">
-        <v>-6.478466510772705</v>
+        <v>-7.150656223297119</v>
       </c>
       <c r="E116" t="n">
-        <v>2.506831645965576</v>
+        <v>2.555983304977417</v>
       </c>
       <c r="F116" t="n">
-        <v>-2.353314161300659</v>
+        <v>-2.45718789100647</v>
       </c>
       <c r="G116" t="n">
-        <v>-5.717273235321045</v>
+        <v>-6.023072719573975</v>
       </c>
       <c r="H116" t="n">
-        <v>2.888713836669922</v>
+        <v>2.899583339691162</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.2620513439178467</v>
+        <v>0.2685076296329498</v>
       </c>
       <c r="B117" t="n">
-        <v>0.2547166347503662</v>
+        <v>0.2546652257442474</v>
       </c>
       <c r="C117" t="n">
-        <v>-3.631309270858765</v>
+        <v>-4.033217906951904</v>
       </c>
       <c r="D117" t="n">
-        <v>-7.021494388580322</v>
+        <v>-7.656047821044922</v>
       </c>
       <c r="E117" t="n">
-        <v>2.840535879135132</v>
+        <v>3.1624755859375</v>
       </c>
       <c r="F117" t="n">
-        <v>-3.418107032775879</v>
+        <v>-3.60915732383728</v>
       </c>
       <c r="G117" t="n">
-        <v>-6.710423946380615</v>
+        <v>-6.836814403533936</v>
       </c>
       <c r="H117" t="n">
-        <v>3.309186458587646</v>
+        <v>3.461266756057739</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.2834867835044861</v>
+        <v>0.2917110919952393</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2781015634536743</v>
+        <v>0.2789610028266907</v>
       </c>
       <c r="C118" t="n">
-        <v>-4.705295562744141</v>
+        <v>-5.122518062591553</v>
       </c>
       <c r="D118" t="n">
-        <v>-7.813541412353516</v>
+        <v>-8.252554893493652</v>
       </c>
       <c r="E118" t="n">
-        <v>3.416805267333984</v>
+        <v>3.706183910369873</v>
       </c>
       <c r="F118" t="n">
-        <v>-4.512064933776855</v>
+        <v>-4.668849945068359</v>
       </c>
       <c r="G118" t="n">
-        <v>-7.470870971679688</v>
+        <v>-7.556466579437256</v>
       </c>
       <c r="H118" t="n">
-        <v>3.846941232681274</v>
+        <v>4.148534774780273</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.3018173575401306</v>
+        <v>0.3143267631530762</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3000008761882782</v>
+        <v>0.3029777407646179</v>
       </c>
       <c r="C119" t="n">
-        <v>-5.62371826171875</v>
+        <v>-6.184225559234619</v>
       </c>
       <c r="D119" t="n">
-        <v>-8.666244506835938</v>
+        <v>-8.88414478302002</v>
       </c>
       <c r="E119" t="n">
-        <v>3.93047308921814</v>
+        <v>4.362629890441895</v>
       </c>
       <c r="F119" t="n">
-        <v>-5.536526679992676</v>
+        <v>-5.716372013092041</v>
       </c>
       <c r="G119" t="n">
-        <v>-8.18448543548584</v>
+        <v>-8.344827651977539</v>
       </c>
       <c r="H119" t="n">
-        <v>4.335615158081055</v>
+        <v>4.562605381011963</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.3232674598693848</v>
+        <v>0.3366161286830902</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3225505352020264</v>
+        <v>0.3230847418308258</v>
       </c>
       <c r="C120" t="n">
-        <v>-6.69843578338623</v>
+        <v>-7.230614185333252</v>
       </c>
       <c r="D120" t="n">
-        <v>-9.194643974304199</v>
+        <v>-9.59577751159668</v>
       </c>
       <c r="E120" t="n">
-        <v>4.530135631561279</v>
+        <v>4.866377353668213</v>
       </c>
       <c r="F120" t="n">
-        <v>-6.591409683227539</v>
+        <v>-6.59336519241333</v>
       </c>
       <c r="G120" t="n">
-        <v>-9.014978408813477</v>
+        <v>-9.13076114654541</v>
       </c>
       <c r="H120" t="n">
-        <v>4.753340244293213</v>
+        <v>5.118838310241699</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.3415529727935791</v>
+        <v>0.3577194511890411</v>
       </c>
       <c r="B121" t="n">
-        <v>0.3433851003646851</v>
+        <v>0.3510793447494507</v>
       </c>
       <c r="C121" t="n">
-        <v>-7.614602088928223</v>
+        <v>-8.22132396697998</v>
       </c>
       <c r="D121" t="n">
-        <v>-9.895984649658203</v>
+        <v>-10.08886241912842</v>
       </c>
       <c r="E121" t="n">
-        <v>5.223548412322998</v>
+        <v>5.596174716949463</v>
       </c>
       <c r="F121" t="n">
-        <v>-7.566059589385986</v>
+        <v>-7.81438684463501</v>
       </c>
       <c r="G121" t="n">
-        <v>-9.70884895324707</v>
+        <v>-9.940889358520508</v>
       </c>
       <c r="H121" t="n">
-        <v>5.373167037963867</v>
+        <v>5.778007984161377</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.3620333075523376</v>
+        <v>0.3804958760738373</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3638933002948761</v>
+        <v>0.3748425841331482</v>
       </c>
       <c r="C122" t="n">
-        <v>-8.64073371887207</v>
+        <v>-9.29057788848877</v>
       </c>
       <c r="D122" t="n">
-        <v>-10.2954797744751</v>
+        <v>-10.76635932922363</v>
       </c>
       <c r="E122" t="n">
-        <v>5.846115112304688</v>
+        <v>6.195600509643555</v>
       </c>
       <c r="F122" t="n">
-        <v>-8.525442123413086</v>
+        <v>-8.850852012634277</v>
       </c>
       <c r="G122" t="n">
-        <v>-10.31501579284668</v>
+        <v>-10.44287204742432</v>
       </c>
       <c r="H122" t="n">
-        <v>5.894610404968262</v>
+        <v>6.261615753173828</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.3818344473838806</v>
+        <v>0.3951586186885834</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3844427764415741</v>
+        <v>0.3959988653659821</v>
       </c>
       <c r="C123" t="n">
-        <v>-9.632834434509277</v>
+        <v>-9.978931427001953</v>
       </c>
       <c r="D123" t="n">
-        <v>-10.66683387756348</v>
+        <v>-11.11776638031006</v>
       </c>
       <c r="E123" t="n">
-        <v>6.635890960693359</v>
+        <v>6.953299045562744</v>
       </c>
       <c r="F123" t="n">
-        <v>-9.486758232116699</v>
+        <v>-9.77361011505127</v>
       </c>
       <c r="G123" t="n">
-        <v>-10.82000732421875</v>
+        <v>-11.117919921875</v>
       </c>
       <c r="H123" t="n">
-        <v>6.574965476989746</v>
+        <v>6.942304611206055</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.4022353887557983</v>
+        <v>0.4167618751525879</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4038479030132294</v>
+        <v>0.4204974174499512</v>
       </c>
       <c r="C124" t="n">
-        <v>-10.65498924255371</v>
+        <v>-10.99311065673828</v>
       </c>
       <c r="D124" t="n">
-        <v>-11.17255687713623</v>
+        <v>-11.40774822235107</v>
       </c>
       <c r="E124" t="n">
-        <v>7.384870052337646</v>
+        <v>7.50162935256958</v>
       </c>
       <c r="F124" t="n">
-        <v>-10.39453887939453</v>
+        <v>-10.84214782714844</v>
       </c>
       <c r="G124" t="n">
-        <v>-10.80831432342529</v>
+        <v>-11.447434425354</v>
       </c>
       <c r="H124" t="n">
-        <v>7.271887302398682</v>
+        <v>7.630666732788086</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.4216204285621643</v>
+        <v>0.443503737449646</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4237572550773621</v>
+        <v>0.4369106292724609</v>
       </c>
       <c r="C125" t="n">
-        <v>-11.62624359130859</v>
+        <v>-12.24852466583252</v>
       </c>
       <c r="D125" t="n">
-        <v>-11.28686904907227</v>
+        <v>-11.11964321136475</v>
       </c>
       <c r="E125" t="n">
-        <v>8.231242179870605</v>
+        <v>8.080080986022949</v>
       </c>
       <c r="F125" t="n">
-        <v>-11.32590675354004</v>
+        <v>-11.558030128479</v>
       </c>
       <c r="G125" t="n">
-        <v>-10.82171726226807</v>
+        <v>-11.55805110931396</v>
       </c>
       <c r="H125" t="n">
-        <v>7.894092559814453</v>
+        <v>8.318267822265625</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.439690113067627</v>
+        <v>0.4597448706626892</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4286243319511414</v>
+        <v>0.4600590169429779</v>
       </c>
       <c r="C126" t="n">
-        <v>-12.53159332275391</v>
+        <v>-13.01097393035889</v>
       </c>
       <c r="D126" t="n">
-        <v>-11.18328475952148</v>
+        <v>-11.11976432800293</v>
       </c>
       <c r="E126" t="n">
-        <v>8.913542747497559</v>
+        <v>8.508731842041016</v>
       </c>
       <c r="F126" t="n">
-        <v>-11.55359172821045</v>
+        <v>-12.56767845153809</v>
       </c>
       <c r="G126" t="n">
-        <v>-10.60408878326416</v>
+        <v>-11.2888650894165</v>
       </c>
       <c r="H126" t="n">
-        <v>8.647019386291504</v>
+        <v>8.812436103820801</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.4548645317554474</v>
+        <v>0.4815485179424286</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4620440602302551</v>
+        <v>0.4812854826450348</v>
       </c>
       <c r="C127" t="n">
-        <v>-13.29188251495361</v>
+        <v>-14.03456115722656</v>
       </c>
       <c r="D127" t="n">
-        <v>-10.68969917297363</v>
+        <v>-10.28542995452881</v>
       </c>
       <c r="E127" t="n">
-        <v>9.549288749694824</v>
+        <v>8.657814025878906</v>
       </c>
       <c r="F127" t="n">
-        <v>-13.11698246002197</v>
+        <v>-13.49349975585938</v>
       </c>
       <c r="G127" t="n">
-        <v>-10.09989261627197</v>
+        <v>-10.70730113983154</v>
       </c>
       <c r="H127" t="n">
-        <v>9.089340209960938</v>
+        <v>8.987176895141602</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.4775696694850922</v>
+        <v>0.4950836896896362</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4737411737442017</v>
+        <v>0.4917668104171753</v>
       </c>
       <c r="C128" t="n">
-        <v>-14.42948341369629</v>
+        <v>-14.66997718811035</v>
       </c>
       <c r="D128" t="n">
-        <v>-10.04723167419434</v>
+        <v>-9.753323554992676</v>
       </c>
       <c r="E128" t="n">
-        <v>9.369457244873047</v>
+        <v>8.258723258972168</v>
       </c>
       <c r="F128" t="n">
-        <v>-13.6641788482666</v>
+        <v>-13.95065593719482</v>
       </c>
       <c r="G128" t="n">
-        <v>-9.445769309997559</v>
+        <v>-9.848883628845215</v>
       </c>
       <c r="H128" t="n">
-        <v>9.264304161071777</v>
+        <v>9.240723609924316</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.4873112142086029</v>
+        <v>0.5082216858863831</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4841464459896088</v>
+        <v>0.5076485872268677</v>
       </c>
       <c r="C129" t="n">
-        <v>-14.91756629943848</v>
+        <v>-15.28675079345703</v>
       </c>
       <c r="D129" t="n">
-        <v>-9.002129554748535</v>
+        <v>-8.149541854858398</v>
       </c>
       <c r="E129" t="n">
-        <v>8.643763542175293</v>
+        <v>7.123772621154785</v>
       </c>
       <c r="F129" t="n">
-        <v>-14.1509428024292</v>
+        <v>-14.64336109161377</v>
       </c>
       <c r="G129" t="n">
-        <v>-8.242116928100586</v>
+        <v>-8.519723892211914</v>
       </c>
       <c r="H129" t="n">
-        <v>8.464253425598145</v>
+        <v>8.506601333618164</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.4947009682655334</v>
+        <v>0.5056175589561462</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4956143796443939</v>
+        <v>0.5202495455741882</v>
       </c>
       <c r="C130" t="n">
-        <v>-15.28781986236572</v>
+        <v>-15.16449546813965</v>
       </c>
       <c r="D130" t="n">
-        <v>-7.507876396179199</v>
+        <v>-6.143279552459717</v>
       </c>
       <c r="E130" t="n">
-        <v>6.893045425415039</v>
+        <v>4.877997398376465</v>
       </c>
       <c r="F130" t="n">
-        <v>-14.68741989135742</v>
+        <v>-15.19296932220459</v>
       </c>
       <c r="G130" t="n">
-        <v>-6.768725872039795</v>
+        <v>-6.759372234344482</v>
       </c>
       <c r="H130" t="n">
-        <v>6.188053607940674</v>
+        <v>6.519376277923584</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.496796041727066</v>
+        <v>0.4936346411705017</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4923039078712463</v>
+        <v>0.5153807997703552</v>
       </c>
       <c r="C131" t="n">
-        <v>-15.39278888702393</v>
+        <v>-14.60195255279541</v>
       </c>
       <c r="D131" t="n">
-        <v>-5.555212020874023</v>
+        <v>-3.534496784210205</v>
       </c>
       <c r="E131" t="n">
-        <v>3.723900556564331</v>
+        <v>1.238394975662231</v>
       </c>
       <c r="F131" t="n">
-        <v>-14.53255176544189</v>
+        <v>-14.98061275482178</v>
       </c>
       <c r="G131" t="n">
-        <v>-4.50581693649292</v>
+        <v>-4.077006340026855</v>
       </c>
       <c r="H131" t="n">
-        <v>2.724286079406738</v>
+        <v>3.041887521743774</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.4824543595314026</v>
+        <v>0.4666016697883606</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4763493835926056</v>
+        <v>0.4955160319805145</v>
       </c>
       <c r="C132" t="n">
-        <v>-14.67422294616699</v>
+        <v>-13.33287143707275</v>
       </c>
       <c r="D132" t="n">
-        <v>-3.12156343460083</v>
+        <v>-0.3573808073997498</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.6080635190010071</v>
+        <v>-2.981004476547241</v>
       </c>
       <c r="F132" t="n">
-        <v>-13.78619384765625</v>
+        <v>-14.11418342590332</v>
       </c>
       <c r="G132" t="n">
-        <v>-1.76874566078186</v>
+        <v>-0.8803905844688416</v>
       </c>
       <c r="H132" t="n">
-        <v>-2.513768434524536</v>
+        <v>-2.113417387008667</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.4584322869777679</v>
+        <v>0.4455359578132629</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4506673812866211</v>
+        <v>0.4628149569034576</v>
       </c>
       <c r="C133" t="n">
-        <v>-13.4706392288208</v>
+        <v>-12.34392929077148</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2084996700286865</v>
+        <v>3.588396787643433</v>
       </c>
       <c r="E133" t="n">
-        <v>-5.774670124053955</v>
+        <v>-7.71181583404541</v>
       </c>
       <c r="F133" t="n">
-        <v>-12.58477783203125</v>
+        <v>-12.68788242340088</v>
       </c>
       <c r="G133" t="n">
-        <v>1.431549429893494</v>
+        <v>3.047850608825684</v>
       </c>
       <c r="H133" t="n">
-        <v>-8.236800193786621</v>
+        <v>-7.763204097747803</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.4220057725906372</v>
+        <v>0.403471827507019</v>
       </c>
       <c r="B134" t="n">
-        <v>0.419450968503952</v>
+        <v>0.4231444597244263</v>
       </c>
       <c r="C134" t="n">
-        <v>-11.64554882049561</v>
+        <v>-10.36920166015625</v>
       </c>
       <c r="D134" t="n">
-        <v>3.783527612686157</v>
+        <v>7.811464786529541</v>
       </c>
       <c r="E134" t="n">
-        <v>-10.86778545379639</v>
+        <v>-11.60407161712646</v>
       </c>
       <c r="F134" t="n">
-        <v>-11.12445735931396</v>
+        <v>-10.95760250091553</v>
       </c>
       <c r="G134" t="n">
-        <v>5.2983078956604</v>
+        <v>7.399531364440918</v>
       </c>
       <c r="H134" t="n">
-        <v>-12.45832443237305</v>
+        <v>-12.38850116729736</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.3809107840061188</v>
+        <v>0.3482513725757599</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3754146695137024</v>
+        <v>0.3742471039295197</v>
       </c>
       <c r="C135" t="n">
-        <v>-9.586557388305664</v>
+        <v>-7.776839733123779</v>
       </c>
       <c r="D135" t="n">
-        <v>8.439677238464355</v>
+        <v>11.9872579574585</v>
       </c>
       <c r="E135" t="n">
-        <v>-14.19633102416992</v>
+        <v>-13.95818614959717</v>
       </c>
       <c r="F135" t="n">
-        <v>-9.064419746398926</v>
+        <v>-8.824878692626953</v>
       </c>
       <c r="G135" t="n">
-        <v>9.773196220397949</v>
+        <v>11.73415565490723</v>
       </c>
       <c r="H135" t="n">
-        <v>-15.04922199249268</v>
+        <v>-14.60724353790283</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.3266694843769073</v>
+        <v>0.2980345785617828</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6198153332087453</v>
+        <v>0.623966652785555</v>
       </c>
       <c r="C136" t="n">
-        <v>-6.868890762329102</v>
+        <v>-5.419379711151123</v>
       </c>
       <c r="D136" t="n">
-        <v>12.73701953887939</v>
+        <v>15.94161891937256</v>
       </c>
       <c r="E136" t="n">
-        <v>-15.80704879760742</v>
+        <v>-13.786452293396</v>
       </c>
       <c r="F136" t="n">
-        <v>-6.594220161437988</v>
+        <v>-6.393072128295898</v>
       </c>
       <c r="G136" t="n">
-        <v>13.58054256439209</v>
+        <v>15.62263584136963</v>
       </c>
       <c r="H136" t="n">
-        <v>-14.66851806640625</v>
+        <v>-14.83679580688477</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.6565229815169316</v>
+        <v>0.6842604691634857</v>
       </c>
       <c r="B137" t="n">
-        <v>0.8105549947194197</v>
+        <v>0.8193258818764515</v>
       </c>
       <c r="C137" t="n">
-        <v>-4.047687530517578</v>
+        <v>-2.619352340698242</v>
       </c>
       <c r="D137" t="n">
-        <v>16.51094436645508</v>
+        <v>19.51829528808594</v>
       </c>
       <c r="E137" t="n">
-        <v>-14.82499599456787</v>
+        <v>-12.07883739471436</v>
       </c>
       <c r="F137" t="n">
-        <v>-3.856951236724854</v>
+        <v>-3.608537435531616</v>
       </c>
       <c r="G137" t="n">
-        <v>17.26767539978027</v>
+        <v>19.24722862243652</v>
       </c>
       <c r="H137" t="n">
-        <v>-12.42017936706543</v>
+        <v>-12.87739849090576</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.8625781836955099</v>
+        <v>0.8922358947255249</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9284008100508385</v>
+        <v>0.9346427349224519</v>
       </c>
       <c r="C138" t="n">
-        <v>-1.125969886779785</v>
+        <v>0.07992342114448547</v>
       </c>
       <c r="D138" t="n">
-        <v>20.40857315063477</v>
+        <v>21.9394474029541</v>
       </c>
       <c r="E138" t="n">
-        <v>-11.90142917633057</v>
+        <v>-9.216167449951172</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.8728994727134705</v>
+        <v>-0.8638402819633484</v>
       </c>
       <c r="G138" t="n">
-        <v>21.04019165039062</v>
+        <v>21.97928619384766</v>
       </c>
       <c r="H138" t="n">
-        <v>-9.361241340637207</v>
+        <v>-9.523581504821777</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.9588271753852062</v>
+        <v>0.9742875836400258</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9804619356052838</v>
+        <v>0.9838753851296809</v>
       </c>
       <c r="C139" t="n">
-        <v>1.542281627655029</v>
+        <v>2.635418653488159</v>
       </c>
       <c r="D139" t="n">
-        <v>22.48449897766113</v>
+        <v>22.87445831298828</v>
       </c>
       <c r="E139" t="n">
-        <v>-8.604832649230957</v>
+        <v>-6.136730670928955</v>
       </c>
       <c r="F139" t="n">
-        <v>1.731940031051636</v>
+        <v>1.795180082321167</v>
       </c>
       <c r="G139" t="n">
-        <v>21.94887733459473</v>
+        <v>23.16728210449219</v>
       </c>
       <c r="H139" t="n">
-        <v>-5.884349822998047</v>
+        <v>-5.844088554382324</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.9913544612144329</v>
+        <v>0.9959950911751987</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9963319082165556</v>
+        <v>0.9976089579900523</v>
       </c>
       <c r="C140" t="n">
-        <v>3.922313451766968</v>
+        <v>4.696609497070312</v>
       </c>
       <c r="D140" t="n">
-        <v>22.61904907226562</v>
+        <v>23.17552375793457</v>
       </c>
       <c r="E140" t="n">
-        <v>-5.216630935668945</v>
+        <v>-3.078798532485962</v>
       </c>
       <c r="F140" t="n">
-        <v>3.842878818511963</v>
+        <v>4.07054615020752</v>
       </c>
       <c r="G140" t="n">
-        <v>22.1475658416748</v>
+        <v>23.5398120880127</v>
       </c>
       <c r="H140" t="n">
-        <v>-2.993066072463989</v>
+        <v>-2.757842302322388</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.9988796473661633</v>
+        <v>0.9996785818707956</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9995882865582636</v>
+        <v>0.9998432440074778</v>
       </c>
       <c r="C141" t="n">
-        <v>6.057163238525391</v>
+        <v>6.575182914733887</v>
       </c>
       <c r="D141" t="n">
-        <v>22.71053314208984</v>
+        <v>22.31122016906738</v>
       </c>
       <c r="E141" t="n">
-        <v>-2.232888460159302</v>
+        <v>-0.4524535834789276</v>
       </c>
       <c r="F141" t="n">
-        <v>5.714773178100586</v>
+        <v>5.982882976531982</v>
       </c>
       <c r="G141" t="n">
-        <v>21.66254615783691</v>
+        <v>22.46700096130371</v>
       </c>
       <c r="H141" t="n">
-        <v>-0.6045968532562256</v>
+        <v>-0.2041230797767639</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.9999228819762844</v>
+        <v>0.9999912309914867</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9999778195204463</v>
+        <v>1.000001122396975</v>
       </c>
       <c r="C142" t="n">
-        <v>7.67046070098877</v>
+        <v>7.893234252929688</v>
       </c>
       <c r="D142" t="n">
-        <v>20.70830917358398</v>
+        <v>20.06672477722168</v>
       </c>
       <c r="E142" t="n">
-        <v>0.1690202206373215</v>
+        <v>1.580674171447754</v>
       </c>
       <c r="F142" t="n">
-        <v>7.161935806274414</v>
+        <v>7.663922309875488</v>
       </c>
       <c r="G142" t="n">
-        <v>19.24761581420898</v>
+        <v>20.73476600646973</v>
       </c>
       <c r="H142" t="n">
-        <v>1.299612402915955</v>
+        <v>1.880955696105957</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.9999980403500343</v>
+        <v>1.00000014521361</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9999995401134456</v>
+        <v>0.9999999377773413</v>
       </c>
       <c r="C143" t="n">
-        <v>8.823537826538086</v>
+        <v>8.984078407287598</v>
       </c>
       <c r="D143" t="n">
-        <v>18.73519134521484</v>
+        <v>17.02982711791992</v>
       </c>
       <c r="E143" t="n">
-        <v>1.900817632675171</v>
+        <v>2.968223333358765</v>
       </c>
       <c r="F143" t="n">
-        <v>7.983591079711914</v>
+        <v>8.779928207397461</v>
       </c>
       <c r="G143" t="n">
-        <v>16.16341018676758</v>
+        <v>17.85242080688477</v>
       </c>
       <c r="H143" t="n">
-        <v>2.650905609130859</v>
+        <v>3.031917333602905</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.9999999972573009</v>
+        <v>0.9999999959288876</v>
       </c>
       <c r="B144" t="n">
-        <v>1.000000000356138</v>
+        <v>1.000000005454209</v>
       </c>
       <c r="C144" t="n">
-        <v>9.461155891418457</v>
+        <v>9.269601821899414</v>
       </c>
       <c r="D144" t="n">
-        <v>14.89873218536377</v>
+        <v>13.12087345123291</v>
       </c>
       <c r="E144" t="n">
-        <v>3.068961620330811</v>
+        <v>3.783984899520874</v>
       </c>
       <c r="F144" t="n">
-        <v>8.51685905456543</v>
+        <v>9.524724006652832</v>
       </c>
       <c r="G144" t="n">
-        <v>12.67341899871826</v>
+        <v>13.88422584533691</v>
       </c>
       <c r="H144" t="n">
-        <v>3.396758794784546</v>
+        <v>3.858913421630859</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.000000000045019</v>
+        <v>1.000000000201818</v>
       </c>
       <c r="B145" t="n">
-        <v>0.9999999999940636</v>
+        <v>0.9999999994504679</v>
       </c>
       <c r="C145" t="n">
-        <v>9.934197425842285</v>
+        <v>9.805489540100098</v>
       </c>
       <c r="D145" t="n">
-        <v>10.80099678039551</v>
+        <v>8.585938453674316</v>
       </c>
       <c r="E145" t="n">
-        <v>3.669904708862305</v>
+        <v>3.817959308624268</v>
       </c>
       <c r="F145" t="n">
-        <v>8.910938262939453</v>
+        <v>9.827492713928223</v>
       </c>
       <c r="G145" t="n">
-        <v>7.978921890258789</v>
+        <v>9.420197486877441</v>
       </c>
       <c r="H145" t="n">
-        <v>3.491382360458374</v>
+        <v>4.013586044311523</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.9999999999993292</v>
+        <v>0.9999999999888608</v>
       </c>
       <c r="B146" t="n">
-        <v>1.000000000000058</v>
+        <v>1.000000000056136</v>
       </c>
       <c r="C146" t="n">
-        <v>9.893983840942383</v>
+        <v>9.945344924926758</v>
       </c>
       <c r="D146" t="n">
-        <v>6.351908683776855</v>
+        <v>3.917172193527222</v>
       </c>
       <c r="E146" t="n">
-        <v>3.624691963195801</v>
+        <v>3.563897371292114</v>
       </c>
       <c r="F146" t="n">
-        <v>8.741253852844238</v>
+        <v>9.859810829162598</v>
       </c>
       <c r="G146" t="n">
-        <v>3.422557353973389</v>
+        <v>4.99547815322876</v>
       </c>
       <c r="H146" t="n">
-        <v>3.169165849685669</v>
+        <v>3.732999086380005</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.000000000000012</v>
+        <v>1.000000000000573</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0.9999999999940821</v>
       </c>
       <c r="C147" t="n">
-        <v>9.985838890075684</v>
+        <v>9.852139472961426</v>
       </c>
       <c r="D147" t="n">
-        <v>1.336897373199463</v>
+        <v>-0.7190645337104797</v>
       </c>
       <c r="E147" t="n">
-        <v>2.954627990722656</v>
+        <v>2.766494274139404</v>
       </c>
       <c r="F147" t="n">
-        <v>8.485250473022461</v>
+        <v>9.935413360595703</v>
       </c>
       <c r="G147" t="n">
-        <v>-1.253660798072815</v>
+        <v>0.2107329815626144</v>
       </c>
       <c r="H147" t="n">
-        <v>2.553903579711914</v>
+        <v>2.983843088150024</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999812</v>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>1.000000000000506</v>
       </c>
       <c r="C148" t="n">
-        <v>9.74162483215332</v>
+        <v>9.384404182434082</v>
       </c>
       <c r="D148" t="n">
-        <v>-3.096649885177612</v>
+        <v>-4.974993705749512</v>
       </c>
       <c r="E148" t="n">
-        <v>2.114821434020996</v>
+        <v>2.004377603530884</v>
       </c>
       <c r="F148" t="n">
-        <v>8.008734703063965</v>
+        <v>9.476202011108398</v>
       </c>
       <c r="G148" t="n">
-        <v>-5.111161708831787</v>
+        <v>-4.173269271850586</v>
       </c>
       <c r="H148" t="n">
-        <v>1.830159306526184</v>
+        <v>2.308328628540039</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0.9999999999999689</v>
       </c>
       <c r="C149" t="n">
-        <v>9.389840126037598</v>
+        <v>9.413347244262695</v>
       </c>
       <c r="D149" t="n">
-        <v>-6.940176963806152</v>
+        <v>-8.465816497802734</v>
       </c>
       <c r="E149" t="n">
-        <v>1.272517561912537</v>
+        <v>1.356406450271606</v>
       </c>
       <c r="F149" t="n">
-        <v>7.616086006164551</v>
+        <v>8.918194770812988</v>
       </c>
       <c r="G149" t="n">
-        <v>-8.365723609924316</v>
+        <v>-7.655379295349121</v>
       </c>
       <c r="H149" t="n">
-        <v>1.411405205726624</v>
+        <v>1.841158986091614</v>
       </c>
     </row>
     <row r="150">
@@ -4328,25 +4328,25 @@
         <v>1</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="C150" t="n">
-        <v>9.397653579711914</v>
+        <v>9.15793514251709</v>
       </c>
       <c r="D150" t="n">
-        <v>-9.640515327453613</v>
+        <v>-10.67663955688477</v>
       </c>
       <c r="E150" t="n">
-        <v>0.6665160655975342</v>
+        <v>0.8305748701095581</v>
       </c>
       <c r="F150" t="n">
-        <v>7.339794158935547</v>
+        <v>8.603921890258789</v>
       </c>
       <c r="G150" t="n">
-        <v>-10.36989879608154</v>
+        <v>-10.21569538116455</v>
       </c>
       <c r="H150" t="n">
-        <v>1.102900743484497</v>
+        <v>1.571192145347595</v>
       </c>
     </row>
     <row r="151">
@@ -4357,22 +4357,22 @@
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>9.282196044921875</v>
+        <v>9.117513656616211</v>
       </c>
       <c r="D151" t="n">
-        <v>-11.2220573425293</v>
+        <v>-11.82076835632324</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.2137712985277176</v>
+        <v>0.2516186833381653</v>
       </c>
       <c r="F151" t="n">
-        <v>6.863989353179932</v>
+        <v>8.203264236450195</v>
       </c>
       <c r="G151" t="n">
-        <v>-11.10314750671387</v>
+        <v>-11.85628700256348</v>
       </c>
       <c r="H151" t="n">
-        <v>0.5915868282318115</v>
+        <v>1.230234146118164</v>
       </c>
     </row>
     <row r="152">
@@ -4383,22 +4383,22 @@
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>9.161166191101074</v>
+        <v>8.931017875671387</v>
       </c>
       <c r="D152" t="n">
-        <v>-11.51328182220459</v>
+        <v>-12.30856513977051</v>
       </c>
       <c r="E152" t="n">
-        <v>-1.296531438827515</v>
+        <v>-0.6403963565826416</v>
       </c>
       <c r="F152" t="n">
-        <v>6.563117980957031</v>
+        <v>7.830156326293945</v>
       </c>
       <c r="G152" t="n">
-        <v>-11.33643436431885</v>
+        <v>-12.02738761901855</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.2965846657752991</v>
+        <v>0.4007101356983185</v>
       </c>
     </row>
     <row r="153">
@@ -4409,22 +4409,22 @@
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>8.611411094665527</v>
+        <v>8.437052726745605</v>
       </c>
       <c r="D153" t="n">
-        <v>-11.1431999206543</v>
+        <v>-11.47706985473633</v>
       </c>
       <c r="E153" t="n">
-        <v>-2.105053901672363</v>
+        <v>-1.356299161911011</v>
       </c>
       <c r="F153" t="n">
-        <v>6.763309955596924</v>
+        <v>7.66132640838623</v>
       </c>
       <c r="G153" t="n">
-        <v>-10.5378532409668</v>
+        <v>-11.62452983856201</v>
       </c>
       <c r="H153" t="n">
-        <v>-1.268604755401611</v>
+        <v>-0.7826937437057495</v>
       </c>
     </row>
     <row r="154">
@@ -4435,1218 +4435,1218 @@
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>8.033942222595215</v>
+        <v>7.784438133239746</v>
       </c>
       <c r="D154" t="n">
-        <v>-10.07266902923584</v>
+        <v>-10.35131931304932</v>
       </c>
       <c r="E154" t="n">
-        <v>-2.558207750320435</v>
+        <v>-2.642280578613281</v>
       </c>
       <c r="F154" t="n">
-        <v>7.19855785369873</v>
+        <v>7.523300170898438</v>
       </c>
       <c r="G154" t="n">
-        <v>-9.236157417297363</v>
+        <v>-10.80148601531982</v>
       </c>
       <c r="H154" t="n">
-        <v>-2.222047805786133</v>
+        <v>-2.056374788284302</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.02949698828160763</v>
+        <v>0.01236996613442898</v>
       </c>
       <c r="B155" t="n">
-        <v>0.02781444787979126</v>
+        <v>-0.003536042291671038</v>
       </c>
       <c r="C155" t="n">
-        <v>8.020425796508789</v>
+        <v>7.9913330078125</v>
       </c>
       <c r="D155" t="n">
-        <v>-6.267092704772949</v>
+        <v>-7.372709274291992</v>
       </c>
       <c r="E155" t="n">
-        <v>-3.880313158035278</v>
+        <v>-3.53701639175415</v>
       </c>
       <c r="F155" t="n">
-        <v>7.19648551940918</v>
+        <v>7.652632713317871</v>
       </c>
       <c r="G155" t="n">
-        <v>-6.472711086273193</v>
+        <v>-7.754931449890137</v>
       </c>
       <c r="H155" t="n">
-        <v>-3.973655700683594</v>
+        <v>-3.740948677062988</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.01909488998353481</v>
+        <v>0.00911252573132515</v>
       </c>
       <c r="B156" t="n">
-        <v>0.02500808984041214</v>
+        <v>-0.009443680755794048</v>
       </c>
       <c r="C156" t="n">
-        <v>8.541604995727539</v>
+        <v>8.144255638122559</v>
       </c>
       <c r="D156" t="n">
-        <v>-4.471277713775635</v>
+        <v>-6.20868968963623</v>
       </c>
       <c r="E156" t="n">
-        <v>-4.437476634979248</v>
+        <v>-4.445229530334473</v>
       </c>
       <c r="F156" t="n">
-        <v>7.327768325805664</v>
+        <v>7.91030216217041</v>
       </c>
       <c r="G156" t="n">
-        <v>-4.884146213531494</v>
+        <v>-6.735092639923096</v>
       </c>
       <c r="H156" t="n">
-        <v>-4.662491321563721</v>
+        <v>-4.789580821990967</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.01929166354238987</v>
+        <v>0.02268427424132824</v>
       </c>
       <c r="B157" t="n">
-        <v>0.030636016279459</v>
+        <v>-0.004116691183298826</v>
       </c>
       <c r="C157" t="n">
-        <v>8.531745910644531</v>
+        <v>7.507121086120605</v>
       </c>
       <c r="D157" t="n">
-        <v>-2.859477043151855</v>
+        <v>-4.826753616333008</v>
       </c>
       <c r="E157" t="n">
-        <v>-4.434533596038818</v>
+        <v>-4.423854827880859</v>
       </c>
       <c r="F157" t="n">
-        <v>7.064491271972656</v>
+        <v>7.677958488464355</v>
       </c>
       <c r="G157" t="n">
-        <v>-3.384238719940186</v>
+        <v>-5.460422039031982</v>
       </c>
       <c r="H157" t="n">
-        <v>-4.778219223022461</v>
+        <v>-5.450479984283447</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.03443894535303116</v>
+        <v>0.03268244862556458</v>
       </c>
       <c r="B158" t="n">
-        <v>0.04207733273506165</v>
+        <v>0.01616760715842247</v>
       </c>
       <c r="C158" t="n">
-        <v>7.772817611694336</v>
+        <v>7.037750244140625</v>
       </c>
       <c r="D158" t="n">
-        <v>-1.528034329414368</v>
+        <v>-3.886659860610962</v>
       </c>
       <c r="E158" t="n">
-        <v>-3.777142286300659</v>
+        <v>-4.143750190734863</v>
       </c>
       <c r="F158" t="n">
-        <v>6.529261112213135</v>
+        <v>6.793231964111328</v>
       </c>
       <c r="G158" t="n">
-        <v>-2.103478670120239</v>
+        <v>-4.319162368774414</v>
       </c>
       <c r="H158" t="n">
-        <v>-4.054672718048096</v>
+        <v>-5.215157032012939</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.05627880617976189</v>
+        <v>0.06180234253406525</v>
       </c>
       <c r="B159" t="n">
-        <v>0.05515523627400398</v>
+        <v>0.0366118922829628</v>
       </c>
       <c r="C159" t="n">
-        <v>6.678568840026855</v>
+        <v>5.670697689056396</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.9858067035675049</v>
+        <v>-3.29619836807251</v>
       </c>
       <c r="E159" t="n">
-        <v>-2.697521924972534</v>
+        <v>-3.296972036361694</v>
       </c>
       <c r="F159" t="n">
-        <v>5.917470455169678</v>
+        <v>5.901527404785156</v>
       </c>
       <c r="G159" t="n">
-        <v>-1.275017142295837</v>
+        <v>-3.488910913467407</v>
       </c>
       <c r="H159" t="n">
-        <v>-2.910294532775879</v>
+        <v>-4.362576961517334</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.08147890120744705</v>
+        <v>0.08223636448383331</v>
       </c>
       <c r="B160" t="n">
-        <v>0.07121121138334274</v>
+        <v>0.0560954362154007</v>
       </c>
       <c r="C160" t="n">
-        <v>5.415961265563965</v>
+        <v>4.711409091949463</v>
       </c>
       <c r="D160" t="n">
-        <v>-1.070149540901184</v>
+        <v>-3.114051103591919</v>
       </c>
       <c r="E160" t="n">
-        <v>-1.596484065055847</v>
+        <v>-2.322343826293945</v>
       </c>
       <c r="F160" t="n">
-        <v>5.166364192962646</v>
+        <v>5.051726818084717</v>
       </c>
       <c r="G160" t="n">
-        <v>-0.9883315563201904</v>
+        <v>-3.081411361694336</v>
       </c>
       <c r="H160" t="n">
-        <v>-1.67252504825592</v>
+        <v>-3.187746286392212</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.1054720878601074</v>
+        <v>0.1090831607580185</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0921582505106926</v>
+        <v>0.0813436284661293</v>
       </c>
       <c r="C161" t="n">
-        <v>4.213824272155762</v>
+        <v>3.451068639755249</v>
       </c>
       <c r="D161" t="n">
-        <v>-1.489285945892334</v>
+        <v>-3.495112419128418</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.6141470074653625</v>
+        <v>-1.337215423583984</v>
       </c>
       <c r="F161" t="n">
-        <v>4.18645191192627</v>
+        <v>3.950493812561035</v>
       </c>
       <c r="G161" t="n">
-        <v>-1.119211673736572</v>
+        <v>-3.355490684509277</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.5578708052635193</v>
+        <v>-1.87604546546936</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.1291951686143875</v>
+        <v>0.1365580409765244</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1169856339693069</v>
+        <v>0.1087874919176102</v>
       </c>
       <c r="C162" t="n">
-        <v>3.025219917297363</v>
+        <v>2.161242961883545</v>
       </c>
       <c r="D162" t="n">
-        <v>-2.022849321365356</v>
+        <v>-3.772388696670532</v>
       </c>
       <c r="E162" t="n">
-        <v>0.08402465283870697</v>
+        <v>-0.6239843964576721</v>
       </c>
       <c r="F162" t="n">
-        <v>3.025014638900757</v>
+        <v>2.753493070602417</v>
       </c>
       <c r="G162" t="n">
-        <v>-1.604390501976013</v>
+        <v>-3.267161846160889</v>
       </c>
       <c r="H162" t="n">
-        <v>0.4034611284732819</v>
+        <v>-0.7356696128845215</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.1527679413557053</v>
+        <v>0.1596010327339172</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1405138969421387</v>
+        <v>0.1308225691318512</v>
       </c>
       <c r="C163" t="n">
-        <v>1.844147205352783</v>
+        <v>1.079474687576294</v>
       </c>
       <c r="D163" t="n">
-        <v>-2.777204751968384</v>
+        <v>-4.531097888946533</v>
       </c>
       <c r="E163" t="n">
-        <v>0.691847026348114</v>
+        <v>0.1151763275265694</v>
       </c>
       <c r="F163" t="n">
-        <v>1.924351453781128</v>
+        <v>1.792404413223267</v>
       </c>
       <c r="G163" t="n">
-        <v>-2.378610849380493</v>
+        <v>-3.848087787628174</v>
       </c>
       <c r="H163" t="n">
-        <v>1.096311688423157</v>
+        <v>0.2053463011980057</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.1780072599649429</v>
+        <v>0.1836108416318893</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1637648344039917</v>
+        <v>0.1603692024946213</v>
       </c>
       <c r="C164" t="n">
-        <v>0.5795747637748718</v>
+        <v>-0.04768196120858192</v>
       </c>
       <c r="D164" t="n">
-        <v>-3.687896728515625</v>
+        <v>-5.333970069885254</v>
       </c>
       <c r="E164" t="n">
-        <v>1.175340533256531</v>
+        <v>0.6603341698646545</v>
       </c>
       <c r="F164" t="n">
-        <v>0.8366614580154419</v>
+        <v>0.5036886930465698</v>
       </c>
       <c r="G164" t="n">
-        <v>-3.009516716003418</v>
+        <v>-4.330613136291504</v>
       </c>
       <c r="H164" t="n">
-        <v>1.63637101650238</v>
+        <v>0.8961570262908936</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.2008808106184006</v>
+        <v>0.2085903137922287</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1874635219573975</v>
+        <v>0.1837626546621323</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.5664656758308411</v>
+        <v>-1.220358848571777</v>
       </c>
       <c r="D165" t="n">
-        <v>-4.504258155822754</v>
+        <v>-5.920562267303467</v>
       </c>
       <c r="E165" t="n">
-        <v>1.589217185974121</v>
+        <v>1.240271329879761</v>
       </c>
       <c r="F165" t="n">
-        <v>-0.2719742655754089</v>
+        <v>-0.5166475176811218</v>
       </c>
       <c r="G165" t="n">
-        <v>-3.880569934844971</v>
+        <v>-4.999131202697754</v>
       </c>
       <c r="H165" t="n">
-        <v>2.130142211914062</v>
+        <v>1.542137742042542</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.2222856134176254</v>
+        <v>0.2308463901281357</v>
       </c>
       <c r="B166" t="n">
-        <v>0.2083897292613983</v>
+        <v>0.2095725834369659</v>
       </c>
       <c r="C166" t="n">
-        <v>-1.638916254043579</v>
+        <v>-2.265185117721558</v>
       </c>
       <c r="D166" t="n">
-        <v>-5.380813121795654</v>
+        <v>-6.635565757751465</v>
       </c>
       <c r="E166" t="n">
-        <v>1.999921083450317</v>
+        <v>1.89906632900238</v>
       </c>
       <c r="F166" t="n">
-        <v>-1.250911355018616</v>
+        <v>-1.642381429672241</v>
       </c>
       <c r="G166" t="n">
-        <v>-4.815767765045166</v>
+        <v>-5.8280348777771</v>
       </c>
       <c r="H166" t="n">
-        <v>2.495702505111694</v>
+        <v>2.12373423576355</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.2431746870279312</v>
+        <v>0.2515011131763458</v>
       </c>
       <c r="B167" t="n">
-        <v>0.2310095876455307</v>
+        <v>0.2291363626718521</v>
       </c>
       <c r="C167" t="n">
-        <v>-2.685526847839355</v>
+        <v>-3.234834671020508</v>
       </c>
       <c r="D167" t="n">
-        <v>-6.360645294189453</v>
+        <v>-7.296041488647461</v>
       </c>
       <c r="E167" t="n">
-        <v>2.434325218200684</v>
+        <v>2.466263055801392</v>
       </c>
       <c r="F167" t="n">
-        <v>-2.309080123901367</v>
+        <v>-2.495682239532471</v>
       </c>
       <c r="G167" t="n">
-        <v>-5.550350666046143</v>
+        <v>-6.157730579376221</v>
       </c>
       <c r="H167" t="n">
-        <v>2.967566728591919</v>
+        <v>2.806301116943359</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.2608957290649414</v>
+        <v>0.2703361511230469</v>
       </c>
       <c r="B168" t="n">
-        <v>0.2520873844623566</v>
+        <v>0.2549913823604584</v>
       </c>
       <c r="C168" t="n">
-        <v>-3.573410034179688</v>
+        <v>-4.119057178497314</v>
       </c>
       <c r="D168" t="n">
-        <v>-6.908692359924316</v>
+        <v>-7.75937557220459</v>
       </c>
       <c r="E168" t="n">
-        <v>2.778950691223145</v>
+        <v>3.116089105606079</v>
       </c>
       <c r="F168" t="n">
-        <v>-3.295109987258911</v>
+        <v>-3.623383045196533</v>
       </c>
       <c r="G168" t="n">
-        <v>-6.478079319000244</v>
+        <v>-6.983610153198242</v>
       </c>
       <c r="H168" t="n">
-        <v>3.368154287338257</v>
+        <v>3.448725938796997</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.2814033925533295</v>
+        <v>0.2941670715808868</v>
       </c>
       <c r="B169" t="n">
-        <v>0.2746824324131012</v>
+        <v>0.2793373465538025</v>
       </c>
       <c r="C169" t="n">
-        <v>-4.60090970993042</v>
+        <v>-5.237816333770752</v>
       </c>
       <c r="D169" t="n">
-        <v>-7.626589775085449</v>
+        <v>-8.354764938354492</v>
       </c>
       <c r="E169" t="n">
-        <v>3.316789865493774</v>
+        <v>3.681984186172485</v>
       </c>
       <c r="F169" t="n">
-        <v>-4.352116107940674</v>
+        <v>-4.685265064239502</v>
       </c>
       <c r="G169" t="n">
-        <v>-7.249030113220215</v>
+        <v>-7.548787117004395</v>
       </c>
       <c r="H169" t="n">
-        <v>3.848710536956787</v>
+        <v>4.158305168151855</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.2975456416606903</v>
+        <v>0.3168509304523468</v>
       </c>
       <c r="B170" t="n">
-        <v>0.2961371243000031</v>
+        <v>0.3032426834106445</v>
       </c>
       <c r="C170" t="n">
-        <v>-5.409689903259277</v>
+        <v>-6.302723407745361</v>
       </c>
       <c r="D170" t="n">
-        <v>-8.468070983886719</v>
+        <v>-8.886970520019531</v>
       </c>
       <c r="E170" t="n">
-        <v>3.793396234512329</v>
+        <v>4.372227191925049</v>
       </c>
       <c r="F170" t="n">
-        <v>-5.355777740478516</v>
+        <v>-5.727926254272461</v>
       </c>
       <c r="G170" t="n">
-        <v>-7.939791202545166</v>
+        <v>-8.309329986572266</v>
       </c>
       <c r="H170" t="n">
-        <v>4.263405799865723</v>
+        <v>4.598703384399414</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.3189918398857117</v>
+        <v>0.3378379344940186</v>
       </c>
       <c r="B171" t="n">
-        <v>0.3170599341392517</v>
+        <v>0.3233679831027985</v>
       </c>
       <c r="C171" t="n">
-        <v>-6.484214305877686</v>
+        <v>-7.287972927093506</v>
       </c>
       <c r="D171" t="n">
-        <v>-9.001731872558594</v>
+        <v>-9.650155067443848</v>
       </c>
       <c r="E171" t="n">
-        <v>4.303559303283691</v>
+        <v>4.897830963134766</v>
       </c>
       <c r="F171" t="n">
-        <v>-6.334555149078369</v>
+        <v>-6.605718612670898</v>
       </c>
       <c r="G171" t="n">
-        <v>-8.73915958404541</v>
+        <v>-9.106447219848633</v>
       </c>
       <c r="H171" t="n">
-        <v>4.610086441040039</v>
+        <v>5.13511323928833</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.3363392055034637</v>
+        <v>0.3594756722450256</v>
       </c>
       <c r="B172" t="n">
-        <v>0.3378692269325256</v>
+        <v>0.3508954346179962</v>
       </c>
       <c r="C172" t="n">
-        <v>-7.353373527526855</v>
+        <v>-8.303770065307617</v>
       </c>
       <c r="D172" t="n">
-        <v>-9.642049789428711</v>
+        <v>-10.14351367950439</v>
       </c>
       <c r="E172" t="n">
-        <v>4.93237829208374</v>
+        <v>5.61542272567749</v>
       </c>
       <c r="F172" t="n">
-        <v>-7.308024406433105</v>
+        <v>-7.806365013122559</v>
       </c>
       <c r="G172" t="n">
-        <v>-9.429640769958496</v>
+        <v>-9.874678611755371</v>
       </c>
       <c r="H172" t="n">
-        <v>5.152697563171387</v>
+        <v>5.806737422943115</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.3555999100208282</v>
+        <v>0.3821792304515839</v>
       </c>
       <c r="B173" t="n">
-        <v>0.3570339679718018</v>
+        <v>0.3731203973293304</v>
       </c>
       <c r="C173" t="n">
-        <v>-8.318399429321289</v>
+        <v>-9.369604110717773</v>
       </c>
       <c r="D173" t="n">
-        <v>-10.06056022644043</v>
+        <v>-10.78027534484863</v>
       </c>
       <c r="E173" t="n">
-        <v>5.517762184143066</v>
+        <v>6.278140068054199</v>
       </c>
       <c r="F173" t="n">
-        <v>-8.204560279846191</v>
+        <v>-8.775736808776855</v>
       </c>
       <c r="G173" t="n">
-        <v>-10.03620910644531</v>
+        <v>-10.42176723480225</v>
       </c>
       <c r="H173" t="n">
-        <v>5.614081859588623</v>
+        <v>6.304463863372803</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.3738740980625153</v>
+        <v>0.3966510891914368</v>
       </c>
       <c r="B174" t="n">
-        <v>0.3775642514228821</v>
+        <v>0.3959054946899414</v>
       </c>
       <c r="C174" t="n">
-        <v>-9.23399543762207</v>
+        <v>-10.04899501800537</v>
       </c>
       <c r="D174" t="n">
-        <v>-10.36052131652832</v>
+        <v>-11.10673999786377</v>
       </c>
       <c r="E174" t="n">
-        <v>6.242014408111572</v>
+        <v>6.996848106384277</v>
       </c>
       <c r="F174" t="n">
-        <v>-9.16497802734375</v>
+        <v>-9.769537925720215</v>
       </c>
       <c r="G174" t="n">
-        <v>-10.51205730438232</v>
+        <v>-11.07485198974609</v>
       </c>
       <c r="H174" t="n">
-        <v>6.249531745910645</v>
+        <v>6.921109676361084</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.3927530944347382</v>
+        <v>0.4199453294277191</v>
       </c>
       <c r="B175" t="n">
-        <v>0.3965732157230377</v>
+        <v>0.420946329832077</v>
       </c>
       <c r="C175" t="n">
-        <v>-10.17989540100098</v>
+        <v>-11.14255714416504</v>
       </c>
       <c r="D175" t="n">
-        <v>-10.86017990112305</v>
+        <v>-11.38777732849121</v>
       </c>
       <c r="E175" t="n">
-        <v>6.91572093963623</v>
+        <v>7.600730419158936</v>
       </c>
       <c r="F175" t="n">
-        <v>-10.05422592163086</v>
+        <v>-10.86172771453857</v>
       </c>
       <c r="G175" t="n">
-        <v>-10.504469871521</v>
+        <v>-11.42207908630371</v>
       </c>
       <c r="H175" t="n">
-        <v>6.872100353240967</v>
+        <v>7.618173122406006</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.4100965559482574</v>
+        <v>0.4450691044330597</v>
       </c>
       <c r="B176" t="n">
-        <v>0.4146385788917542</v>
+        <v>0.4376510083675385</v>
       </c>
       <c r="C176" t="n">
-        <v>-11.04885864257812</v>
+        <v>-12.32201099395752</v>
       </c>
       <c r="D176" t="n">
-        <v>-10.95306015014648</v>
+        <v>-11.11196517944336</v>
       </c>
       <c r="E176" t="n">
-        <v>7.688701152801514</v>
+        <v>8.095587730407715</v>
       </c>
       <c r="F176" t="n">
-        <v>-10.89933204650879</v>
+        <v>-11.59032440185547</v>
       </c>
       <c r="G176" t="n">
-        <v>-10.51164817810059</v>
+        <v>-11.56103801727295</v>
       </c>
       <c r="H176" t="n">
-        <v>7.40302038192749</v>
+        <v>8.265291213989258</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.4289024472236633</v>
+        <v>0.4608842432498932</v>
       </c>
       <c r="B177" t="n">
-        <v>0.4166088998317719</v>
+        <v>0.461799830198288</v>
       </c>
       <c r="C177" t="n">
-        <v>-11.99109745025635</v>
+        <v>-13.0644645690918</v>
       </c>
       <c r="D177" t="n">
-        <v>-10.86235332489014</v>
+        <v>-11.1727294921875</v>
       </c>
       <c r="E177" t="n">
-        <v>8.321835517883301</v>
+        <v>8.487683296203613</v>
       </c>
       <c r="F177" t="n">
-        <v>-10.99150371551514</v>
+        <v>-12.6436071395874</v>
       </c>
       <c r="G177" t="n">
-        <v>-10.34650611877441</v>
+        <v>-11.34210014343262</v>
       </c>
       <c r="H177" t="n">
-        <v>8.131248474121094</v>
+        <v>8.698070526123047</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.4441018998622894</v>
+        <v>0.4805734157562256</v>
       </c>
       <c r="B178" t="n">
-        <v>0.4509260356426239</v>
+        <v>0.4825574159622192</v>
       </c>
       <c r="C178" t="n">
-        <v>-12.75264072418213</v>
+        <v>-13.98878288269043</v>
       </c>
       <c r="D178" t="n">
-        <v>-10.37904357910156</v>
+        <v>-10.27640151977539</v>
       </c>
       <c r="E178" t="n">
-        <v>8.958783149719238</v>
+        <v>8.558560371398926</v>
       </c>
       <c r="F178" t="n">
-        <v>-12.59687805175781</v>
+        <v>-13.54897689819336</v>
       </c>
       <c r="G178" t="n">
-        <v>-9.852053642272949</v>
+        <v>-10.76453304290771</v>
       </c>
       <c r="H178" t="n">
-        <v>8.544922828674316</v>
+        <v>8.830342292785645</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.4652180969715118</v>
+        <v>0.4939343929290771</v>
       </c>
       <c r="B179" t="n">
-        <v>0.4627696871757507</v>
+        <v>0.4922684729099274</v>
       </c>
       <c r="C179" t="n">
-        <v>-13.81062984466553</v>
+        <v>-14.6160249710083</v>
       </c>
       <c r="D179" t="n">
-        <v>-9.781980514526367</v>
+        <v>-9.682933807373047</v>
       </c>
       <c r="E179" t="n">
-        <v>8.773721694946289</v>
+        <v>8.097326278686523</v>
       </c>
       <c r="F179" t="n">
-        <v>-13.15092658996582</v>
+        <v>-13.97253799438477</v>
       </c>
       <c r="G179" t="n">
-        <v>-9.240889549255371</v>
+        <v>-9.852068901062012</v>
       </c>
       <c r="H179" t="n">
-        <v>8.666316986083984</v>
+        <v>9.019680976867676</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.4743431806564331</v>
+        <v>0.5072317719459534</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4715391397476196</v>
+        <v>0.5101156830787659</v>
       </c>
       <c r="C180" t="n">
-        <v>-14.26782512664795</v>
+        <v>-15.24027729034424</v>
       </c>
       <c r="D180" t="n">
-        <v>-8.765215873718262</v>
+        <v>-8.041308403015137</v>
       </c>
       <c r="E180" t="n">
-        <v>8.133241653442383</v>
+        <v>6.946895599365234</v>
       </c>
       <c r="F180" t="n">
-        <v>-13.5611686706543</v>
+        <v>-14.75096797943115</v>
       </c>
       <c r="G180" t="n">
-        <v>-8.032730102539062</v>
+        <v>-8.603920936584473</v>
       </c>
       <c r="H180" t="n">
-        <v>7.911228179931641</v>
+        <v>8.348445892333984</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.4823331832885742</v>
+        <v>0.5035055875778198</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4825897812843323</v>
+        <v>0.5206829309463501</v>
       </c>
       <c r="C181" t="n">
-        <v>-14.66815090179443</v>
+        <v>-15.06535053253174</v>
       </c>
       <c r="D181" t="n">
-        <v>-7.303136348724365</v>
+        <v>-6.026270866394043</v>
       </c>
       <c r="E181" t="n">
-        <v>6.527678489685059</v>
+        <v>4.679859161376953</v>
       </c>
       <c r="F181" t="n">
-        <v>-14.07812023162842</v>
+        <v>-15.21186923980713</v>
       </c>
       <c r="G181" t="n">
-        <v>-6.548992156982422</v>
+        <v>-6.815182209014893</v>
       </c>
       <c r="H181" t="n">
-        <v>5.76626443862915</v>
+        <v>6.361989498138428</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.484491378068924</v>
+        <v>0.4913585782051086</v>
       </c>
       <c r="B182" t="n">
-        <v>0.479164183139801</v>
+        <v>0.5142315626144409</v>
       </c>
       <c r="C182" t="n">
-        <v>-14.77628517150879</v>
+        <v>-14.4951000213623</v>
       </c>
       <c r="D182" t="n">
-        <v>-5.360564231872559</v>
+        <v>-3.318822860717773</v>
       </c>
       <c r="E182" t="n">
-        <v>3.576980590820312</v>
+        <v>1.029912233352661</v>
       </c>
       <c r="F182" t="n">
-        <v>-13.91787052154541</v>
+        <v>-14.93048763275146</v>
       </c>
       <c r="G182" t="n">
-        <v>-4.335880756378174</v>
+        <v>-4.061240196228027</v>
       </c>
       <c r="H182" t="n">
-        <v>2.390157699584961</v>
+        <v>3.010221481323242</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.4704486429691315</v>
+        <v>0.4635092914104462</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4637729227542877</v>
+        <v>0.4960825443267822</v>
       </c>
       <c r="C183" t="n">
-        <v>-14.07269668579102</v>
+        <v>-13.18769836425781</v>
       </c>
       <c r="D183" t="n">
-        <v>-3.008052825927734</v>
+        <v>-0.0885995626449585</v>
       </c>
       <c r="E183" t="n">
-        <v>-0.4706110060214996</v>
+        <v>-3.124876737594604</v>
       </c>
       <c r="F183" t="n">
-        <v>-13.19786071777344</v>
+        <v>-14.13889312744141</v>
       </c>
       <c r="G183" t="n">
-        <v>-1.602606177330017</v>
+        <v>-0.8825628161430359</v>
       </c>
       <c r="H183" t="n">
-        <v>-2.610752582550049</v>
+        <v>-1.993728399276733</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.4478597342967987</v>
+        <v>0.4419423639774323</v>
       </c>
       <c r="B184" t="n">
-        <v>0.4390635788440704</v>
+        <v>0.4626642763614655</v>
       </c>
       <c r="C184" t="n">
-        <v>-12.94091701507568</v>
+        <v>-12.1752233505249</v>
       </c>
       <c r="D184" t="n">
-        <v>0.2194253206253052</v>
+        <v>3.947064638137817</v>
       </c>
       <c r="E184" t="n">
-        <v>-5.365501880645752</v>
+        <v>-7.68447208404541</v>
       </c>
       <c r="F184" t="n">
-        <v>-12.04194641113281</v>
+        <v>-12.68131160736084</v>
       </c>
       <c r="G184" t="n">
-        <v>1.504229426383972</v>
+        <v>3.085606098175049</v>
       </c>
       <c r="H184" t="n">
-        <v>-8.023208618164062</v>
+        <v>-7.462856769561768</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.4122897088527679</v>
+        <v>0.3998165130615234</v>
       </c>
       <c r="B185" t="n">
-        <v>0.4088869094848633</v>
+        <v>0.4223280251026154</v>
       </c>
       <c r="C185" t="n">
-        <v>-11.15874576568604</v>
+        <v>-10.19759845733643</v>
       </c>
       <c r="D185" t="n">
-        <v>3.646610498428345</v>
+        <v>8.210636138916016</v>
       </c>
       <c r="E185" t="n">
-        <v>-10.21764469146729</v>
+        <v>-11.4348087310791</v>
       </c>
       <c r="F185" t="n">
-        <v>-10.63026714324951</v>
+        <v>-10.92199230194092</v>
       </c>
       <c r="G185" t="n">
-        <v>5.248512744903564</v>
+        <v>7.547418594360352</v>
       </c>
       <c r="H185" t="n">
-        <v>-12.02018928527832</v>
+        <v>-12.17126560211182</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.3733560144901276</v>
+        <v>0.3433070778846741</v>
       </c>
       <c r="B186" t="n">
-        <v>0.3668848276138306</v>
+        <v>0.372668594121933</v>
       </c>
       <c r="C186" t="n">
-        <v>-9.208038330078125</v>
+        <v>-7.544727325439453</v>
       </c>
       <c r="D186" t="n">
-        <v>8.059008598327637</v>
+        <v>12.49251651763916</v>
       </c>
       <c r="E186" t="n">
-        <v>-13.4160623550415</v>
+        <v>-13.64061260223389</v>
       </c>
       <c r="F186" t="n">
-        <v>-8.665388107299805</v>
+        <v>-8.75602912902832</v>
       </c>
       <c r="G186" t="n">
-        <v>9.429410934448242</v>
+        <v>12.04167366027832</v>
       </c>
       <c r="H186" t="n">
-        <v>-14.50118064880371</v>
+        <v>-14.34167957305908</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.321780800819397</v>
+        <v>0.2934862971305847</v>
       </c>
       <c r="B187" t="n">
-        <v>0.6219672597838569</v>
+        <v>0.6237822266214548</v>
       </c>
       <c r="C187" t="n">
-        <v>-6.623950958251953</v>
+        <v>-5.205857276916504</v>
       </c>
       <c r="D187" t="n">
-        <v>12.19457054138184</v>
+        <v>16.46185493469238</v>
       </c>
       <c r="E187" t="n">
-        <v>-14.98233985900879</v>
+        <v>-13.3176851272583</v>
       </c>
       <c r="F187" t="n">
-        <v>-6.306617736816406</v>
+        <v>-6.364913940429688</v>
       </c>
       <c r="G187" t="n">
-        <v>13.11346626281738</v>
+        <v>15.93967914581299</v>
       </c>
       <c r="H187" t="n">
-        <v>-14.1194019317627</v>
+        <v>-14.66106605529785</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.656914981133374</v>
+        <v>0.6902231454584934</v>
       </c>
       <c r="B188" t="n">
-        <v>0.8140608026137504</v>
+        <v>0.820139060319454</v>
       </c>
       <c r="C188" t="n">
-        <v>-3.934698343276978</v>
+        <v>-2.337319135665894</v>
       </c>
       <c r="D188" t="n">
-        <v>15.76302051544189</v>
+        <v>19.99666404724121</v>
       </c>
       <c r="E188" t="n">
-        <v>-14.07164859771729</v>
+        <v>-11.6851863861084</v>
       </c>
       <c r="F188" t="n">
-        <v>-3.69734787940979</v>
+        <v>-3.55312705039978</v>
       </c>
       <c r="G188" t="n">
-        <v>16.52651405334473</v>
+        <v>19.55253410339355</v>
       </c>
       <c r="H188" t="n">
-        <v>-11.87516021728516</v>
+        <v>-12.73697090148926</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.8623312468303763</v>
+        <v>0.8973843058293969</v>
       </c>
       <c r="B189" t="n">
-        <v>0.9297619908377055</v>
+        <v>0.9352978625487091</v>
       </c>
       <c r="C189" t="n">
-        <v>-1.157222151756287</v>
+        <v>0.3299839198589325</v>
       </c>
       <c r="D189" t="n">
-        <v>19.44726371765137</v>
+        <v>22.26234817504883</v>
       </c>
       <c r="E189" t="n">
-        <v>-11.40732574462891</v>
+        <v>-8.748745918273926</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.8680739402770996</v>
+        <v>-0.8174470067024231</v>
       </c>
       <c r="G189" t="n">
-        <v>19.94854164123535</v>
+        <v>22.27119255065918</v>
       </c>
       <c r="H189" t="n">
-        <v>-8.92914867401123</v>
+        <v>-9.380954742431641</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.9579347303022693</v>
+        <v>0.97631487350302</v>
       </c>
       <c r="B190" t="n">
-        <v>0.9805989983905871</v>
+        <v>0.9841604209794276</v>
       </c>
       <c r="C190" t="n">
-        <v>1.38441014289856</v>
+        <v>2.829123973846436</v>
       </c>
       <c r="D190" t="n">
-        <v>21.48826599121094</v>
+        <v>23.01955986022949</v>
       </c>
       <c r="E190" t="n">
-        <v>-8.286952972412109</v>
+        <v>-5.692108154296875</v>
       </c>
       <c r="F190" t="n">
-        <v>1.649206399917603</v>
+        <v>1.839270830154419</v>
       </c>
       <c r="G190" t="n">
-        <v>20.88993453979492</v>
+        <v>23.43486976623535</v>
       </c>
       <c r="H190" t="n">
-        <v>-5.640041828155518</v>
+        <v>-5.632478713989258</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.9907341664433639</v>
+        <v>0.9964910334627338</v>
       </c>
       <c r="B191" t="n">
-        <v>0.9962239910338928</v>
+        <v>0.9976322013997755</v>
       </c>
       <c r="C191" t="n">
-        <v>3.649036169052124</v>
+        <v>4.885884284973145</v>
       </c>
       <c r="D191" t="n">
-        <v>21.5984935760498</v>
+        <v>23.37774276733398</v>
       </c>
       <c r="E191" t="n">
-        <v>-5.081282138824463</v>
+        <v>-2.683958530426025</v>
       </c>
       <c r="F191" t="n">
-        <v>3.672080516815186</v>
+        <v>4.042783260345459</v>
       </c>
       <c r="G191" t="n">
-        <v>21.07801818847656</v>
+        <v>23.77945327758789</v>
       </c>
       <c r="H191" t="n">
-        <v>-2.843213319778442</v>
+        <v>-2.541874647140503</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.9986709162365857</v>
+        <v>0.9997350861682704</v>
       </c>
       <c r="B192" t="n">
-        <v>0.9995351630925478</v>
+        <v>0.9998365527286612</v>
       </c>
       <c r="C192" t="n">
-        <v>5.689331531524658</v>
+        <v>6.693612098693848</v>
       </c>
       <c r="D192" t="n">
-        <v>21.72058868408203</v>
+        <v>22.42271423339844</v>
       </c>
       <c r="E192" t="n">
-        <v>-2.251076221466064</v>
+        <v>-0.07353754341602325</v>
       </c>
       <c r="F192" t="n">
-        <v>5.445493221282959</v>
+        <v>5.902679443359375</v>
       </c>
       <c r="G192" t="n">
-        <v>20.50308418273926</v>
+        <v>22.70766067504883</v>
       </c>
       <c r="H192" t="n">
-        <v>-0.5389400720596313</v>
+        <v>-0.003539862344041467</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.9998862215385469</v>
+        <v>0.9999937966387983</v>
       </c>
       <c r="B193" t="n">
-        <v>0.9999680023928669</v>
+        <v>1.000000900736084</v>
       </c>
       <c r="C193" t="n">
-        <v>7.225058555603027</v>
+        <v>7.989418029785156</v>
       </c>
       <c r="D193" t="n">
-        <v>19.81027984619141</v>
+        <v>20.02565383911133</v>
       </c>
       <c r="E193" t="n">
-        <v>0.06232463195919991</v>
+        <v>1.91439425945282</v>
       </c>
       <c r="F193" t="n">
-        <v>6.790957927703857</v>
+        <v>7.625796318054199</v>
       </c>
       <c r="G193" t="n">
-        <v>18.40352249145508</v>
+        <v>20.96287155151367</v>
       </c>
       <c r="H193" t="n">
-        <v>1.262805581092834</v>
+        <v>2.062916994094849</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.9999949997909695</v>
+        <v>1.000000119828157</v>
       </c>
       <c r="B194" t="n">
-        <v>0.9999988955828192</v>
+        <v>0.9999999493140669</v>
       </c>
       <c r="C194" t="n">
-        <v>8.331323623657227</v>
+        <v>9.052670478820801</v>
       </c>
       <c r="D194" t="n">
-        <v>17.89913177490234</v>
+        <v>16.86572456359863</v>
       </c>
       <c r="E194" t="n">
-        <v>1.764100551605225</v>
+        <v>3.261266469955444</v>
       </c>
       <c r="F194" t="n">
-        <v>7.641890525817871</v>
+        <v>8.799216270446777</v>
       </c>
       <c r="G194" t="n">
-        <v>15.44456386566162</v>
+        <v>18.00679969787598</v>
       </c>
       <c r="H194" t="n">
-        <v>2.647206783294678</v>
+        <v>3.205729007720947</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.9999998991477146</v>
+        <v>0.9999999964371482</v>
       </c>
       <c r="B195" t="n">
-        <v>0.9999999877447547</v>
+        <v>1.000000004422986</v>
       </c>
       <c r="C195" t="n">
-        <v>8.962722778320312</v>
+        <v>9.31184196472168</v>
       </c>
       <c r="D195" t="n">
-        <v>14.3942232131958</v>
+        <v>12.84841728210449</v>
       </c>
       <c r="E195" t="n">
-        <v>2.925137281417847</v>
+        <v>3.939143419265747</v>
       </c>
       <c r="F195" t="n">
-        <v>8.2225341796875</v>
+        <v>9.515622138977051</v>
       </c>
       <c r="G195" t="n">
-        <v>12.12553119659424</v>
+        <v>14.08033275604248</v>
       </c>
       <c r="H195" t="n">
-        <v>3.374080896377563</v>
+        <v>3.960220336914062</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.9999999997786692</v>
+        <v>1.000000000184087</v>
       </c>
       <c r="B196" t="n">
-        <v>1.000000000013509</v>
+        <v>0.9999999995310528</v>
       </c>
       <c r="C196" t="n">
-        <v>9.440044403076172</v>
+        <v>9.857625007629395</v>
       </c>
       <c r="D196" t="n">
-        <v>10.40500831604004</v>
+        <v>8.266865730285645</v>
       </c>
       <c r="E196" t="n">
-        <v>3.533630609512329</v>
+        <v>3.877823829650879</v>
       </c>
       <c r="F196" t="n">
-        <v>8.524989128112793</v>
+        <v>9.949347496032715</v>
       </c>
       <c r="G196" t="n">
-        <v>7.655791282653809</v>
+        <v>9.586724281311035</v>
       </c>
       <c r="H196" t="n">
-        <v>3.519437789916992</v>
+        <v>4.094452381134033</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.9999999999990661</v>
+        <v>0.999999999989402</v>
       </c>
       <c r="B197" t="n">
-        <v>1.00000000000003</v>
+        <v>1.000000000050862</v>
       </c>
       <c r="C197" t="n">
-        <v>9.386272430419922</v>
+        <v>10.00447082519531</v>
       </c>
       <c r="D197" t="n">
-        <v>6.12591028213501</v>
+        <v>3.596746683120728</v>
       </c>
       <c r="E197" t="n">
-        <v>3.533900737762451</v>
+        <v>3.464976072311401</v>
       </c>
       <c r="F197" t="n">
-        <v>8.443170547485352</v>
+        <v>10.00565814971924</v>
       </c>
       <c r="G197" t="n">
-        <v>3.267258644104004</v>
+        <v>5.250977993011475</v>
       </c>
       <c r="H197" t="n">
-        <v>3.259464979171753</v>
+        <v>3.76862096786499</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000592</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0.9999999999941316</v>
       </c>
       <c r="C198" t="n">
-        <v>9.547344207763672</v>
+        <v>9.961099624633789</v>
       </c>
       <c r="D198" t="n">
-        <v>1.299900531768799</v>
+        <v>-1.070412039756775</v>
       </c>
       <c r="E198" t="n">
-        <v>2.927388906478882</v>
+        <v>2.616199254989624</v>
       </c>
       <c r="F198" t="n">
-        <v>8.193294525146484</v>
+        <v>10.16554069519043</v>
       </c>
       <c r="G198" t="n">
-        <v>-1.202232956886292</v>
+        <v>0.4605849087238312</v>
       </c>
       <c r="H198" t="n">
-        <v>2.720601797103882</v>
+        <v>3.019233226776123</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1</v>
+        <v>0.9999999999999771</v>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>1.000000000000577</v>
       </c>
       <c r="C199" t="n">
-        <v>9.284001350402832</v>
+        <v>9.535369873046875</v>
       </c>
       <c r="D199" t="n">
-        <v>-2.966344118118286</v>
+        <v>-5.223191261291504</v>
       </c>
       <c r="E199" t="n">
-        <v>2.143560409545898</v>
+        <v>1.770940184593201</v>
       </c>
       <c r="F199" t="n">
-        <v>7.733355522155762</v>
+        <v>9.771093368530273</v>
       </c>
       <c r="G199" t="n">
-        <v>-4.927495002746582</v>
+        <v>-3.845547199249268</v>
       </c>
       <c r="H199" t="n">
-        <v>2.042505502700806</v>
+        <v>2.365120887756348</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0.9999999999999573</v>
       </c>
       <c r="C200" t="n">
-        <v>8.94292163848877</v>
+        <v>9.598190307617188</v>
       </c>
       <c r="D200" t="n">
-        <v>-6.719182014465332</v>
+        <v>-8.64241886138916</v>
       </c>
       <c r="E200" t="n">
-        <v>1.376668572425842</v>
+        <v>1.101985216140747</v>
       </c>
       <c r="F200" t="n">
-        <v>7.368345260620117</v>
+        <v>9.210988998413086</v>
       </c>
       <c r="G200" t="n">
-        <v>-8.057190895080566</v>
+        <v>-7.430942535400391</v>
       </c>
       <c r="H200" t="n">
-        <v>1.666914105415344</v>
+        <v>1.876307964324951</v>
       </c>
     </row>
     <row r="201">
@@ -5654,25 +5654,25 @@
         <v>1</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="C201" t="n">
-        <v>8.883441925048828</v>
+        <v>9.257224082946777</v>
       </c>
       <c r="D201" t="n">
-        <v>-9.27049732208252</v>
+        <v>-10.80723762512207</v>
       </c>
       <c r="E201" t="n">
-        <v>0.8089620471000671</v>
+        <v>0.6112974882125854</v>
       </c>
       <c r="F201" t="n">
-        <v>7.122161388397217</v>
+        <v>8.841348648071289</v>
       </c>
       <c r="G201" t="n">
-        <v>-9.915126800537109</v>
+        <v>-10.06246089935303</v>
       </c>
       <c r="H201" t="n">
-        <v>1.355394005775452</v>
+        <v>1.618922233581543</v>
       </c>
     </row>
     <row r="202">
@@ -5680,25 +5680,25 @@
         <v>1</v>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C202" t="n">
-        <v>8.787383079528809</v>
+        <v>9.254976272583008</v>
       </c>
       <c r="D202" t="n">
-        <v>-10.91782855987549</v>
+        <v>-11.92713165283203</v>
       </c>
       <c r="E202" t="n">
-        <v>0.006055284291505814</v>
+        <v>0.1040694862604141</v>
       </c>
       <c r="F202" t="n">
-        <v>6.695969581604004</v>
+        <v>8.507084846496582</v>
       </c>
       <c r="G202" t="n">
-        <v>-10.62920761108398</v>
+        <v>-11.87770462036133</v>
       </c>
       <c r="H202" t="n">
-        <v>0.8752812743186951</v>
+        <v>1.280687093734741</v>
       </c>
     </row>
     <row r="203">
@@ -5709,22 +5709,22 @@
         <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>8.605528831481934</v>
+        <v>9.049201011657715</v>
       </c>
       <c r="D203" t="n">
-        <v>-11.2427921295166</v>
+        <v>-12.40101337432861</v>
       </c>
       <c r="E203" t="n">
-        <v>-0.9972232580184937</v>
+        <v>-0.7360259294509888</v>
       </c>
       <c r="F203" t="n">
-        <v>6.418246269226074</v>
+        <v>8.081332206726074</v>
       </c>
       <c r="G203" t="n">
-        <v>-10.8414421081543</v>
+        <v>-12.13503742218018</v>
       </c>
       <c r="H203" t="n">
-        <v>0.02078932337462902</v>
+        <v>0.4657761454582214</v>
       </c>
     </row>
     <row r="204">
@@ -5735,22 +5735,22 @@
         <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>8.142876625061035</v>
+        <v>8.464991569519043</v>
       </c>
       <c r="D204" t="n">
-        <v>-10.85848426818848</v>
+        <v>-11.62069988250732</v>
       </c>
       <c r="E204" t="n">
-        <v>-1.843320965766907</v>
+        <v>-1.478025078773499</v>
       </c>
       <c r="F204" t="n">
-        <v>6.550083637237549</v>
+        <v>7.821073532104492</v>
       </c>
       <c r="G204" t="n">
-        <v>-10.04802703857422</v>
+        <v>-11.86235809326172</v>
       </c>
       <c r="H204" t="n">
-        <v>-1.024291634559631</v>
+        <v>-0.7466081380844116</v>
       </c>
     </row>
     <row r="205">
@@ -5761,22 +5761,22 @@
         <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>7.704499244689941</v>
+        <v>7.71245288848877</v>
       </c>
       <c r="D205" t="n">
-        <v>-9.781731605529785</v>
+        <v>-10.48344612121582</v>
       </c>
       <c r="E205" t="n">
-        <v>-2.423140287399292</v>
+        <v>-2.703649520874023</v>
       </c>
       <c r="F205" t="n">
-        <v>6.933938503265381</v>
+        <v>7.619675636291504</v>
       </c>
       <c r="G205" t="n">
-        <v>-8.836377143859863</v>
+        <v>-11.10767841339111</v>
       </c>
       <c r="H205" t="n">
-        <v>-2.106231927871704</v>
+        <v>-2.111997842788696</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/PV_typical_cnn.xlsx
+++ b/Predictions/PV_typical_cnn.xlsx
@@ -483,1296 +483,1296 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.406725883483887</v>
+        <v>9.289923667907715</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.519193649291992</v>
+        <v>-5.128233909606934</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.694462299346924</v>
+        <v>-5.634322643280029</v>
       </c>
       <c r="F2" t="n">
-        <v>-13.27467250823975</v>
+        <v>-12.87334632873535</v>
       </c>
       <c r="G2" t="n">
-        <v>2.782201766967773</v>
+        <v>3.075707912445068</v>
       </c>
       <c r="H2" t="n">
-        <v>2.335049390792847</v>
+        <v>2.320191621780396</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.004469559201970697</v>
+        <v>-0.01166907627135515</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.07400444746017457</v>
+        <v>-0.1272881819307804</v>
       </c>
       <c r="C3" t="n">
-        <v>9.628528594970703</v>
+        <v>9.860780715942383</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.557069778442383</v>
+        <v>-1.832733750343323</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.387648582458496</v>
+        <v>-6.564674854278564</v>
       </c>
       <c r="F3" t="n">
-        <v>-12.71200847625732</v>
+        <v>-11.72458171844482</v>
       </c>
       <c r="G3" t="n">
-        <v>6.812507152557373</v>
+        <v>6.883002281188965</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.806526660919189</v>
+        <v>-1.297625780105591</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.01847978435456753</v>
+        <v>-0.01689091641455889</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3462484562397004</v>
+        <v>-0.2951704388856888</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3237886428833</v>
+        <v>10.11623573303223</v>
       </c>
       <c r="D4" t="n">
-        <v>1.123466491699219</v>
+        <v>0.8580570220947266</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.315536022186279</v>
+        <v>-6.201093196868896</v>
       </c>
       <c r="F4" t="n">
-        <v>-10.6421070098877</v>
+        <v>-10.20945930480957</v>
       </c>
       <c r="G4" t="n">
-        <v>10.77616882324219</v>
+        <v>10.93142986297607</v>
       </c>
       <c r="H4" t="n">
-        <v>-5.229604721069336</v>
+        <v>-5.061285972595215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0175439090281725</v>
+        <v>-0.009900937397032976</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5337835264205932</v>
+        <v>-0.4856172966957092</v>
       </c>
       <c r="C5" t="n">
-        <v>10.27734565734863</v>
+        <v>9.774282455444336</v>
       </c>
       <c r="D5" t="n">
-        <v>2.654649972915649</v>
+        <v>2.989345788955688</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.596972942352295</v>
+        <v>-5.642078876495361</v>
       </c>
       <c r="F5" t="n">
-        <v>-9.216257095336914</v>
+        <v>-8.490693092346191</v>
       </c>
       <c r="G5" t="n">
-        <v>14.81512355804443</v>
+        <v>14.63572216033936</v>
       </c>
       <c r="H5" t="n">
-        <v>-8.045101165771484</v>
+        <v>-8.013710975646973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.003052841755561531</v>
+        <v>-0.004159962311387063</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.796827255487442</v>
+        <v>-0.666923485994339</v>
       </c>
       <c r="C6" t="n">
-        <v>9.558223724365234</v>
+        <v>9.493431091308594</v>
       </c>
       <c r="D6" t="n">
-        <v>3.46151328086853</v>
+        <v>4.474662780761719</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.580113887786865</v>
+        <v>-3.958966493606567</v>
       </c>
       <c r="F6" t="n">
-        <v>-7.216306686401367</v>
+        <v>-6.85442066192627</v>
       </c>
       <c r="G6" t="n">
-        <v>18.28666496276855</v>
+        <v>18.42548370361328</v>
       </c>
       <c r="H6" t="n">
-        <v>-9.765130043029785</v>
+        <v>-9.852931976318359</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02555681779980659</v>
+        <v>0.02067266784608364</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.05452764749527</v>
+        <v>-0.8891971337795258</v>
       </c>
       <c r="C7" t="n">
-        <v>8.138463973999023</v>
+        <v>8.278606414794922</v>
       </c>
       <c r="D7" t="n">
-        <v>3.802540063858032</v>
+        <v>4.6962890625</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.787733793258667</v>
+        <v>-3.022561550140381</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.256981372833252</v>
+        <v>-4.848421096801758</v>
       </c>
       <c r="G7" t="n">
-        <v>21.06549072265625</v>
+        <v>20.80956840515137</v>
       </c>
       <c r="H7" t="n">
-        <v>-9.681509971618652</v>
+        <v>-10.11926746368408</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.04309803768992424</v>
+        <v>0.05176847033202649</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.358819105625153</v>
+        <v>-1.143589878082276</v>
       </c>
       <c r="C8" t="n">
-        <v>7.267977714538574</v>
+        <v>6.757384300231934</v>
       </c>
       <c r="D8" t="n">
-        <v>3.467410802841187</v>
+        <v>4.409290790557861</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.680406391620636</v>
+        <v>-0.9712837934494019</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.943420171737671</v>
+        <v>-2.552549362182617</v>
       </c>
       <c r="G8" t="n">
-        <v>22.53183746337891</v>
+        <v>22.34255218505859</v>
       </c>
       <c r="H8" t="n">
-        <v>-8.808811187744141</v>
+        <v>-9.185145378112793</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.07154821798205376</v>
+        <v>0.07493564739823341</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.656339464187622</v>
+        <v>-1.308458728790283</v>
       </c>
       <c r="C9" t="n">
-        <v>5.856132030487061</v>
+        <v>5.624034404754639</v>
       </c>
       <c r="D9" t="n">
-        <v>2.546720266342163</v>
+        <v>3.199691534042358</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4060348868370056</v>
+        <v>0.5636609792709351</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6813399791717529</v>
+        <v>-1.064622282981873</v>
       </c>
       <c r="G9" t="n">
-        <v>23.28263282775879</v>
+        <v>22.99521255493164</v>
       </c>
       <c r="H9" t="n">
-        <v>-6.432369709014893</v>
+        <v>-6.846442699432373</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1068419426679611</v>
+        <v>0.1128090649843216</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.804728076457977</v>
+        <v>-1.490800263881684</v>
       </c>
       <c r="C10" t="n">
-        <v>4.104674339294434</v>
+        <v>3.77124810218811</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4809982776641846</v>
+        <v>1.091980695724487</v>
       </c>
       <c r="E10" t="n">
-        <v>1.291014552116394</v>
+        <v>1.57421886920929</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4468758106231689</v>
+        <v>0.5809941291809082</v>
       </c>
       <c r="G10" t="n">
-        <v>22.19976425170898</v>
+        <v>22.84120750427246</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.671064853668213</v>
+        <v>-4.325337409973145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1407522657513618</v>
+        <v>0.1486611115932465</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.100879051685333</v>
+        <v>-1.727338774204254</v>
       </c>
       <c r="C11" t="n">
-        <v>2.421867847442627</v>
+        <v>2.017347812652588</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3684781193733215</v>
+        <v>-0.347917377948761</v>
       </c>
       <c r="E11" t="n">
-        <v>2.404714822769165</v>
+        <v>2.230990171432495</v>
       </c>
       <c r="F11" t="n">
-        <v>2.698543787002563</v>
+        <v>2.715733289718628</v>
       </c>
       <c r="G11" t="n">
-        <v>20.77215385437012</v>
+        <v>20.49912261962891</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.9963785409927368</v>
+        <v>-1.448814988136292</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1824536812305451</v>
+        <v>0.1786875611543655</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.258382649421692</v>
+        <v>-1.84929842710495</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3524273335933685</v>
+        <v>0.5484392046928406</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.74825119972229</v>
+        <v>-2.455748796463013</v>
       </c>
       <c r="E12" t="n">
-        <v>2.828369855880737</v>
+        <v>2.545649766921997</v>
       </c>
       <c r="F12" t="n">
-        <v>3.896061420440674</v>
+        <v>3.816407680511475</v>
       </c>
       <c r="G12" t="n">
-        <v>17.73429870605469</v>
+        <v>17.18486785888672</v>
       </c>
       <c r="H12" t="n">
-        <v>1.334359645843506</v>
+        <v>0.5547307133674622</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2172136455774307</v>
+        <v>0.2212463733553887</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.445446705818176</v>
+        <v>-1.986532447338104</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.37254273891449</v>
+        <v>-1.53355872631073</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.265735149383545</v>
+        <v>-4.734867572784424</v>
       </c>
       <c r="E13" t="n">
-        <v>2.891693115234375</v>
+        <v>3.20688271522522</v>
       </c>
       <c r="F13" t="n">
-        <v>5.318330764770508</v>
+        <v>5.054933071136475</v>
       </c>
       <c r="G13" t="n">
-        <v>14.94201374053955</v>
+        <v>14.28696823120117</v>
       </c>
       <c r="H13" t="n">
-        <v>3.037442445755005</v>
+        <v>2.626205921173096</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.258294150531292</v>
+        <v>0.251356979906559</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.541200680732727</v>
+        <v>-2.089232532978058</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.411169767379761</v>
+        <v>-3.006585597991943</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.038727760314941</v>
+        <v>-7.109285831451416</v>
       </c>
       <c r="E14" t="n">
-        <v>3.325116872787476</v>
+        <v>3.269100189208984</v>
       </c>
       <c r="F14" t="n">
-        <v>6.046358585357666</v>
+        <v>5.981791973114014</v>
       </c>
       <c r="G14" t="n">
-        <v>9.385236740112305</v>
+        <v>10.4138069152832</v>
       </c>
       <c r="H14" t="n">
-        <v>3.456318140029907</v>
+        <v>3.213504314422607</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2900218570232391</v>
+        <v>0.2870225638151169</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.651919689178467</v>
+        <v>-2.136878657341004</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.985663414001465</v>
+        <v>-4.751363754272461</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.292832374572754</v>
+        <v>-8.916851043701172</v>
       </c>
       <c r="E15" t="n">
-        <v>4.089269638061523</v>
+        <v>3.919584989547729</v>
       </c>
       <c r="F15" t="n">
-        <v>6.888166904449463</v>
+        <v>6.411795139312744</v>
       </c>
       <c r="G15" t="n">
-        <v>5.104812145233154</v>
+        <v>6.372976779937744</v>
       </c>
       <c r="H15" t="n">
-        <v>4.106197834014893</v>
+        <v>3.666021347045898</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3264079087972641</v>
+        <v>0.3178338783979416</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.68845974445343</v>
+        <v>-2.251543188095093</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.791327953338623</v>
+        <v>-6.258668422698975</v>
       </c>
       <c r="D16" t="n">
-        <v>-10.79940891265869</v>
+        <v>-10.14992427825928</v>
       </c>
       <c r="E16" t="n">
-        <v>4.574103832244873</v>
+        <v>4.389318943023682</v>
       </c>
       <c r="F16" t="n">
-        <v>7.165984153747559</v>
+        <v>7.446632385253906</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8634784817695618</v>
+        <v>1.470804333686829</v>
       </c>
       <c r="H16" t="n">
-        <v>4.234527587890625</v>
+        <v>4.021052360534668</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3494236767292023</v>
+        <v>0.3497407817840577</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.71414026260376</v>
+        <v>-2.223864889144898</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.933489322662354</v>
+        <v>-7.819570064544678</v>
       </c>
       <c r="D17" t="n">
-        <v>-12.01266098022461</v>
+        <v>-11.13021087646484</v>
       </c>
       <c r="E17" t="n">
-        <v>5.510768413543701</v>
+        <v>5.407490730285645</v>
       </c>
       <c r="F17" t="n">
-        <v>7.361238479614258</v>
+        <v>7.196837425231934</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.299086570739746</v>
+        <v>-3.698724985122681</v>
       </c>
       <c r="H17" t="n">
-        <v>3.924769163131714</v>
+        <v>3.348471164703369</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.385046660900116</v>
+        <v>0.3890765297412873</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.742626266479492</v>
+        <v>-2.298977656364441</v>
       </c>
       <c r="C18" t="n">
-        <v>-9.701286315917969</v>
+        <v>-9.743892669677734</v>
       </c>
       <c r="D18" t="n">
-        <v>-12.94745445251465</v>
+        <v>-12.66440105438232</v>
       </c>
       <c r="E18" t="n">
-        <v>6.514664649963379</v>
+        <v>6.161683559417725</v>
       </c>
       <c r="F18" t="n">
-        <v>7.577818870544434</v>
+        <v>7.874724388122559</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.153447151184082</v>
+        <v>-6.993430137634277</v>
       </c>
       <c r="H18" t="n">
-        <v>3.205530881881714</v>
+        <v>3.425623893737793</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4126368224620819</v>
+        <v>0.4083761537075043</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.717850246429443</v>
+        <v>-2.352129492759705</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.07045555114746</v>
+        <v>-10.6880407333374</v>
       </c>
       <c r="D19" t="n">
-        <v>-13.5744800567627</v>
+        <v>-12.93021011352539</v>
       </c>
       <c r="E19" t="n">
-        <v>7.979497909545898</v>
+        <v>7.300249099731445</v>
       </c>
       <c r="F19" t="n">
-        <v>7.389443397521973</v>
+        <v>8.354414939880371</v>
       </c>
       <c r="G19" t="n">
-        <v>-11.09954071044922</v>
+        <v>-10.41785049438477</v>
       </c>
       <c r="H19" t="n">
-        <v>2.970250844955444</v>
+        <v>3.156670093536377</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4420254921913147</v>
+        <v>0.441833359003067</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.713031311035156</v>
+        <v>-2.288401927947998</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.5288724899292</v>
+        <v>-12.32478523254395</v>
       </c>
       <c r="D20" t="n">
-        <v>-13.83400917053223</v>
+        <v>-13.39672660827637</v>
       </c>
       <c r="E20" t="n">
-        <v>9.215782165527344</v>
+        <v>8.823793411254883</v>
       </c>
       <c r="F20" t="n">
-        <v>7.352805137634277</v>
+        <v>7.779279708862305</v>
       </c>
       <c r="G20" t="n">
-        <v>-14.03360843658447</v>
+        <v>-13.03291606903076</v>
       </c>
       <c r="H20" t="n">
-        <v>2.733718395233154</v>
+        <v>2.953609943389893</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4587269586324692</v>
+        <v>0.4694327133893967</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.706369009017945</v>
+        <v>-2.36769853591919</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.35768508911133</v>
+        <v>-13.67495822906494</v>
       </c>
       <c r="D21" t="n">
-        <v>-13.72663879394531</v>
+        <v>-13.95567607879639</v>
       </c>
       <c r="E21" t="n">
-        <v>10.3989429473877</v>
+        <v>10.56062412261963</v>
       </c>
       <c r="F21" t="n">
-        <v>7.302151679992676</v>
+        <v>8.494925498962402</v>
       </c>
       <c r="G21" t="n">
-        <v>-14.86472034454346</v>
+        <v>-14.96651840209961</v>
       </c>
       <c r="H21" t="n">
-        <v>2.852314710617065</v>
+        <v>2.948631048202515</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4900139307975769</v>
+        <v>0.4872797131538391</v>
       </c>
       <c r="B22" t="n">
-        <v>-2.770390996932984</v>
+        <v>-2.291165461540222</v>
       </c>
       <c r="C22" t="n">
-        <v>-14.91030788421631</v>
+        <v>-14.54804229736328</v>
       </c>
       <c r="D22" t="n">
-        <v>-13.31176376342773</v>
+        <v>-12.52785205841064</v>
       </c>
       <c r="E22" t="n">
-        <v>11.53446292877197</v>
+        <v>11.7092981338501</v>
       </c>
       <c r="F22" t="n">
-        <v>7.78891658782959</v>
+        <v>7.804221153259277</v>
       </c>
       <c r="G22" t="n">
-        <v>-15.33841705322266</v>
+        <v>-15.42298698425293</v>
       </c>
       <c r="H22" t="n">
-        <v>2.58500599861145</v>
+        <v>2.339959621429443</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.5059345442056656</v>
+        <v>0.496334171295166</v>
       </c>
       <c r="B23" t="n">
-        <v>-2.767344160079956</v>
+        <v>-2.276236062049866</v>
       </c>
       <c r="C23" t="n">
-        <v>-15.70037078857422</v>
+        <v>-14.99098968505859</v>
       </c>
       <c r="D23" t="n">
-        <v>-12.27177810668945</v>
+        <v>-11.87410068511963</v>
       </c>
       <c r="E23" t="n">
-        <v>12.29898834228516</v>
+        <v>12.52496814727783</v>
       </c>
       <c r="F23" t="n">
-        <v>7.765750885009766</v>
+        <v>7.669483184814453</v>
       </c>
       <c r="G23" t="n">
-        <v>-14.99719905853271</v>
+        <v>-15.17378234863281</v>
       </c>
       <c r="H23" t="n">
-        <v>1.507645845413208</v>
+        <v>1.633501052856445</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.5236700612306595</v>
+        <v>0.5222010731697083</v>
       </c>
       <c r="B24" t="n">
-        <v>-2.820099978446961</v>
+        <v>-2.325830054283142</v>
       </c>
       <c r="C24" t="n">
-        <v>-16.58049774169922</v>
+        <v>-16.25641250610352</v>
       </c>
       <c r="D24" t="n">
-        <v>-11.06296539306641</v>
+        <v>-10.37107753753662</v>
       </c>
       <c r="E24" t="n">
-        <v>12.20118427276611</v>
+        <v>12.04822826385498</v>
       </c>
       <c r="F24" t="n">
-        <v>8.166858673095703</v>
+        <v>8.117062568664551</v>
       </c>
       <c r="G24" t="n">
-        <v>-13.20925998687744</v>
+        <v>-13.90191555023193</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3339290022850037</v>
+        <v>-0.1401544809341431</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5263049268722535</v>
+        <v>0.53</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.85300359249115</v>
+        <v>-2.392713885307312</v>
       </c>
       <c r="C25" t="n">
-        <v>-16.71125411987305</v>
+        <v>-16.637939453125</v>
       </c>
       <c r="D25" t="n">
-        <v>-9.204770088195801</v>
+        <v>-9.554656028747559</v>
       </c>
       <c r="E25" t="n">
-        <v>10.77385520935059</v>
+        <v>10.51026058197021</v>
       </c>
       <c r="F25" t="n">
-        <v>8.41702938079834</v>
+        <v>8.720685005187988</v>
       </c>
       <c r="G25" t="n">
-        <v>-10.97760009765625</v>
+        <v>-11.76217746734619</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.766762733459473</v>
+        <v>-1.725476264953613</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.53</v>
+        <v>0.5293685382604599</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.934063959121704</v>
+        <v>-2.414752907752991</v>
       </c>
       <c r="C26" t="n">
-        <v>-16.89462280273438</v>
+        <v>-16.6070499420166</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.222312927246094</v>
+        <v>-6.228207588195801</v>
       </c>
       <c r="E26" t="n">
-        <v>7.782820701599121</v>
+        <v>7.953263759613037</v>
       </c>
       <c r="F26" t="n">
-        <v>9.033340454101562</v>
+        <v>8.919583320617676</v>
       </c>
       <c r="G26" t="n">
-        <v>-8.346857070922852</v>
+        <v>-9.635918617248535</v>
       </c>
       <c r="H26" t="n">
-        <v>-3.650710344314575</v>
+        <v>-4.068843364715576</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5120363682508469</v>
+        <v>0.5119677221775055</v>
       </c>
       <c r="B27" t="n">
-        <v>-3.018871712684632</v>
+        <v>-2.433096604347229</v>
       </c>
       <c r="C27" t="n">
-        <v>-16.003173828125</v>
+        <v>-15.75579166412354</v>
       </c>
       <c r="D27" t="n">
-        <v>-3.524032592773438</v>
+        <v>-3.78586483001709</v>
       </c>
       <c r="E27" t="n">
-        <v>3.10616660118103</v>
+        <v>3.060028553009033</v>
       </c>
       <c r="F27" t="n">
-        <v>9.678142547607422</v>
+        <v>9.085136413574219</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.27826452255249</v>
+        <v>-6.493480205535889</v>
       </c>
       <c r="H27" t="n">
-        <v>-5.886271476745605</v>
+        <v>-5.938704013824463</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4982661807537079</v>
+        <v>0.4944041520357132</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.999639692306519</v>
+        <v>-2.492353739738464</v>
       </c>
       <c r="C28" t="n">
-        <v>-15.31982707977295</v>
+        <v>-14.89657211303711</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.4873659610748291</v>
+        <v>-0.04752266407012939</v>
       </c>
       <c r="E28" t="n">
-        <v>-2.248034000396729</v>
+        <v>-1.536605954170227</v>
       </c>
       <c r="F28" t="n">
-        <v>9.531920433044434</v>
+        <v>9.619926452636719</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.742529153823853</v>
+        <v>-4.246709823608398</v>
       </c>
       <c r="H28" t="n">
-        <v>-7.483589649200439</v>
+        <v>-7.322265148162842</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4722579115629196</v>
+        <v>0.4721084570884705</v>
       </c>
       <c r="B29" t="n">
-        <v>-2.997921929359436</v>
+        <v>-2.493407850265503</v>
       </c>
       <c r="C29" t="n">
-        <v>-14.02916240692139</v>
+        <v>-13.80585765838623</v>
       </c>
       <c r="D29" t="n">
-        <v>3.364970445632935</v>
+        <v>3.259317636489868</v>
       </c>
       <c r="E29" t="n">
-        <v>-7.059625625610352</v>
+        <v>-7.061545848846436</v>
       </c>
       <c r="F29" t="n">
-        <v>9.518861770629883</v>
+        <v>9.629439353942871</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02004591375589371</v>
+        <v>-1.253441572189331</v>
       </c>
       <c r="H29" t="n">
-        <v>-8.136968612670898</v>
+        <v>-7.829183101654053</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4379041373729706</v>
+        <v>0.4379843771457672</v>
       </c>
       <c r="B30" t="n">
-        <v>-3.007226963043213</v>
+        <v>-2.505021767616272</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.32435035705566</v>
+        <v>-12.1364917755127</v>
       </c>
       <c r="D30" t="n">
-        <v>8.042935371398926</v>
+        <v>6.993216991424561</v>
       </c>
       <c r="E30" t="n">
-        <v>-11.43270778656006</v>
+        <v>-11.07038688659668</v>
       </c>
       <c r="F30" t="n">
-        <v>9.589608192443848</v>
+        <v>9.7342529296875</v>
       </c>
       <c r="G30" t="n">
-        <v>1.127125144004822</v>
+        <v>1.080279946327209</v>
       </c>
       <c r="H30" t="n">
-        <v>-7.893587589263916</v>
+        <v>-7.850492000579834</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.3976358389854431</v>
+        <v>0.3987760651111603</v>
       </c>
       <c r="B31" t="n">
-        <v>-2.909742588996887</v>
+        <v>-2.445750985145569</v>
       </c>
       <c r="C31" t="n">
-        <v>-10.32602691650391</v>
+        <v>-10.21840000152588</v>
       </c>
       <c r="D31" t="n">
-        <v>12.53415679931641</v>
+        <v>11.67551136016846</v>
       </c>
       <c r="E31" t="n">
-        <v>-14.39717960357666</v>
+        <v>-14.20067596435547</v>
       </c>
       <c r="F31" t="n">
-        <v>8.848423957824707</v>
+        <v>9.1993408203125</v>
       </c>
       <c r="G31" t="n">
-        <v>2.261316299438477</v>
+        <v>2.0058434009552</v>
       </c>
       <c r="H31" t="n">
-        <v>-6.880653381347656</v>
+        <v>-6.780313491821289</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3284284663200379</v>
+        <v>0.3467175430059433</v>
       </c>
       <c r="B32" t="n">
-        <v>-2.742407155036926</v>
+        <v>-2.302296171188355</v>
       </c>
       <c r="C32" t="n">
-        <v>-6.891599178314209</v>
+        <v>-7.671671867370605</v>
       </c>
       <c r="D32" t="n">
-        <v>16.18835639953613</v>
+        <v>16.68677711486816</v>
       </c>
       <c r="E32" t="n">
-        <v>-15.08706665039062</v>
+        <v>-15.26839160919189</v>
       </c>
       <c r="F32" t="n">
-        <v>7.576154708862305</v>
+        <v>7.904671669006348</v>
       </c>
       <c r="G32" t="n">
-        <v>2.085338592529297</v>
+        <v>3.067329883575439</v>
       </c>
       <c r="H32" t="n">
-        <v>-5.290951251983643</v>
+        <v>-5.426376819610596</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.2861760973930359</v>
+        <v>0.2973862570524216</v>
       </c>
       <c r="B33" t="n">
-        <v>-2.620831389427185</v>
+        <v>-2.155676498413086</v>
       </c>
       <c r="C33" t="n">
-        <v>-4.794816970825195</v>
+        <v>-5.258360862731934</v>
       </c>
       <c r="D33" t="n">
-        <v>19.48521423339844</v>
+        <v>19.46807098388672</v>
       </c>
       <c r="E33" t="n">
-        <v>-14.24460029602051</v>
+        <v>-13.94320487976074</v>
       </c>
       <c r="F33" t="n">
-        <v>6.651800155639648</v>
+        <v>6.581443786621094</v>
       </c>
       <c r="G33" t="n">
-        <v>2.414005756378174</v>
+        <v>2.127060174942017</v>
       </c>
       <c r="H33" t="n">
-        <v>-3.935326099395752</v>
+        <v>-3.545615911483765</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.2413058426976204</v>
+        <v>0.240604550242424</v>
       </c>
       <c r="B34" t="n">
-        <v>-2.355687084197998</v>
+        <v>-2.001752352714539</v>
       </c>
       <c r="C34" t="n">
-        <v>-2.568121910095215</v>
+        <v>-2.480571031570435</v>
       </c>
       <c r="D34" t="n">
-        <v>22.43878746032715</v>
+        <v>22.6221923828125</v>
       </c>
       <c r="E34" t="n">
-        <v>-11.42238426208496</v>
+        <v>-11.13175106048584</v>
       </c>
       <c r="F34" t="n">
-        <v>4.635878562927246</v>
+        <v>5.192290782928467</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8892778754234314</v>
+        <v>1.451969027519226</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.677911996841431</v>
+        <v>-1.763064384460449</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.741077365048316</v>
+        <v>0.7319090106894046</v>
       </c>
       <c r="B35" t="n">
-        <v>14.45356378289157</v>
+        <v>11.264984089705</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4307579696178436</v>
+        <v>0.1365550458431244</v>
       </c>
       <c r="D35" t="n">
-        <v>24.83857154846191</v>
+        <v>24.1414623260498</v>
       </c>
       <c r="E35" t="n">
-        <v>-7.802977085113525</v>
+        <v>-7.788025379180908</v>
       </c>
       <c r="F35" t="n">
-        <v>2.880927324295044</v>
+        <v>3.48360013961792</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.6167959570884705</v>
+        <v>-0.7583858966827393</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.431033253669739</v>
+        <v>-1.586346983909607</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9335128072128334</v>
+        <v>0.9315493236566288</v>
       </c>
       <c r="B36" t="n">
-        <v>-47.80674086253693</v>
+        <v>-30.58529770685293</v>
       </c>
       <c r="C36" t="n">
-        <v>2.652960062026978</v>
+        <v>2.669858455657959</v>
       </c>
       <c r="D36" t="n">
-        <v>25.97308921813965</v>
+        <v>24.90226364135742</v>
       </c>
       <c r="E36" t="n">
-        <v>-3.762685775756836</v>
+        <v>-4.015531063079834</v>
       </c>
       <c r="F36" t="n">
-        <v>1.344058513641357</v>
+        <v>1.844542264938354</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.396624088287354</v>
+        <v>-2.485483646392822</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.6963400840759277</v>
+        <v>-0.4199236035346985</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9871892158315619</v>
+        <v>0.9877461900191919</v>
       </c>
       <c r="B37" t="n">
-        <v>160.6166728175614</v>
+        <v>85.0761742853615</v>
       </c>
       <c r="C37" t="n">
-        <v>4.338969230651855</v>
+        <v>4.648404598236084</v>
       </c>
       <c r="D37" t="n">
-        <v>24.67020225524902</v>
+        <v>24.88200759887695</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.5195028185844421</v>
+        <v>-0.8391289710998535</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.09618322551250458</v>
+        <v>-0.1410487145185471</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.688161849975586</v>
+        <v>-4.488227367401123</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.2986794114112854</v>
+        <v>-0.3452948927879333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9984360101955684</v>
+        <v>0.9984044061714819</v>
       </c>
       <c r="B38" t="n">
-        <v>-455.5174731005682</v>
+        <v>-200.5124161532254</v>
       </c>
       <c r="C38" t="n">
-        <v>6.195755958557129</v>
+        <v>5.913803100585938</v>
       </c>
       <c r="D38" t="n">
-        <v>23.42275047302246</v>
+        <v>22.63391876220703</v>
       </c>
       <c r="E38" t="n">
-        <v>1.947914838790894</v>
+        <v>1.93513548374176</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.749528884887695</v>
+        <v>-1.409042239189148</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.740878582000732</v>
+        <v>-5.83492374420166</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5031011700630188</v>
+        <v>0.2904084324836731</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9998582332608886</v>
+        <v>0.9998644011728409</v>
       </c>
       <c r="B39" t="n">
-        <v>1129.459171991522</v>
+        <v>411.5125952608033</v>
       </c>
       <c r="C39" t="n">
-        <v>7.022658824920654</v>
+        <v>7.086488246917725</v>
       </c>
       <c r="D39" t="n">
-        <v>19.75325012207031</v>
+        <v>19.56769180297852</v>
       </c>
       <c r="E39" t="n">
-        <v>3.821647644042969</v>
+        <v>2.897804260253906</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.313839435577393</v>
+        <v>-3.129206418991089</v>
       </c>
       <c r="G39" t="n">
-        <v>-8.42848014831543</v>
+        <v>-8.331870079040527</v>
       </c>
       <c r="H39" t="n">
-        <v>1.106584072113037</v>
+        <v>0.8370524644851685</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9999897337748782</v>
+        <v>0.9999910669522395</v>
       </c>
       <c r="B40" t="n">
-        <v>-2407.97028374344</v>
+        <v>-640.3807091085849</v>
       </c>
       <c r="C40" t="n">
-        <v>7.502079010009766</v>
+        <v>7.58183479309082</v>
       </c>
       <c r="D40" t="n">
-        <v>15.21130084991455</v>
+        <v>14.91797351837158</v>
       </c>
       <c r="E40" t="n">
-        <v>3.876407384872437</v>
+        <v>3.630419731140137</v>
       </c>
       <c r="F40" t="n">
-        <v>-4.672407627105713</v>
+        <v>-5.400118350982666</v>
       </c>
       <c r="G40" t="n">
-        <v>-9.45445442199707</v>
+        <v>-9.122180938720703</v>
       </c>
       <c r="H40" t="n">
-        <v>1.749651312828064</v>
+        <v>1.906425714492798</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9999995439819412</v>
+        <v>0.9999994648327073</v>
       </c>
       <c r="B41" t="n">
-        <v>4167.744434091541</v>
+        <v>937.8513993213337</v>
       </c>
       <c r="C41" t="n">
-        <v>8.238439559936523</v>
+        <v>7.736618995666504</v>
       </c>
       <c r="D41" t="n">
-        <v>10.12548637390137</v>
+        <v>9.81498908996582</v>
       </c>
       <c r="E41" t="n">
-        <v>3.638095378875732</v>
+        <v>3.178311347961426</v>
       </c>
       <c r="F41" t="n">
-        <v>-6.304675102233887</v>
+        <v>-5.886621475219727</v>
       </c>
       <c r="G41" t="n">
-        <v>-10.73566722869873</v>
+        <v>-10.44797515869141</v>
       </c>
       <c r="H41" t="n">
-        <v>3.042105674743652</v>
+        <v>2.888847351074219</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9999999629826415</v>
+        <v>0.9999999661561804</v>
       </c>
       <c r="B42" t="n">
-        <v>-5926.44784147835</v>
+        <v>-991.4827603029711</v>
       </c>
       <c r="C42" t="n">
-        <v>7.271708488464355</v>
+        <v>7.650253295898438</v>
       </c>
       <c r="D42" t="n">
-        <v>4.839481830596924</v>
+        <v>5.063954830169678</v>
       </c>
       <c r="E42" t="n">
-        <v>2.923620223999023</v>
+        <v>2.517303466796875</v>
       </c>
       <c r="F42" t="n">
-        <v>-7.542251586914062</v>
+        <v>-7.806110858917236</v>
       </c>
       <c r="G42" t="n">
-        <v>-11.37154006958008</v>
+        <v>-11.08638668060303</v>
       </c>
       <c r="H42" t="n">
-        <v>4.169443607330322</v>
+        <v>4.475411415100098</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9999999967456613</v>
+        <v>0.9999999972296723</v>
       </c>
       <c r="B43" t="n">
-        <v>6661.520072491424</v>
+        <v>811.5433916816422</v>
       </c>
       <c r="C43" t="n">
-        <v>7.094472885131836</v>
+        <v>7.167566299438477</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.8154937624931335</v>
+        <v>-0.09313178062438965</v>
       </c>
       <c r="E43" t="n">
-        <v>1.5777747631073</v>
+        <v>1.556200504302979</v>
       </c>
       <c r="F43" t="n">
-        <v>-8.746660232543945</v>
+        <v>-8.966987609863281</v>
       </c>
       <c r="G43" t="n">
-        <v>-11.79760837554932</v>
+        <v>-11.24632835388184</v>
       </c>
       <c r="H43" t="n">
-        <v>6.047262668609619</v>
+        <v>5.656032085418701</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9999999997267109</v>
+        <v>0.9999999997496504</v>
       </c>
       <c r="B44" t="n">
-        <v>-4776.382346575289</v>
+        <v>-405.4352591774405</v>
       </c>
       <c r="C44" t="n">
-        <v>7.19802188873291</v>
+        <v>6.946868419647217</v>
       </c>
       <c r="D44" t="n">
-        <v>-5.280325889587402</v>
+        <v>-4.825598239898682</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6626136898994446</v>
+        <v>0.2669679820537567</v>
       </c>
       <c r="F44" t="n">
-        <v>-10.38433170318604</v>
+        <v>-10.47487831115723</v>
       </c>
       <c r="G44" t="n">
-        <v>-12.08828639984131</v>
+        <v>-11.49038696289062</v>
       </c>
       <c r="H44" t="n">
-        <v>7.354083061218262</v>
+        <v>7.073176860809326</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9999999999706044</v>
+        <v>0.9999999999715088</v>
       </c>
       <c r="B45" t="n">
-        <v>2020.157990145519</v>
+        <v>95.05918896628251</v>
       </c>
       <c r="C45" t="n">
-        <v>6.577692031860352</v>
+        <v>6.339179992675781</v>
       </c>
       <c r="D45" t="n">
-        <v>-9.318390846252441</v>
+        <v>-8.975305557250977</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1177147328853607</v>
+        <v>-0.1543218344449997</v>
       </c>
       <c r="F45" t="n">
-        <v>-11.57154369354248</v>
+        <v>-11.76639461517334</v>
       </c>
       <c r="G45" t="n">
-        <v>-12.37570762634277</v>
+        <v>-11.55402088165283</v>
       </c>
       <c r="H45" t="n">
-        <v>8.752682685852051</v>
+        <v>8.442681312561035</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9999999999961361</v>
+        <v>0.999999999996807</v>
       </c>
       <c r="B46" t="n">
-        <v>-227.7968698811574</v>
+        <v>5.445837616810612</v>
       </c>
       <c r="C46" t="n">
-        <v>5.949539661407471</v>
+        <v>6.384166717529297</v>
       </c>
       <c r="D46" t="n">
-        <v>-11.91298675537109</v>
+        <v>-11.50423336029053</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.6731786727905273</v>
+        <v>-0.8849583864212036</v>
       </c>
       <c r="F46" t="n">
-        <v>-12.81806087493896</v>
+        <v>-13.09943103790283</v>
       </c>
       <c r="G46" t="n">
-        <v>-12.26210117340088</v>
+        <v>-11.96956634521484</v>
       </c>
       <c r="H46" t="n">
-        <v>10.01194858551025</v>
+        <v>9.816960334777832</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9999999999995567</v>
+        <v>0.9999999999996222</v>
       </c>
       <c r="B47" t="n">
-        <v>-70.8402460446915</v>
+        <v>2.568744363686818</v>
       </c>
       <c r="C47" t="n">
-        <v>6.388931751251221</v>
+        <v>6.221967220306396</v>
       </c>
       <c r="D47" t="n">
-        <v>-12.26216506958008</v>
+        <v>-12.53108024597168</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.933247447013855</v>
+        <v>-1.223474025726318</v>
       </c>
       <c r="F47" t="n">
-        <v>-14.53994750976562</v>
+        <v>-14.56113243103027</v>
       </c>
       <c r="G47" t="n">
-        <v>-11.25438404083252</v>
+        <v>-11.59255409240723</v>
       </c>
       <c r="H47" t="n">
-        <v>11.04688835144043</v>
+        <v>10.69457054138184</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9999999999999476</v>
+        <v>0.9999999999999499</v>
       </c>
       <c r="B48" t="n">
-        <v>-31.57652988751073</v>
+        <v>1.835720620098354</v>
       </c>
       <c r="C48" t="n">
-        <v>6.29867696762085</v>
+        <v>5.850983619689941</v>
       </c>
       <c r="D48" t="n">
-        <v>-12.23366928100586</v>
+        <v>-13.14065170288086</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.32688570022583</v>
+        <v>-1.652557730674744</v>
       </c>
       <c r="F48" t="n">
-        <v>-15.10194873809814</v>
+        <v>-15.42151260375977</v>
       </c>
       <c r="G48" t="n">
-        <v>-11.18873977661133</v>
+        <v>-11.16336822509766</v>
       </c>
       <c r="H48" t="n">
-        <v>11.64600372314453</v>
+        <v>11.17572402954102</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9999999999999943</v>
+        <v>0.9999999999999944</v>
       </c>
       <c r="B49" t="n">
-        <v>-24.56995076888916</v>
+        <v>1.663258865321077</v>
       </c>
       <c r="C49" t="n">
-        <v>6.585024833679199</v>
+        <v>6.428126811981201</v>
       </c>
       <c r="D49" t="n">
-        <v>-11.53374195098877</v>
+        <v>-11.67853736877441</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.381263613700867</v>
+        <v>-1.713850498199463</v>
       </c>
       <c r="F49" t="n">
-        <v>-16.4376220703125</v>
+        <v>-16.66947364807129</v>
       </c>
       <c r="G49" t="n">
-        <v>-10.07026767730713</v>
+        <v>-9.787697792053223</v>
       </c>
       <c r="H49" t="n">
-        <v>11.23471450805664</v>
+        <v>11.37990379333496</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="B50" t="n">
-        <v>-19.05772736716762</v>
+        <v>1.583733424484628</v>
       </c>
       <c r="C50" t="n">
-        <v>7.480998992919922</v>
+        <v>6.347104549407959</v>
       </c>
       <c r="D50" t="n">
-        <v>-10.65623474121094</v>
+        <v>-10.75593280792236</v>
       </c>
       <c r="E50" t="n">
-        <v>-2.060428857803345</v>
+        <v>-2.321748018264771</v>
       </c>
       <c r="F50" t="n">
-        <v>-16.43563270568848</v>
+        <v>-17.08303833007812</v>
       </c>
       <c r="G50" t="n">
-        <v>-8.228113174438477</v>
+        <v>-8.185846328735352</v>
       </c>
       <c r="H50" t="n">
-        <v>10.18142032623291</v>
+        <v>10.01557064056396</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>-19.05772736716762</v>
+        <v>1.583733424484628</v>
       </c>
       <c r="C51" t="n">
-        <v>7.818656921386719</v>
+        <v>6.77207612991333</v>
       </c>
       <c r="D51" t="n">
-        <v>-9.176410675048828</v>
+        <v>-9.743951797485352</v>
       </c>
       <c r="E51" t="n">
-        <v>-2.71824312210083</v>
+        <v>-2.593217372894287</v>
       </c>
       <c r="F51" t="n">
-        <v>-17.3043212890625</v>
+        <v>-17.65654945373535</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.633326530456543</v>
+        <v>-6.234251022338867</v>
       </c>
       <c r="H51" t="n">
-        <v>7.545356273651123</v>
+        <v>7.321956157684326</v>
       </c>
     </row>
     <row r="52">
@@ -1780,25 +1780,25 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>-17.7573005400688</v>
+        <v>1.493870716601982</v>
       </c>
       <c r="C52" t="n">
-        <v>8.334737777709961</v>
+        <v>7.519667625427246</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.839308261871338</v>
+        <v>-8.041285514831543</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.183116912841797</v>
+        <v>-2.635323047637939</v>
       </c>
       <c r="F52" t="n">
-        <v>-17.04306221008301</v>
+        <v>-16.92020034790039</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.434921741485596</v>
+        <v>-4.2451171875</v>
       </c>
       <c r="H52" t="n">
-        <v>3.634125947952271</v>
+        <v>3.353648900985718</v>
       </c>
     </row>
   </sheetData>
